--- a/Results/table2latex.xlsx
+++ b/Results/table2latex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbueren\Google Drive\endo_health\metric_model\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85096189-53AD-4A2C-9C30-284646511E65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B8D5E3C-D967-43B9-BC27-31852477BC50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D131852-BDAB-48D2-B0B4-24C9607E5D25}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -439,324 +440,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F330EFCA-C7DF-4136-98BB-2504A28BB96C}">
-  <dimension ref="A2:M38"/>
+  <dimension ref="A2:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18:O19"/>
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>41.886000000000003</v>
+        <v>58.622799999999998</v>
       </c>
       <c r="B2">
-        <v>26.921800000000001</v>
+        <v>19.319400000000002</v>
       </c>
       <c r="C2">
-        <v>23.3184</v>
+        <v>9.9515999999999991</v>
       </c>
       <c r="D2">
-        <v>3.6032999999999999</v>
-      </c>
-      <c r="J2">
-        <v>41.886000000000003</v>
-      </c>
-      <c r="K2">
-        <v>26.921800000000001</v>
-      </c>
-      <c r="L2">
-        <v>23.3184</v>
-      </c>
-      <c r="M2">
-        <v>3.6032999999999999</v>
+        <v>9.3678000000000008</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>58.113999999999997</v>
+        <v>41.377200000000002</v>
       </c>
       <c r="B3">
-        <v>21.850100000000001</v>
+        <v>25.059899999999999</v>
       </c>
       <c r="C3">
-        <v>18.7148</v>
+        <v>14.100199999999999</v>
       </c>
       <c r="D3">
-        <v>3.1353</v>
-      </c>
-      <c r="J3">
-        <v>58.113999999999997</v>
-      </c>
-      <c r="K3">
-        <v>21.850100000000001</v>
-      </c>
-      <c r="L3">
-        <v>18.7148</v>
-      </c>
-      <c r="M3">
-        <v>3.1353</v>
+        <v>10.9596</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>46.939399999999999</v>
+        <v>53.551499999999997</v>
       </c>
       <c r="B4">
-        <v>30.001999999999999</v>
+        <v>22.121300000000002</v>
       </c>
       <c r="C4">
-        <v>28.0486</v>
+        <v>16.381799999999998</v>
       </c>
       <c r="D4">
-        <v>1.9533</v>
-      </c>
-      <c r="J4">
-        <v>46.939399999999999</v>
-      </c>
-      <c r="K4">
-        <v>30.001999999999999</v>
-      </c>
-      <c r="L4">
-        <v>28.0486</v>
-      </c>
-      <c r="M4">
-        <v>1.9533</v>
+        <v>5.7394999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>53.060600000000001</v>
+        <v>46.448500000000003</v>
       </c>
       <c r="B5">
-        <v>24.267700000000001</v>
+        <v>28.677800000000001</v>
       </c>
       <c r="C5">
-        <v>22.5016</v>
+        <v>22.7698</v>
       </c>
       <c r="D5">
-        <v>1.7661</v>
-      </c>
-      <c r="J5">
-        <v>53.060600000000001</v>
-      </c>
-      <c r="K5">
-        <v>24.267700000000001</v>
-      </c>
-      <c r="L5">
-        <v>22.5016</v>
-      </c>
-      <c r="M5">
-        <v>1.7661</v>
+        <v>5.9078999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>61.349400000000003</v>
+        <v>38.905200000000001</v>
       </c>
       <c r="B6">
-        <v>32.7104</v>
+        <v>25.790099999999999</v>
       </c>
       <c r="C6">
-        <v>31.196899999999999</v>
+        <v>21.7774</v>
       </c>
       <c r="D6">
-        <v>1.5135000000000001</v>
-      </c>
-      <c r="J6">
-        <v>61.349400000000003</v>
-      </c>
-      <c r="K6">
-        <v>32.7104</v>
-      </c>
-      <c r="L6">
-        <v>31.196899999999999</v>
-      </c>
-      <c r="M6">
-        <v>1.5135000000000001</v>
+        <v>4.0126999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>38.650599999999997</v>
+        <v>61.094799999999999</v>
       </c>
       <c r="B7">
-        <v>27.478899999999999</v>
+        <v>31.878699999999998</v>
       </c>
       <c r="C7">
-        <v>26.2196</v>
+        <v>28.506</v>
       </c>
       <c r="D7">
-        <v>1.2593000000000001</v>
-      </c>
-      <c r="J7">
-        <v>38.650599999999997</v>
-      </c>
-      <c r="K7">
-        <v>27.478899999999999</v>
-      </c>
-      <c r="L7">
-        <v>26.2196</v>
-      </c>
-      <c r="M7">
-        <v>1.2593000000000001</v>
+        <v>3.3725999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>52.652000000000001</v>
+        <v>47.805999999999997</v>
       </c>
       <c r="B8">
-        <v>30.230399999999999</v>
+        <v>22.203499999999998</v>
       </c>
       <c r="C8">
-        <v>24.1388</v>
+        <v>10.651400000000001</v>
       </c>
       <c r="D8">
-        <v>6.0915999999999997</v>
-      </c>
-      <c r="J8">
-        <v>52.652000000000001</v>
-      </c>
-      <c r="K8">
-        <v>30.230399999999999</v>
-      </c>
-      <c r="L8">
-        <v>24.1388</v>
-      </c>
-      <c r="M8">
-        <v>6.0915999999999997</v>
+        <v>11.552</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>47.347999999999999</v>
+        <v>52.194000000000003</v>
       </c>
       <c r="B9">
-        <v>25.2989</v>
+        <v>27.998799999999999</v>
       </c>
       <c r="C9">
-        <v>20.006799999999998</v>
+        <v>14.7494</v>
       </c>
       <c r="D9">
-        <v>5.2920999999999996</v>
-      </c>
-      <c r="J9">
-        <v>47.347999999999999</v>
-      </c>
-      <c r="K9">
-        <v>25.2989</v>
-      </c>
-      <c r="L9">
-        <v>20.006799999999998</v>
-      </c>
-      <c r="M9">
-        <v>5.2920999999999996</v>
+        <v>13.2494</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>57.685899999999997</v>
+        <v>42.770400000000002</v>
       </c>
       <c r="B10">
-        <v>33.079799999999999</v>
+        <v>24.973400000000002</v>
       </c>
       <c r="C10">
-        <v>29.479399999999998</v>
+        <v>17.824200000000001</v>
       </c>
       <c r="D10">
-        <v>3.6004</v>
-      </c>
-      <c r="J10">
-        <v>57.685899999999997</v>
-      </c>
-      <c r="K10">
-        <v>33.079799999999999</v>
-      </c>
-      <c r="L10">
-        <v>29.479399999999998</v>
-      </c>
-      <c r="M10">
-        <v>3.6004</v>
+        <v>7.1492000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>42.314100000000003</v>
+        <v>57.229599999999998</v>
       </c>
       <c r="B11">
-        <v>27.564800000000002</v>
+        <v>31.563700000000001</v>
       </c>
       <c r="C11">
-        <v>24.2302</v>
+        <v>24.641999999999999</v>
       </c>
       <c r="D11">
-        <v>3.3346</v>
-      </c>
-      <c r="J11">
-        <v>42.314100000000003</v>
-      </c>
-      <c r="K11">
-        <v>27.564800000000002</v>
-      </c>
-      <c r="L11">
-        <v>24.2302</v>
-      </c>
-      <c r="M11">
-        <v>3.3346</v>
+        <v>6.9217000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>65.755700000000004</v>
+        <v>34.584299999999999</v>
       </c>
       <c r="B12">
-        <v>35.503900000000002</v>
+        <v>28.7806</v>
       </c>
       <c r="C12">
-        <v>32.492699999999999</v>
+        <v>23.964099999999998</v>
       </c>
       <c r="D12">
-        <v>3.0112000000000001</v>
-      </c>
-      <c r="J12">
-        <v>65.755700000000004</v>
-      </c>
-      <c r="K12">
-        <v>35.503900000000002</v>
-      </c>
-      <c r="L12">
-        <v>32.492699999999999</v>
-      </c>
-      <c r="M12">
-        <v>3.0112000000000001</v>
+        <v>4.8164999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>34.244300000000003</v>
+        <v>65.415700000000001</v>
       </c>
       <c r="B13">
-        <v>30.71</v>
+        <v>34.4328</v>
       </c>
       <c r="C13">
-        <v>28.1296</v>
+        <v>30.309899999999999</v>
       </c>
       <c r="D13">
-        <v>2.5804</v>
-      </c>
-      <c r="J13">
-        <v>34.244300000000003</v>
-      </c>
-      <c r="K13">
-        <v>30.71</v>
-      </c>
-      <c r="L13">
-        <v>28.1296</v>
-      </c>
-      <c r="M13">
-        <v>2.5804</v>
+        <v>4.1228999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -765,72 +625,73 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
+      <c r="A16" t="s">
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="2">
         <f>A2</f>
-        <v>41.886000000000003</v>
+        <v>58.622799999999998</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="2">
         <f>B2</f>
-        <v>26.921800000000001</v>
+        <v>19.319400000000002</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="2">
         <f>C2</f>
-        <v>23.3184</v>
+        <v>9.9515999999999991</v>
       </c>
       <c r="H16" t="s">
         <v>9</v>
       </c>
       <c r="I16" s="2">
         <f>D2</f>
-        <v>3.6032999999999999</v>
+        <v>9.3678000000000008</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1</v>
+      <c r="A17" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="2">
         <f>A3</f>
-        <v>58.113999999999997</v>
+        <v>41.377200000000002</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="2">
         <f>B3</f>
-        <v>21.850100000000001</v>
+        <v>25.059899999999999</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="2">
         <f>C3</f>
-        <v>18.7148</v>
+        <v>14.100199999999999</v>
       </c>
       <c r="H17" t="s">
         <v>9</v>
       </c>
       <c r="I17" s="2">
         <f>D3</f>
-        <v>3.1353</v>
+        <v>10.9596</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>4</v>
@@ -851,21 +712,21 @@
       </c>
       <c r="E18" s="2">
         <f>E16*$C16/100+E17*$C17/100</f>
-        <v>23.974432262000001</v>
+        <v>21.694658166000004</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="2">
         <f>G16*$C16/100+G17*$C17/100</f>
-        <v>20.643063896000001</v>
+        <v>11.668174519199999</v>
       </c>
       <c r="H18" t="s">
         <v>9</v>
       </c>
       <c r="I18" s="2">
         <f>I16*$C16/100+I17*$C17/100</f>
-        <v>3.33132648</v>
+        <v>10.0264422696</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
@@ -882,72 +743,72 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
+      <c r="A20" t="s">
+        <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="2">
         <f>A4</f>
-        <v>46.939399999999999</v>
+        <v>53.551499999999997</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="2">
         <f>B4</f>
-        <v>30.001999999999999</v>
+        <v>22.121300000000002</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
       </c>
       <c r="G20" s="2">
         <f>C4</f>
-        <v>28.0486</v>
+        <v>16.381799999999998</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
       </c>
       <c r="I20" s="2">
         <f>D4</f>
-        <v>1.9533</v>
+        <v>5.7394999999999996</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1</v>
+      <c r="A21" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="2">
         <f>A5</f>
-        <v>53.060600000000001</v>
+        <v>46.448500000000003</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="2">
         <f>B5</f>
-        <v>24.267700000000001</v>
+        <v>28.677800000000001</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
       </c>
       <c r="G21" s="2">
         <f>C5</f>
-        <v>22.5016</v>
+        <v>22.7698</v>
       </c>
       <c r="H21" t="s">
         <v>9</v>
       </c>
       <c r="I21" s="2">
         <f>D5</f>
-        <v>1.7661</v>
+        <v>5.9078999999999997</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -968,21 +829,21 @@
       </c>
       <c r="E22" s="2">
         <f>E20*$C20/100+E21*$C21/100</f>
-        <v>26.959346014200001</v>
+        <v>25.166695902500003</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="2">
         <f>G20*$C20/100+G21*$C21/100</f>
-        <v>25.105328518</v>
+        <v>19.348930179999996</v>
       </c>
       <c r="H22" t="s">
         <v>9</v>
       </c>
       <c r="I22" s="2">
         <f>I20*$C20/100+I21*$C21/100</f>
-        <v>1.8539705567999998</v>
+        <v>5.8177192739999999</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -999,72 +860,72 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
+      <c r="A24" t="s">
+        <v>1</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="2">
         <f>A6</f>
-        <v>61.349400000000003</v>
+        <v>38.905200000000001</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="2">
         <f>B6</f>
-        <v>32.7104</v>
+        <v>25.790099999999999</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="2">
         <f>C6</f>
-        <v>31.196899999999999</v>
+        <v>21.7774</v>
       </c>
       <c r="H24" t="s">
         <v>9</v>
       </c>
       <c r="I24" s="2">
         <f>D6</f>
-        <v>1.5135000000000001</v>
+        <v>4.0126999999999997</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1</v>
+      <c r="A25" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="2">
         <f>A7</f>
-        <v>38.650599999999997</v>
+        <v>61.094799999999999</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="2">
         <f>B7</f>
-        <v>27.478899999999999</v>
+        <v>31.878699999999998</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
       </c>
       <c r="G25" s="2">
         <f>C7</f>
-        <v>26.2196</v>
+        <v>28.506</v>
       </c>
       <c r="H25" t="s">
         <v>9</v>
       </c>
       <c r="I25" s="2">
         <f>D7</f>
-        <v>1.2593000000000001</v>
+        <v>3.3725999999999998</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>4</v>
@@ -1085,21 +946,21 @@
       </c>
       <c r="E26" s="2">
         <f>E24*$C24/100+E25*$C25/100</f>
-        <v>30.688393860999998</v>
+        <v>29.509917992799998</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
       <c r="G26" s="2">
         <f>G24*$C24/100+G25*$C25/100</f>
-        <v>29.273143686200001</v>
+        <v>25.888224712799996</v>
       </c>
       <c r="H26" t="s">
         <v>9</v>
       </c>
       <c r="I26" s="2">
         <f>I24*$C24/100+I25*$C25/100</f>
-        <v>1.4152501748000001</v>
+        <v>3.6216321852000002</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>4</v>
@@ -1116,72 +977,72 @@
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
+      <c r="A28" t="s">
+        <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="2">
         <f>A8</f>
-        <v>52.652000000000001</v>
+        <v>47.805999999999997</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="2">
         <f>B8</f>
-        <v>30.230399999999999</v>
+        <v>22.203499999999998</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="2">
         <f>C8</f>
-        <v>24.1388</v>
+        <v>10.651400000000001</v>
       </c>
       <c r="H28" t="s">
         <v>9</v>
       </c>
       <c r="I28" s="2">
         <f>D8</f>
-        <v>6.0915999999999997</v>
+        <v>11.552</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1</v>
+      <c r="A29" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="2">
         <f>A9</f>
-        <v>47.347999999999999</v>
+        <v>52.194000000000003</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="2">
         <f>B9</f>
-        <v>25.2989</v>
+        <v>27.998799999999999</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
       </c>
       <c r="G29" s="2">
         <f>C9</f>
-        <v>20.006799999999998</v>
+        <v>14.7494</v>
       </c>
       <c r="H29" t="s">
         <v>9</v>
       </c>
       <c r="I29" s="2">
         <f>D9</f>
-        <v>5.2920999999999996</v>
+        <v>13.2494</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>4</v>
@@ -1202,21 +1063,21 @@
       </c>
       <c r="E30" s="2">
         <f>E28*$C28/100+E29*$C29/100</f>
-        <v>27.89543338</v>
+        <v>25.228298881999997</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="2">
         <f>G28*$C28/100+G29*$C29/100</f>
-        <v>22.182380639999998</v>
+        <v>12.790310120000001</v>
       </c>
       <c r="H30" t="s">
         <v>9</v>
       </c>
       <c r="I30" s="2">
         <f>I28*$C28/100+I29*$C29/100</f>
-        <v>5.7130527400000002</v>
+        <v>12.437940956</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>4</v>
@@ -1233,78 +1094,78 @@
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
+      <c r="A32" t="s">
+        <v>1</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="2">
         <f>A10</f>
-        <v>57.685899999999997</v>
+        <v>42.770400000000002</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="2">
         <f>B10</f>
-        <v>33.079799999999999</v>
+        <v>24.973400000000002</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="2">
         <f>C10</f>
-        <v>29.479399999999998</v>
+        <v>17.824200000000001</v>
       </c>
       <c r="H32" t="s">
         <v>9</v>
       </c>
       <c r="I32" s="2">
         <f>D10</f>
-        <v>3.6004</v>
+        <v>7.1492000000000004</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1</v>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="2">
         <f>A11</f>
-        <v>42.314100000000003</v>
+        <v>57.229599999999998</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="2">
         <f>B11</f>
-        <v>27.564800000000002</v>
+        <v>31.563700000000001</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
       </c>
       <c r="G33" s="2">
         <f>C11</f>
-        <v>24.2302</v>
+        <v>24.641999999999999</v>
       </c>
       <c r="H33" t="s">
         <v>9</v>
       </c>
       <c r="I33" s="2">
         <f>D11</f>
-        <v>3.3346</v>
+        <v>6.9217000000000004</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1319,27 +1180,27 @@
       </c>
       <c r="E34" s="2">
         <f>E32*$C32/100+E33*$C33/100</f>
-        <v>30.746177384999999</v>
+        <v>28.745002328800002</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
       </c>
       <c r="G34" s="2">
         <f>G32*$C32/100+G33*$C33/100</f>
-        <v>27.258248262799999</v>
+        <v>21.7259996688</v>
       </c>
       <c r="H34" t="s">
         <v>9</v>
       </c>
       <c r="I34" s="2">
         <f>I32*$C32/100+I33*$C33/100</f>
-        <v>3.4879291221999997</v>
+        <v>7.0190026599999999</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1349,79 +1210,88 @@
       <c r="I35" s="2"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="2">
         <f>A12</f>
-        <v>65.755700000000004</v>
+        <v>34.584299999999999</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="2">
         <f>B12</f>
-        <v>35.503900000000002</v>
+        <v>28.7806</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="2">
         <f>C12</f>
-        <v>32.492699999999999</v>
+        <v>23.964099999999998</v>
       </c>
       <c r="H36" t="s">
         <v>9</v>
       </c>
       <c r="I36" s="2">
         <f>D12</f>
-        <v>3.0112000000000001</v>
+        <v>4.8164999999999996</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1</v>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="2">
         <f>A13</f>
-        <v>34.244300000000003</v>
+        <v>65.415700000000001</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="2">
         <f>B13</f>
-        <v>30.71</v>
+        <v>34.4328</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
       </c>
       <c r="G37" s="2">
         <f>C13</f>
-        <v>28.1296</v>
+        <v>30.309899999999999</v>
       </c>
       <c r="H37" t="s">
         <v>9</v>
       </c>
       <c r="I37" s="2">
         <f>D13</f>
-        <v>2.5804</v>
+        <v>4.1228999999999996</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>58.6</v>
+      </c>
+      <c r="M37">
+        <v>38.9</v>
+      </c>
+      <c r="N37">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1436,24 +1306,65 @@
       </c>
       <c r="E38" s="2">
         <f>E36*$C36/100+E37*$C37/100</f>
-        <v>33.862262502299998</v>
+        <v>32.478026195400005</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
       </c>
       <c r="G38" s="2">
         <f>G36*$C36/100+G37*$C37/100</f>
-        <v>30.998586946700001</v>
+        <v>28.1152494906</v>
       </c>
       <c r="H38" t="s">
         <v>9</v>
       </c>
       <c r="I38" s="2">
         <f>I36*$C36/100+I37*$C37/100</f>
-        <v>2.8636755556000004</v>
+        <v>4.3627767047999999</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="L38">
+        <f>100-L37</f>
+        <v>41.4</v>
+      </c>
+      <c r="M38">
+        <f>100-M37</f>
+        <v>61.1</v>
+      </c>
+      <c r="N38">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <f>L37/100*$N37+L38/100*$N38</f>
+        <v>21.7012</v>
+      </c>
+      <c r="O40">
+        <f>M37/100*$N37+M38/100*$N38</f>
+        <v>22.843800000000002</v>
+      </c>
+      <c r="P40">
+        <f>O40-N40</f>
+        <v>1.1426000000000016</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <v>21.7</v>
+      </c>
+      <c r="O42">
+        <v>29.5</v>
+      </c>
+      <c r="P42">
+        <f>O42-N42</f>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="Q42">
+        <f>P40/P42</f>
+        <v>0.14648717948717968</v>
       </c>
     </row>
   </sheetData>

--- a/Results/table2latex.xlsx
+++ b/Results/table2latex.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbueren\Google Drive\endo_health\metric_model\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B8D5E3C-D967-43B9-BC27-31852477BC50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E048682A-A613-4085-8507-96B4843CE951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D131852-BDAB-48D2-B0B4-24C9607E5D25}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{4D131852-BDAB-48D2-B0B4-24C9607E5D25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="14">
   <si>
     <t>Protective</t>
   </si>
@@ -73,6 +72,9 @@
   </si>
   <si>
     <t>\multicolumn{7}{c}{Men: High-school} \\[5pt]</t>
+  </si>
+  <si>
+    <t>Harmful</t>
   </si>
 </sst>
 </file>
@@ -440,18 +442,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F330EFCA-C7DF-4136-98BB-2504A28BB96C}">
-  <dimension ref="A2:Q42"/>
+  <dimension ref="A2:AC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="14" max="14" width="22.7109375" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>58.622799999999998</v>
       </c>
@@ -464,8 +467,35 @@
       <c r="D2">
         <v>9.3678000000000008</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0.37790000000000001</v>
+      </c>
+      <c r="O2">
+        <v>23.9619</v>
+      </c>
+      <c r="P2">
+        <v>13.9496</v>
+      </c>
+      <c r="Q2">
+        <v>10.0122</v>
+      </c>
+      <c r="Z2">
+        <v>0.37790000000000001</v>
+      </c>
+      <c r="AA2">
+        <v>23.9619</v>
+      </c>
+      <c r="AB2">
+        <v>13.9496</v>
+      </c>
+      <c r="AC2">
+        <v>10.0122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>41.377200000000002</v>
       </c>
@@ -478,8 +508,32 @@
       <c r="D3">
         <v>10.9596</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>0.30609999999999998</v>
+      </c>
+      <c r="O3">
+        <v>23.5776</v>
+      </c>
+      <c r="P3">
+        <v>12.2933</v>
+      </c>
+      <c r="Q3">
+        <v>11.2843</v>
+      </c>
+      <c r="Z3">
+        <v>0.30609999999999998</v>
+      </c>
+      <c r="AA3">
+        <v>23.5776</v>
+      </c>
+      <c r="AB3">
+        <v>12.2933</v>
+      </c>
+      <c r="AC3">
+        <v>11.2843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>53.551499999999997</v>
       </c>
@@ -492,8 +546,32 @@
       <c r="D4">
         <v>5.7394999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>0.316</v>
+      </c>
+      <c r="O4">
+        <v>17.009</v>
+      </c>
+      <c r="P4">
+        <v>8.0265000000000004</v>
+      </c>
+      <c r="Q4">
+        <v>8.9824999999999999</v>
+      </c>
+      <c r="Z4">
+        <v>0.316</v>
+      </c>
+      <c r="AA4">
+        <v>17.009</v>
+      </c>
+      <c r="AB4">
+        <v>8.0265000000000004</v>
+      </c>
+      <c r="AC4">
+        <v>8.9824999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>46.448500000000003</v>
       </c>
@@ -506,8 +584,35 @@
       <c r="D5">
         <v>5.9078999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="O5">
+        <v>26.569299999999998</v>
+      </c>
+      <c r="P5">
+        <v>21.228999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>5.3403999999999998</v>
+      </c>
+      <c r="Z5">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="AA5">
+        <v>26.569299999999998</v>
+      </c>
+      <c r="AB5">
+        <v>21.228999999999999</v>
+      </c>
+      <c r="AC5">
+        <v>5.3403999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>38.905200000000001</v>
       </c>
@@ -520,8 +625,32 @@
       <c r="D6">
         <v>4.0126999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>0.40239999999999998</v>
+      </c>
+      <c r="O6">
+        <v>27.7439</v>
+      </c>
+      <c r="P6">
+        <v>21.504100000000001</v>
+      </c>
+      <c r="Q6">
+        <v>6.2397</v>
+      </c>
+      <c r="Z6">
+        <v>0.40239999999999998</v>
+      </c>
+      <c r="AA6">
+        <v>27.7439</v>
+      </c>
+      <c r="AB6">
+        <v>21.504100000000001</v>
+      </c>
+      <c r="AC6">
+        <v>6.2397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>61.094799999999999</v>
       </c>
@@ -534,8 +663,32 @@
       <c r="D7">
         <v>3.3725999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>0.2291</v>
+      </c>
+      <c r="O7">
+        <v>18.942599999999999</v>
+      </c>
+      <c r="P7">
+        <v>12.9115</v>
+      </c>
+      <c r="Q7">
+        <v>6.0311000000000003</v>
+      </c>
+      <c r="Z7">
+        <v>0.2291</v>
+      </c>
+      <c r="AA7">
+        <v>18.942599999999999</v>
+      </c>
+      <c r="AB7">
+        <v>12.9115</v>
+      </c>
+      <c r="AC7">
+        <v>6.0311000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>47.805999999999997</v>
       </c>
@@ -548,8 +701,35 @@
       <c r="D8">
         <v>11.552</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>0.32669999999999999</v>
+      </c>
+      <c r="O8">
+        <v>29.265899999999998</v>
+      </c>
+      <c r="P8">
+        <v>26.032699999999998</v>
+      </c>
+      <c r="Q8">
+        <v>3.2332000000000001</v>
+      </c>
+      <c r="Z8">
+        <v>0.32669999999999999</v>
+      </c>
+      <c r="AA8">
+        <v>29.265899999999998</v>
+      </c>
+      <c r="AB8">
+        <v>26.032699999999998</v>
+      </c>
+      <c r="AC8">
+        <v>3.2332000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>52.194000000000003</v>
       </c>
@@ -562,8 +742,32 @@
       <c r="D9">
         <v>13.2494</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>0.56369999999999998</v>
+      </c>
+      <c r="O9">
+        <v>31.520099999999999</v>
+      </c>
+      <c r="P9">
+        <v>27.8826</v>
+      </c>
+      <c r="Q9">
+        <v>3.6375999999999999</v>
+      </c>
+      <c r="Z9">
+        <v>0.56369999999999998</v>
+      </c>
+      <c r="AA9">
+        <v>31.520099999999999</v>
+      </c>
+      <c r="AB9">
+        <v>27.8826</v>
+      </c>
+      <c r="AC9">
+        <v>3.6375999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>42.770400000000002</v>
       </c>
@@ -576,8 +780,32 @@
       <c r="D10">
         <v>7.1492000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>0.1096</v>
+      </c>
+      <c r="O10">
+        <v>21.2653</v>
+      </c>
+      <c r="P10">
+        <v>16.0977</v>
+      </c>
+      <c r="Q10">
+        <v>5.1676000000000002</v>
+      </c>
+      <c r="Z10">
+        <v>0.1096</v>
+      </c>
+      <c r="AA10">
+        <v>21.2653</v>
+      </c>
+      <c r="AB10">
+        <v>16.0977</v>
+      </c>
+      <c r="AC10">
+        <v>5.1676000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>57.229599999999998</v>
       </c>
@@ -590,8 +818,35 @@
       <c r="D11">
         <v>6.9217000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>0.40429999999999999</v>
+      </c>
+      <c r="O11">
+        <v>27.0886</v>
+      </c>
+      <c r="P11">
+        <v>14.570399999999999</v>
+      </c>
+      <c r="Q11">
+        <v>12.5181</v>
+      </c>
+      <c r="Z11">
+        <v>0.40429999999999999</v>
+      </c>
+      <c r="AA11">
+        <v>27.0886</v>
+      </c>
+      <c r="AB11">
+        <v>14.570399999999999</v>
+      </c>
+      <c r="AC11">
+        <v>12.5181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>34.584299999999999</v>
       </c>
@@ -604,8 +859,32 @@
       <c r="D12">
         <v>4.8164999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>0.34720000000000001</v>
+      </c>
+      <c r="O12">
+        <v>27.332000000000001</v>
+      </c>
+      <c r="P12">
+        <v>13.9068</v>
+      </c>
+      <c r="Q12">
+        <v>13.4252</v>
+      </c>
+      <c r="Z12">
+        <v>0.34720000000000001</v>
+      </c>
+      <c r="AA12">
+        <v>27.332000000000001</v>
+      </c>
+      <c r="AB12">
+        <v>13.9068</v>
+      </c>
+      <c r="AC12">
+        <v>13.4252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>65.415700000000001</v>
       </c>
@@ -618,13 +897,90 @@
       <c r="D13">
         <v>4.1228999999999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>0.2485</v>
+      </c>
+      <c r="O13">
+        <v>19.8902</v>
+      </c>
+      <c r="P13">
+        <v>8.9662000000000006</v>
+      </c>
+      <c r="Q13">
+        <v>10.923999999999999</v>
+      </c>
+      <c r="Z13">
+        <v>0.2485</v>
+      </c>
+      <c r="AA13">
+        <v>19.8902</v>
+      </c>
+      <c r="AB13">
+        <v>8.9662000000000006</v>
+      </c>
+      <c r="AC13">
+        <v>10.923999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>0.32850000000000001</v>
+      </c>
+      <c r="O14">
+        <v>29.567299999999999</v>
+      </c>
+      <c r="P14">
+        <v>22.927600000000002</v>
+      </c>
+      <c r="Q14">
+        <v>6.6397000000000004</v>
+      </c>
+      <c r="Z14">
+        <v>0.32850000000000001</v>
+      </c>
+      <c r="AA14">
+        <v>29.567299999999999</v>
+      </c>
+      <c r="AB14">
+        <v>22.927600000000002</v>
+      </c>
+      <c r="AC14">
+        <v>6.6397000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="O15">
+        <v>31.392900000000001</v>
+      </c>
+      <c r="P15">
+        <v>24.283200000000001</v>
+      </c>
+      <c r="Q15">
+        <v>7.1097000000000001</v>
+      </c>
+      <c r="Z15">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="AA15">
+        <v>31.392900000000001</v>
+      </c>
+      <c r="AB15">
+        <v>24.283200000000001</v>
+      </c>
+      <c r="AC15">
+        <v>7.1097000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -660,8 +1016,32 @@
         <v>4</v>
       </c>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>0.1976</v>
+      </c>
+      <c r="O16">
+        <v>21.9099</v>
+      </c>
+      <c r="P16">
+        <v>14.4031</v>
+      </c>
+      <c r="Q16">
+        <v>7.5068000000000001</v>
+      </c>
+      <c r="Z16">
+        <v>0.1976</v>
+      </c>
+      <c r="AA16">
+        <v>21.9099</v>
+      </c>
+      <c r="AB16">
+        <v>14.4031</v>
+      </c>
+      <c r="AC16">
+        <v>7.5068000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,8 +1076,35 @@
       <c r="J17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>0.29559999999999997</v>
+      </c>
+      <c r="O17">
+        <v>32.0623</v>
+      </c>
+      <c r="P17">
+        <v>27.957100000000001</v>
+      </c>
+      <c r="Q17">
+        <v>4.1052</v>
+      </c>
+      <c r="Z17">
+        <v>0.29559999999999997</v>
+      </c>
+      <c r="AA17">
+        <v>32.0623</v>
+      </c>
+      <c r="AB17">
+        <v>27.957100000000001</v>
+      </c>
+      <c r="AC17">
+        <v>4.1052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -731,8 +1138,32 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="O18">
+        <v>34.6877</v>
+      </c>
+      <c r="P18">
+        <v>30.4682</v>
+      </c>
+      <c r="Q18">
+        <v>4.2195</v>
+      </c>
+      <c r="Z18">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="AA18">
+        <v>34.6877</v>
+      </c>
+      <c r="AB18">
+        <v>30.4682</v>
+      </c>
+      <c r="AC18">
+        <v>4.2195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -741,8 +1172,32 @@
       <c r="G19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>9.74E-2</v>
+      </c>
+      <c r="O19">
+        <v>24.694800000000001</v>
+      </c>
+      <c r="P19">
+        <v>18.777200000000001</v>
+      </c>
+      <c r="Q19">
+        <v>5.9176000000000002</v>
+      </c>
+      <c r="Z19">
+        <v>9.74E-2</v>
+      </c>
+      <c r="AA19">
+        <v>24.694800000000001</v>
+      </c>
+      <c r="AB19">
+        <v>18.777200000000001</v>
+      </c>
+      <c r="AC19">
+        <v>5.9176000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -778,7 +1233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,7 +1269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -849,7 +1304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -859,7 +1314,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -895,7 +1350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,8 +1385,11 @@
       <c r="J25" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -965,8 +1423,42 @@
       <c r="J26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="2">
+        <f>N2</f>
+        <v>0.37790000000000001</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="2">
+        <f>O2</f>
+        <v>23.9619</v>
+      </c>
+      <c r="S26" t="s">
+        <v>9</v>
+      </c>
+      <c r="T26" s="2">
+        <f>P2</f>
+        <v>13.9496</v>
+      </c>
+      <c r="U26" t="s">
+        <v>9</v>
+      </c>
+      <c r="V26" s="2">
+        <f>Q2</f>
+        <v>10.0122</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1467,42 @@
       <c r="G27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" ref="P27:P28" si="0">N3</f>
+        <v>0.30609999999999998</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" ref="R27:R28" si="1">O3</f>
+        <v>23.5776</v>
+      </c>
+      <c r="S27" t="s">
+        <v>9</v>
+      </c>
+      <c r="T27" s="2">
+        <f t="shared" ref="T27:T28" si="2">P3</f>
+        <v>12.2933</v>
+      </c>
+      <c r="U27" t="s">
+        <v>9</v>
+      </c>
+      <c r="V27" s="2">
+        <f t="shared" ref="V27:V28" si="3">Q3</f>
+        <v>11.2843</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1011,8 +1537,42 @@
       <c r="J28" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.316</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>3</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" si="1"/>
+        <v>17.009</v>
+      </c>
+      <c r="S28" t="s">
+        <v>9</v>
+      </c>
+      <c r="T28" s="2">
+        <f t="shared" si="2"/>
+        <v>8.0265000000000004</v>
+      </c>
+      <c r="U28" t="s">
+        <v>9</v>
+      </c>
+      <c r="V28" s="2">
+        <f t="shared" si="3"/>
+        <v>8.9824999999999999</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,8 +1607,41 @@
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="2">
+        <f>R26*$P26+R28*$P27+R27*$P28</f>
+        <v>21.712178510000001</v>
+      </c>
+      <c r="S29" t="s">
+        <v>9</v>
+      </c>
+      <c r="T29" s="2">
+        <f>T26*$P26+T28*$P27+T27*$P28</f>
+        <v>11.61314829</v>
+      </c>
+      <c r="U29" t="s">
+        <v>9</v>
+      </c>
+      <c r="V29" s="2">
+        <f>V26*$P26+V28*$P27+V27*$P28</f>
+        <v>10.098992429999999</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1082,8 +1675,16 @@
       <c r="J30" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="3"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1092,8 +1693,42 @@
       <c r="G31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>3</v>
+      </c>
+      <c r="P31" s="2">
+        <f>N5</f>
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>3</v>
+      </c>
+      <c r="R31" s="2">
+        <f>O5</f>
+        <v>26.569299999999998</v>
+      </c>
+      <c r="S31" t="s">
+        <v>9</v>
+      </c>
+      <c r="T31" s="2">
+        <f>P5</f>
+        <v>21.228999999999999</v>
+      </c>
+      <c r="U31" t="s">
+        <v>9</v>
+      </c>
+      <c r="V31" s="2">
+        <f>Q5</f>
+        <v>5.3403999999999998</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1128,8 +1763,42 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" ref="P32:P33" si="4">N6</f>
+        <v>0.40239999999999998</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" ref="R32:R33" si="5">O6</f>
+        <v>27.7439</v>
+      </c>
+      <c r="S32" t="s">
+        <v>9</v>
+      </c>
+      <c r="T32" s="2">
+        <f t="shared" ref="T32:T33" si="6">P6</f>
+        <v>21.504100000000001</v>
+      </c>
+      <c r="U32" t="s">
+        <v>9</v>
+      </c>
+      <c r="V32" s="2">
+        <f t="shared" ref="V32:V33" si="7">Q6</f>
+        <v>6.2397</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,8 +1833,42 @@
       <c r="J33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O33" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" si="4"/>
+        <v>0.2291</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="5"/>
+        <v>18.942599999999999</v>
+      </c>
+      <c r="S33" t="s">
+        <v>9</v>
+      </c>
+      <c r="T33" s="2">
+        <f t="shared" si="6"/>
+        <v>12.9115</v>
+      </c>
+      <c r="U33" t="s">
+        <v>9</v>
+      </c>
+      <c r="V33" s="2">
+        <f t="shared" si="7"/>
+        <v>6.0311000000000003</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1199,8 +1902,41 @@
       <c r="J34" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>3</v>
+      </c>
+      <c r="R34" s="2">
+        <f>R31*$P31+R33*$P32+R32*$P33</f>
+        <v>23.769416779999997</v>
+      </c>
+      <c r="S34" t="s">
+        <v>9</v>
+      </c>
+      <c r="T34" s="2">
+        <f>T31*$P31+T33*$P32+T32*$P33</f>
+        <v>17.945063409999999</v>
+      </c>
+      <c r="U34" t="s">
+        <v>9</v>
+      </c>
+      <c r="V34" s="2">
+        <f>V31*$P31+V33*$P32+V32*$P33</f>
+        <v>5.8243673099999995</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1209,8 +1945,16 @@
       <c r="G35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>6</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="3"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1245,8 +1989,42 @@
       <c r="J36" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>3</v>
+      </c>
+      <c r="P36" s="2">
+        <f>N8</f>
+        <v>0.32669999999999999</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>3</v>
+      </c>
+      <c r="R36" s="2">
+        <f>O8</f>
+        <v>29.265899999999998</v>
+      </c>
+      <c r="S36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T36" s="2">
+        <f>P8</f>
+        <v>26.032699999999998</v>
+      </c>
+      <c r="U36" t="s">
+        <v>9</v>
+      </c>
+      <c r="V36" s="2">
+        <f>Q8</f>
+        <v>3.2332000000000001</v>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,17 +2059,42 @@
       <c r="J37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L37">
-        <v>58.6</v>
-      </c>
-      <c r="M37">
-        <v>38.9</v>
-      </c>
-      <c r="N37">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>3</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" ref="P37:P38" si="8">N9</f>
+        <v>0.56369999999999998</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>3</v>
+      </c>
+      <c r="R37" s="2">
+        <f t="shared" ref="R37:R38" si="9">O9</f>
+        <v>31.520099999999999</v>
+      </c>
+      <c r="S37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T37" s="2">
+        <f t="shared" ref="T37:T38" si="10">P9</f>
+        <v>27.8826</v>
+      </c>
+      <c r="U37" t="s">
+        <v>9</v>
+      </c>
+      <c r="V37" s="2">
+        <f t="shared" ref="V37:V38" si="11">Q9</f>
+        <v>3.6375999999999999</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1325,46 +2128,533 @@
       <c r="J38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L38">
-        <f>100-L37</f>
-        <v>41.4</v>
-      </c>
-      <c r="M38">
-        <f>100-M37</f>
-        <v>61.1</v>
-      </c>
-      <c r="N38">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N40">
-        <f>L37/100*$N37+L38/100*$N38</f>
-        <v>21.7012</v>
-      </c>
-      <c r="O40">
-        <f>M37/100*$N37+M38/100*$N38</f>
-        <v>22.843800000000002</v>
-      </c>
-      <c r="P40">
-        <f>O40-N40</f>
-        <v>1.1426000000000016</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N42">
-        <v>21.7</v>
-      </c>
-      <c r="O42">
-        <v>29.5</v>
-      </c>
-      <c r="P42">
-        <f>O42-N42</f>
-        <v>7.8000000000000007</v>
-      </c>
-      <c r="Q42">
-        <f>P40/P42</f>
-        <v>0.14648717948717968</v>
+      <c r="N38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O38" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1096</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" si="9"/>
+        <v>21.2653</v>
+      </c>
+      <c r="S38" t="s">
+        <v>9</v>
+      </c>
+      <c r="T38" s="2">
+        <f t="shared" si="10"/>
+        <v>16.0977</v>
+      </c>
+      <c r="U38" t="s">
+        <v>9</v>
+      </c>
+      <c r="V38" s="2">
+        <f t="shared" si="11"/>
+        <v>5.1676000000000002</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>2</v>
+      </c>
+      <c r="O39" t="s">
+        <v>3</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>3</v>
+      </c>
+      <c r="R39" s="2">
+        <f>R36*$P36+R38*$P37+R37*$P38</f>
+        <v>25.003022099999999</v>
+      </c>
+      <c r="S39" t="s">
+        <v>9</v>
+      </c>
+      <c r="T39" s="2">
+        <f>T36*$P36+T38*$P37+T37*$P38</f>
+        <v>20.635089539999999</v>
+      </c>
+      <c r="U39" t="s">
+        <v>9</v>
+      </c>
+      <c r="V39" s="2">
+        <f>V36*$P36+V38*$P37+V37*$P38</f>
+        <v>4.3679435199999999</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>7</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="2">
+        <f>N11</f>
+        <v>0.40429999999999999</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="2">
+        <f>O11</f>
+        <v>27.0886</v>
+      </c>
+      <c r="S41" t="s">
+        <v>9</v>
+      </c>
+      <c r="T41" s="2">
+        <f>P11</f>
+        <v>14.570399999999999</v>
+      </c>
+      <c r="U41" t="s">
+        <v>9</v>
+      </c>
+      <c r="V41" s="2">
+        <f>Q11</f>
+        <v>12.5181</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" ref="P42:P43" si="12">N12</f>
+        <v>0.34720000000000001</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" s="2">
+        <f t="shared" ref="R42:R43" si="13">O12</f>
+        <v>27.332000000000001</v>
+      </c>
+      <c r="S42" t="s">
+        <v>9</v>
+      </c>
+      <c r="T42" s="2">
+        <f t="shared" ref="T42:T43" si="14">P12</f>
+        <v>13.9068</v>
+      </c>
+      <c r="U42" t="s">
+        <v>9</v>
+      </c>
+      <c r="V42" s="2">
+        <f t="shared" ref="V42:V43" si="15">Q12</f>
+        <v>13.4252</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O43" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="2">
+        <f t="shared" si="12"/>
+        <v>0.2485</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="2">
+        <f t="shared" si="13"/>
+        <v>19.8902</v>
+      </c>
+      <c r="S43" t="s">
+        <v>9</v>
+      </c>
+      <c r="T43" s="2">
+        <f t="shared" si="14"/>
+        <v>8.9662000000000006</v>
+      </c>
+      <c r="U43" t="s">
+        <v>9</v>
+      </c>
+      <c r="V43" s="2">
+        <f t="shared" si="15"/>
+        <v>10.923999999999999</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" s="2">
+        <f>R41*$P41+R43*$P42+R42*$P43</f>
+        <v>24.649800419999998</v>
+      </c>
+      <c r="S44" t="s">
+        <v>9</v>
+      </c>
+      <c r="T44" s="2">
+        <f>T41*$P41+T43*$P42+T42*$P43</f>
+        <v>12.45971716</v>
+      </c>
+      <c r="U44" t="s">
+        <v>9</v>
+      </c>
+      <c r="V44" s="2">
+        <f>V41*$P41+V43*$P42+V42*$P43</f>
+        <v>12.190042829999999</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>11</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="3"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N46" t="s">
+        <v>1</v>
+      </c>
+      <c r="O46" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="2">
+        <f>N14</f>
+        <v>0.32850000000000001</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="2">
+        <f>O14</f>
+        <v>29.567299999999999</v>
+      </c>
+      <c r="S46" t="s">
+        <v>9</v>
+      </c>
+      <c r="T46" s="2">
+        <f>P14</f>
+        <v>22.927600000000002</v>
+      </c>
+      <c r="U46" t="s">
+        <v>9</v>
+      </c>
+      <c r="V46" s="2">
+        <f>Q14</f>
+        <v>6.6397000000000004</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N47" t="s">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="2">
+        <f t="shared" ref="P47:P48" si="16">N15</f>
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="2">
+        <f t="shared" ref="R47:R48" si="17">O15</f>
+        <v>31.392900000000001</v>
+      </c>
+      <c r="S47" t="s">
+        <v>9</v>
+      </c>
+      <c r="T47" s="2">
+        <f t="shared" ref="T47:T48" si="18">P15</f>
+        <v>24.283200000000001</v>
+      </c>
+      <c r="U47" t="s">
+        <v>9</v>
+      </c>
+      <c r="V47" s="2">
+        <f t="shared" ref="V47:V48" si="19">Q15</f>
+        <v>7.1097000000000001</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O48" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="2">
+        <f t="shared" si="16"/>
+        <v>0.1976</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="2">
+        <f t="shared" si="17"/>
+        <v>21.9099</v>
+      </c>
+      <c r="S48" t="s">
+        <v>9</v>
+      </c>
+      <c r="T48" s="2">
+        <f t="shared" si="18"/>
+        <v>14.4031</v>
+      </c>
+      <c r="U48" t="s">
+        <v>9</v>
+      </c>
+      <c r="V48" s="2">
+        <f t="shared" si="19"/>
+        <v>7.5068000000000001</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="2">
+        <f>R46*$P46+R48*$P47+R47*$P48</f>
+        <v>26.301387690000002</v>
+      </c>
+      <c r="S49" t="s">
+        <v>9</v>
+      </c>
+      <c r="T49" s="2">
+        <f>T46*$P46+T48*$P47+T47*$P48</f>
+        <v>19.157146320000003</v>
+      </c>
+      <c r="U49" t="s">
+        <v>9</v>
+      </c>
+      <c r="V49" s="2">
+        <f>V46*$P46+V48*$P47+V47*$P48</f>
+        <v>7.1442413700000005</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N50" t="s">
+        <v>8</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="3"/>
+    </row>
+    <row r="51" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N51" t="s">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>3</v>
+      </c>
+      <c r="P51" s="2">
+        <f>N17</f>
+        <v>0.29559999999999997</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>3</v>
+      </c>
+      <c r="R51" s="2">
+        <f>O17</f>
+        <v>32.0623</v>
+      </c>
+      <c r="S51" t="s">
+        <v>9</v>
+      </c>
+      <c r="T51" s="2">
+        <f>P17</f>
+        <v>27.957100000000001</v>
+      </c>
+      <c r="U51" t="s">
+        <v>9</v>
+      </c>
+      <c r="V51" s="2">
+        <f>Q17</f>
+        <v>4.1052</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N52" t="s">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="2">
+        <f t="shared" ref="P52:P53" si="20">N18</f>
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="2">
+        <f t="shared" ref="R52:R53" si="21">O18</f>
+        <v>34.6877</v>
+      </c>
+      <c r="S52" t="s">
+        <v>9</v>
+      </c>
+      <c r="T52" s="2">
+        <f t="shared" ref="T52:T53" si="22">P18</f>
+        <v>30.4682</v>
+      </c>
+      <c r="U52" t="s">
+        <v>9</v>
+      </c>
+      <c r="V52" s="2">
+        <f t="shared" ref="V52:V53" si="23">Q18</f>
+        <v>4.2195</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O53" t="s">
+        <v>3</v>
+      </c>
+      <c r="P53" s="2">
+        <f t="shared" si="20"/>
+        <v>9.74E-2</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>3</v>
+      </c>
+      <c r="R53" s="2">
+        <f t="shared" si="21"/>
+        <v>24.694800000000001</v>
+      </c>
+      <c r="S53" t="s">
+        <v>9</v>
+      </c>
+      <c r="T53" s="2">
+        <f t="shared" si="22"/>
+        <v>18.777200000000001</v>
+      </c>
+      <c r="U53" t="s">
+        <v>9</v>
+      </c>
+      <c r="V53" s="2">
+        <f t="shared" si="23"/>
+        <v>5.9176000000000002</v>
+      </c>
+      <c r="W53" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N54" t="s">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="2">
+        <f>R51*$P51+R53*$P52+R52*$P53</f>
+        <v>27.845941459999999</v>
+      </c>
+      <c r="S54" t="s">
+        <v>9</v>
+      </c>
+      <c r="T54" s="2">
+        <f>T51*$P51+T53*$P52+T52*$P53</f>
+        <v>22.629481839999997</v>
+      </c>
+      <c r="U54" t="s">
+        <v>9</v>
+      </c>
+      <c r="V54" s="2">
+        <f>V51*$P51+V53*$P52+V52*$P53</f>
+        <v>5.2164596200000002</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1387,8 +2677,32 @@
     <hyperlink ref="J30" r:id="rId16" xr:uid="{876E7280-74CF-4828-8F65-D4B7A4B1A8BA}"/>
     <hyperlink ref="J34" r:id="rId17" xr:uid="{77C18AD9-5001-4B37-B3FC-E790FE607511}"/>
     <hyperlink ref="J38" r:id="rId18" xr:uid="{0DE4029D-8801-4315-9668-58E6333856EC}"/>
+    <hyperlink ref="W26" r:id="rId19" xr:uid="{59E4A939-1BAA-4206-9E1F-F7D7D5A9D415}"/>
+    <hyperlink ref="W28" r:id="rId20" xr:uid="{70E476D5-0CF0-460B-9AEA-FFFE48BE2958}"/>
+    <hyperlink ref="W29" r:id="rId21" xr:uid="{B5A7E651-C7F5-4859-BC7B-B9046EDF41B6}"/>
+    <hyperlink ref="W27" r:id="rId22" xr:uid="{E6547881-B293-412E-8920-0982BFAF379C}"/>
+    <hyperlink ref="W31" r:id="rId23" xr:uid="{B1EA7F27-69DA-4FE0-8E5C-725A7A47D0EE}"/>
+    <hyperlink ref="W34" r:id="rId24" xr:uid="{B4026B24-2B27-484B-A32E-7574C1CFB5EA}"/>
+    <hyperlink ref="W36" r:id="rId25" xr:uid="{3720B22C-C531-421D-B90B-9CB4B94C909D}"/>
+    <hyperlink ref="W39" r:id="rId26" xr:uid="{34771BC8-1D62-4246-8B92-ADBFC794D08C}"/>
+    <hyperlink ref="W41" r:id="rId27" xr:uid="{9EC965B0-B3E0-4672-889D-2A9DD75EB00F}"/>
+    <hyperlink ref="W46" r:id="rId28" xr:uid="{D32783D6-FDD4-4643-BC21-DDED65DDD48A}"/>
+    <hyperlink ref="W48" r:id="rId29" xr:uid="{DE1B1FFE-0970-4A71-BDB1-E4F32B0792F2}"/>
+    <hyperlink ref="W49" r:id="rId30" xr:uid="{87EBC832-1BC6-44E0-B946-1BB3101BD5CF}"/>
+    <hyperlink ref="W47" r:id="rId31" xr:uid="{0F904E03-B365-45E1-B159-2C20C58675E9}"/>
+    <hyperlink ref="W51" r:id="rId32" xr:uid="{A2C38A12-97C1-476C-B840-843B21244525}"/>
+    <hyperlink ref="W32" r:id="rId33" xr:uid="{87067075-3EF5-4F8F-9D44-5142C6B3C8F3}"/>
+    <hyperlink ref="W33" r:id="rId34" xr:uid="{5D7F8169-CBC3-41FA-94CB-AD722FDB6FAF}"/>
+    <hyperlink ref="W37" r:id="rId35" xr:uid="{09904636-F924-4940-8430-3EBB4AC27349}"/>
+    <hyperlink ref="W38" r:id="rId36" xr:uid="{E2F589EC-21A0-4C74-900B-024D705DE8B6}"/>
+    <hyperlink ref="W44" r:id="rId37" xr:uid="{07834EA1-9CEC-4268-96D7-7A6B2D4AA360}"/>
+    <hyperlink ref="W42" r:id="rId38" xr:uid="{8BE45FBF-A503-4CBD-91DB-7915FE44DF3C}"/>
+    <hyperlink ref="W43" r:id="rId39" xr:uid="{F473746A-D290-4B52-B650-644080F0159D}"/>
+    <hyperlink ref="W54" r:id="rId40" xr:uid="{E08D1C24-C16D-46DC-BB86-F7E28EA8C801}"/>
+    <hyperlink ref="W52" r:id="rId41" xr:uid="{4AEFECD8-657C-4782-9168-4AC29C93DB61}"/>
+    <hyperlink ref="W53" r:id="rId42" xr:uid="{108118F5-BFFE-42F2-81E7-D48DA6EF1BAF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
--- a/Results/table2latex.xlsx
+++ b/Results/table2latex.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbueren\Google Drive\endo_health\metric_model\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E048682A-A613-4085-8507-96B4843CE951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F06FBCB-58B8-4933-8E8F-724A0D443AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{4D131852-BDAB-48D2-B0B4-24C9607E5D25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D131852-BDAB-48D2-B0B4-24C9607E5D25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="19">
   <si>
     <t>Protective</t>
   </si>
@@ -76,6 +78,21 @@
   <si>
     <t>Harmful</t>
   </si>
+  <si>
+    <t>ans</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Edu gradient</t>
+  </si>
+  <si>
+    <t>Gender Gap</t>
+  </si>
+  <si>
+    <t>Gender gap</t>
+  </si>
 </sst>
 </file>
 
@@ -84,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,13 +117,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,19 +148,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -143,6 +178,1899 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pr Good to Good</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$3:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.88438594530047798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87965611374444497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87478997142508796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86978549538925098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86464023359589504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85935105076045004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85391377500168697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84832271887492205</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84257004719413398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83664496580709702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83053271122955596</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.82421333151697795</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.81766026428345595</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.81083873832120001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.80370405066399897</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.79619980121399503</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.78825620256628204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.77978862361196499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.77069657064373398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76086335453368603</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.75015672772029596</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.73843078576328802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.72552939789802395</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.71129134459906296</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.69555719225796897</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.67817773567176698</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.65902361538079401</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.63799550905491298</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.61503414635549702</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.59012933598450601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.56332723096093196</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.53473517780162305</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.50452366422462702</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.47292506295952802</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.44022904433473198</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.406774697306097</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.372939575050869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9576-4572-AD53-5F83B3D6670E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$3:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.82333782608086203</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81798543446142602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81248881443228504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80683576036295701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80101162171125795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79499898115832102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78877733674888195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78232280120254505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77560783464924499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76860103042204997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76126697703461199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75356622273558005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.74545537154283503</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73688734073412199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72781180864651296</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.71817587760621504</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.70792496938140004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.697003959621043</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68535854372803895</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67293681049777698</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65969098311674101</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.64557927155151895</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.63056776777817103</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.614632307199103</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.59776021684278702</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.57995187360176903</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.56122200306917303</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54160066006816499</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.52113384401875995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.49988371427489298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.47792838146352601</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.45536126045528302</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.43228997953793502</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.40883484993188901</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.38512691146448702</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36130558514970301</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.33751598190104798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9576-4572-AD53-5F83B3D6670E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$3:$F$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.99236491213732603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99129781289955099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99010152598909795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98876311292850105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98726854672489595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98560256209517305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.983748449433546</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98168777314862099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97939999111432796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97686194812128202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.974047213029123</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97092522815527704</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96746024256437402</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96361001142880198</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95932426471427801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95454298209138799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94919455631652905</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94319397944542305</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93644123637669796</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92882012800005098</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.92019776358146499</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.91042495718202499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.89933774191474802</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.88676018952659497</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.87250869918458696</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.85639789462898597</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.83824822243761599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.81789524325857199</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.79520042322644202</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.770062960227613</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.74243185704595405</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.71231716069010098</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.67979912431283196</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64503409597330197</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.60825621985600398</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.56977449649731204</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.52996527322523401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9576-4572-AD53-5F83B3D6670E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$3:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.972673001913549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97009669723345104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96730629125162304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96428381840071797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96100900613564899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95745884964135897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.953607137955229</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94942394312089196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94487509130533798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93992164247031196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93451941225459501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92861857521669899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92216339175283002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91509210157381904</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90733702496764301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89882491014113197</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88947756193111205</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87921278501177702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.86794567338977802</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.85559027607237303</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.842061663484721</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.82727840678334497</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.81116545919954597</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.79365739321750695</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.77470190111847903</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.75426341439443001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.73232664837996198</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.70889984261764905</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.68401745464956498</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65774208120073696</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.63016542635748096</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.601408205064207</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.57161895041579802</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.54097177070269298</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.50966316425560998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.47790803907710699</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.44593509932220998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9576-4572-AD53-5F83B3D6670E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="690293224"/>
+        <c:axId val="690296176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="690293224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="690296176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="690296176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="690293224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20239437-F659-46C0-B33E-6E9C795855BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,10 +2370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F330EFCA-C7DF-4136-98BB-2504A28BB96C}">
-  <dimension ref="A2:AC54"/>
+  <dimension ref="A2:Z55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +2382,7 @@
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>58.622799999999998</v>
       </c>
@@ -471,31 +2399,19 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>0.37790000000000001</v>
+        <v>0.31690000000000002</v>
       </c>
       <c r="O2">
-        <v>23.9619</v>
+        <v>25.008099999999999</v>
       </c>
       <c r="P2">
-        <v>13.9496</v>
+        <v>13.766500000000001</v>
       </c>
       <c r="Q2">
-        <v>10.0122</v>
-      </c>
-      <c r="Z2">
-        <v>0.37790000000000001</v>
-      </c>
-      <c r="AA2">
-        <v>23.9619</v>
-      </c>
-      <c r="AB2">
-        <v>13.9496</v>
-      </c>
-      <c r="AC2">
-        <v>10.0122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+        <v>11.2416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>41.377200000000002</v>
       </c>
@@ -509,31 +2425,19 @@
         <v>10.9596</v>
       </c>
       <c r="N3">
-        <v>0.30609999999999998</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="O3">
-        <v>23.5776</v>
+        <v>24.328099999999999</v>
       </c>
       <c r="P3">
-        <v>12.2933</v>
+        <v>13.805999999999999</v>
       </c>
       <c r="Q3">
-        <v>11.2843</v>
-      </c>
-      <c r="Z3">
-        <v>0.30609999999999998</v>
-      </c>
-      <c r="AA3">
-        <v>23.5776</v>
-      </c>
-      <c r="AB3">
-        <v>12.2933</v>
-      </c>
-      <c r="AC3">
-        <v>11.2843</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+        <v>10.5221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>53.551499999999997</v>
       </c>
@@ -547,31 +2451,19 @@
         <v>5.7394999999999996</v>
       </c>
       <c r="N4">
-        <v>0.316</v>
+        <v>0.3175</v>
       </c>
       <c r="O4">
-        <v>17.009</v>
+        <v>17.332000000000001</v>
       </c>
       <c r="P4">
-        <v>8.0265000000000004</v>
+        <v>8.3427000000000007</v>
       </c>
       <c r="Q4">
-        <v>8.9824999999999999</v>
-      </c>
-      <c r="Z4">
-        <v>0.316</v>
-      </c>
-      <c r="AA4">
-        <v>17.009</v>
-      </c>
-      <c r="AB4">
-        <v>8.0265000000000004</v>
-      </c>
-      <c r="AC4">
-        <v>8.9824999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+        <v>8.9893000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>46.448500000000003</v>
       </c>
@@ -588,31 +2480,19 @@
         <v>2</v>
       </c>
       <c r="N5">
-        <v>0.36849999999999999</v>
+        <v>0.41949999999999998</v>
       </c>
       <c r="O5">
-        <v>26.569299999999998</v>
+        <v>28.481100000000001</v>
       </c>
       <c r="P5">
-        <v>21.228999999999999</v>
+        <v>22.714700000000001</v>
       </c>
       <c r="Q5">
-        <v>5.3403999999999998</v>
-      </c>
-      <c r="Z5">
-        <v>0.36849999999999999</v>
-      </c>
-      <c r="AA5">
-        <v>26.569299999999998</v>
-      </c>
-      <c r="AB5">
-        <v>21.228999999999999</v>
-      </c>
-      <c r="AC5">
-        <v>5.3403999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+        <v>5.7664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>38.905200000000001</v>
       </c>
@@ -626,31 +2506,19 @@
         <v>4.0126999999999997</v>
       </c>
       <c r="N6">
-        <v>0.40239999999999998</v>
+        <v>0.3498</v>
       </c>
       <c r="O6">
-        <v>27.7439</v>
+        <v>26.412800000000001</v>
       </c>
       <c r="P6">
-        <v>21.504100000000001</v>
+        <v>20.542400000000001</v>
       </c>
       <c r="Q6">
-        <v>6.2397</v>
-      </c>
-      <c r="Z6">
-        <v>0.40239999999999998</v>
-      </c>
-      <c r="AA6">
-        <v>27.7439</v>
-      </c>
-      <c r="AB6">
-        <v>21.504100000000001</v>
-      </c>
-      <c r="AC6">
-        <v>6.2397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+        <v>5.8704000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>61.094799999999999</v>
       </c>
@@ -664,31 +2532,19 @@
         <v>3.3725999999999998</v>
       </c>
       <c r="N7">
-        <v>0.2291</v>
+        <v>0.23069999999999999</v>
       </c>
       <c r="O7">
-        <v>18.942599999999999</v>
+        <v>19.4742</v>
       </c>
       <c r="P7">
-        <v>12.9115</v>
+        <v>13.426500000000001</v>
       </c>
       <c r="Q7">
-        <v>6.0311000000000003</v>
-      </c>
-      <c r="Z7">
-        <v>0.2291</v>
-      </c>
-      <c r="AA7">
-        <v>18.942599999999999</v>
-      </c>
-      <c r="AB7">
-        <v>12.9115</v>
-      </c>
-      <c r="AC7">
-        <v>6.0311000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+        <v>6.0477999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>47.805999999999997</v>
       </c>
@@ -705,31 +2561,19 @@
         <v>3</v>
       </c>
       <c r="N8">
-        <v>0.32669999999999999</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="O8">
-        <v>29.265899999999998</v>
+        <v>31.970700000000001</v>
       </c>
       <c r="P8">
-        <v>26.032699999999998</v>
+        <v>28.560300000000002</v>
       </c>
       <c r="Q8">
-        <v>3.2332000000000001</v>
-      </c>
-      <c r="Z8">
-        <v>0.32669999999999999</v>
-      </c>
-      <c r="AA8">
-        <v>29.265899999999998</v>
-      </c>
-      <c r="AB8">
-        <v>26.032699999999998</v>
-      </c>
-      <c r="AC8">
-        <v>3.2332000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+        <v>3.4104000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>52.194000000000003</v>
       </c>
@@ -743,31 +2587,19 @@
         <v>13.2494</v>
       </c>
       <c r="N9">
-        <v>0.56369999999999998</v>
+        <v>0.2959</v>
       </c>
       <c r="O9">
-        <v>31.520099999999999</v>
+        <v>28.639199999999999</v>
       </c>
       <c r="P9">
-        <v>27.8826</v>
+        <v>25.039400000000001</v>
       </c>
       <c r="Q9">
-        <v>3.6375999999999999</v>
-      </c>
-      <c r="Z9">
-        <v>0.56369999999999998</v>
-      </c>
-      <c r="AA9">
-        <v>31.520099999999999</v>
-      </c>
-      <c r="AB9">
-        <v>27.8826</v>
-      </c>
-      <c r="AC9">
-        <v>3.6375999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+        <v>3.5998000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>42.770400000000002</v>
       </c>
@@ -781,31 +2613,19 @@
         <v>7.1492000000000004</v>
       </c>
       <c r="N10">
-        <v>0.1096</v>
+        <v>0.11</v>
       </c>
       <c r="O10">
-        <v>21.2653</v>
+        <v>21.139399999999998</v>
       </c>
       <c r="P10">
-        <v>16.0977</v>
+        <v>16.001799999999999</v>
       </c>
       <c r="Q10">
-        <v>5.1676000000000002</v>
-      </c>
-      <c r="Z10">
-        <v>0.1096</v>
-      </c>
-      <c r="AA10">
-        <v>21.2653</v>
-      </c>
-      <c r="AB10">
-        <v>16.0977</v>
-      </c>
-      <c r="AC10">
-        <v>5.1676000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+        <v>5.1375999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>57.229599999999998</v>
       </c>
@@ -822,31 +2642,19 @@
         <v>4</v>
       </c>
       <c r="N11">
-        <v>0.40429999999999999</v>
+        <v>0.3261</v>
       </c>
       <c r="O11">
-        <v>27.0886</v>
+        <v>28.5655</v>
       </c>
       <c r="P11">
-        <v>14.570399999999999</v>
+        <v>15.805199999999999</v>
       </c>
       <c r="Q11">
-        <v>12.5181</v>
-      </c>
-      <c r="Z11">
-        <v>0.40429999999999999</v>
-      </c>
-      <c r="AA11">
-        <v>27.0886</v>
-      </c>
-      <c r="AB11">
-        <v>14.570399999999999</v>
-      </c>
-      <c r="AC11">
-        <v>12.5181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+        <v>12.760300000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>34.584299999999999</v>
       </c>
@@ -860,31 +2668,19 @@
         <v>4.8164999999999996</v>
       </c>
       <c r="N12">
-        <v>0.34720000000000001</v>
+        <v>0.42620000000000002</v>
       </c>
       <c r="O12">
-        <v>27.332000000000001</v>
+        <v>26.9572</v>
       </c>
       <c r="P12">
-        <v>13.9068</v>
+        <v>13.4663</v>
       </c>
       <c r="Q12">
-        <v>13.4252</v>
-      </c>
-      <c r="Z12">
-        <v>0.34720000000000001</v>
-      </c>
-      <c r="AA12">
-        <v>27.332000000000001</v>
-      </c>
-      <c r="AB12">
-        <v>13.9068</v>
-      </c>
-      <c r="AC12">
-        <v>13.4252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+        <v>13.4909</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>65.415700000000001</v>
       </c>
@@ -898,89 +2694,53 @@
         <v>4.1228999999999996</v>
       </c>
       <c r="N13">
-        <v>0.2485</v>
+        <v>0.2477</v>
       </c>
       <c r="O13">
-        <v>19.8902</v>
+        <v>20.2</v>
       </c>
       <c r="P13">
-        <v>8.9662000000000006</v>
+        <v>9.1082999999999998</v>
       </c>
       <c r="Q13">
-        <v>10.923999999999999</v>
-      </c>
-      <c r="Z13">
-        <v>0.2485</v>
-      </c>
-      <c r="AA13">
-        <v>19.8902</v>
-      </c>
-      <c r="AB13">
-        <v>8.9662000000000006</v>
-      </c>
-      <c r="AC13">
-        <v>10.923999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+        <v>11.091699999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M14">
         <v>5</v>
       </c>
       <c r="N14">
-        <v>0.32850000000000001</v>
+        <v>0.46939999999999998</v>
       </c>
       <c r="O14">
-        <v>29.567299999999999</v>
+        <v>32.050800000000002</v>
       </c>
       <c r="P14">
-        <v>22.927600000000002</v>
+        <v>25.586099999999998</v>
       </c>
       <c r="Q14">
-        <v>6.6397000000000004</v>
-      </c>
-      <c r="Z14">
-        <v>0.32850000000000001</v>
-      </c>
-      <c r="AA14">
-        <v>29.567299999999999</v>
-      </c>
-      <c r="AB14">
-        <v>22.927600000000002</v>
-      </c>
-      <c r="AC14">
-        <v>6.6397000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+        <v>6.4648000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="N15">
-        <v>0.47399999999999998</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="O15">
-        <v>31.392900000000001</v>
+        <v>28.888400000000001</v>
       </c>
       <c r="P15">
-        <v>24.283200000000001</v>
+        <v>21.369499999999999</v>
       </c>
       <c r="Q15">
-        <v>7.1097000000000001</v>
-      </c>
-      <c r="Z15">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="AA15">
-        <v>31.392900000000001</v>
-      </c>
-      <c r="AB15">
-        <v>24.283200000000001</v>
-      </c>
-      <c r="AC15">
-        <v>7.1097000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+        <v>7.5187999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1017,31 +2777,19 @@
       </c>
       <c r="M16" s="1"/>
       <c r="N16">
-        <v>0.1976</v>
+        <v>0.19750000000000001</v>
       </c>
       <c r="O16">
-        <v>21.9099</v>
+        <v>22.4008</v>
       </c>
       <c r="P16">
-        <v>14.4031</v>
+        <v>14.7865</v>
       </c>
       <c r="Q16">
-        <v>7.5068000000000001</v>
-      </c>
-      <c r="Z16">
-        <v>0.1976</v>
-      </c>
-      <c r="AA16">
-        <v>21.9099</v>
-      </c>
-      <c r="AB16">
-        <v>14.4031</v>
-      </c>
-      <c r="AC16">
-        <v>7.5068000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+        <v>7.6143000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,31 +2828,19 @@
         <v>6</v>
       </c>
       <c r="N17">
-        <v>0.29559999999999997</v>
+        <v>0.60950000000000004</v>
       </c>
       <c r="O17">
-        <v>32.0623</v>
+        <v>35.132399999999997</v>
       </c>
       <c r="P17">
-        <v>27.957100000000001</v>
+        <v>31.247</v>
       </c>
       <c r="Q17">
-        <v>4.1052</v>
-      </c>
-      <c r="Z17">
-        <v>0.29559999999999997</v>
-      </c>
-      <c r="AA17">
-        <v>32.0623</v>
-      </c>
-      <c r="AB17">
-        <v>27.957100000000001</v>
-      </c>
-      <c r="AC17">
-        <v>4.1052</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+        <v>3.8854000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1139,31 +2875,19 @@
         <v>4</v>
       </c>
       <c r="N18">
-        <v>0.60699999999999998</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="O18">
-        <v>34.6877</v>
+        <v>30.9252</v>
       </c>
       <c r="P18">
-        <v>30.4682</v>
+        <v>26.046600000000002</v>
       </c>
       <c r="Q18">
-        <v>4.2195</v>
-      </c>
-      <c r="Z18">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="AA18">
-        <v>34.6877</v>
-      </c>
-      <c r="AB18">
-        <v>30.4682</v>
-      </c>
-      <c r="AC18">
-        <v>4.2195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+        <v>4.8785999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1173,31 +2897,19 @@
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
       <c r="N19">
-        <v>9.74E-2</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="O19">
-        <v>24.694800000000001</v>
+        <v>24.590199999999999</v>
       </c>
       <c r="P19">
-        <v>18.777200000000001</v>
+        <v>18.62</v>
       </c>
       <c r="Q19">
-        <v>5.9176000000000002</v>
-      </c>
-      <c r="Z19">
-        <v>9.74E-2</v>
-      </c>
-      <c r="AA19">
-        <v>24.694800000000001</v>
-      </c>
-      <c r="AB19">
-        <v>18.777200000000001</v>
-      </c>
-      <c r="AC19">
-        <v>5.9176000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+        <v>5.9702000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +2945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +2981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1304,7 +3016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1314,7 +3026,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1350,7 +3062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1388,8 +3100,14 @@
       <c r="N25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1424,41 +3142,49 @@
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="2">
-        <f>N2</f>
-        <v>0.37790000000000001</v>
+        <f>N2*100</f>
+        <v>31.69</v>
       </c>
       <c r="Q26" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="2">
         <f>O2</f>
-        <v>23.9619</v>
+        <v>25.008099999999999</v>
       </c>
       <c r="S26" t="s">
         <v>9</v>
       </c>
       <c r="T26" s="2">
         <f>P2</f>
-        <v>13.9496</v>
+        <v>13.766500000000001</v>
       </c>
       <c r="U26" t="s">
         <v>9</v>
       </c>
       <c r="V26" s="2">
         <f>Q2</f>
-        <v>10.0122</v>
+        <v>11.2416</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y26" s="2">
+        <f>$R26*$P36/100</f>
+        <v>14.854811399999999</v>
+      </c>
+      <c r="Z26" s="2">
+        <f>$R26*$P41/100</f>
+        <v>8.1551414100000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1468,41 +3194,49 @@
       <c r="I27" s="2"/>
       <c r="J27" s="3"/>
       <c r="N27" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="2">
-        <f t="shared" ref="P27:P28" si="0">N3</f>
-        <v>0.30609999999999998</v>
+        <f t="shared" ref="P27:P28" si="0">N3*100</f>
+        <v>36.559999999999995</v>
       </c>
       <c r="Q27" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" ref="R27:R28" si="1">O3</f>
-        <v>23.5776</v>
+        <v>24.328099999999999</v>
       </c>
       <c r="S27" t="s">
         <v>9</v>
       </c>
       <c r="T27" s="2">
         <f t="shared" ref="T27:T28" si="2">P3</f>
-        <v>12.2933</v>
+        <v>13.805999999999999</v>
       </c>
       <c r="U27" t="s">
         <v>9</v>
       </c>
       <c r="V27" s="2">
         <f t="shared" ref="V27:V28" si="3">Q3</f>
-        <v>11.2843</v>
+        <v>10.5221</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y27" s="2">
+        <f t="shared" ref="Y27" si="4">$R27*$P37/100</f>
+        <v>7.1986847899999997</v>
+      </c>
+      <c r="Z27" s="2">
+        <f t="shared" ref="Z27:Z28" si="5">$R27*$P42/100</f>
+        <v>10.368636220000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1545,34 +3279,42 @@
       </c>
       <c r="P28" s="2">
         <f t="shared" si="0"/>
-        <v>0.316</v>
+        <v>31.75</v>
       </c>
       <c r="Q28" t="s">
         <v>3</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="1"/>
-        <v>17.009</v>
+        <v>17.332000000000001</v>
       </c>
       <c r="S28" t="s">
         <v>9</v>
       </c>
       <c r="T28" s="2">
         <f t="shared" si="2"/>
-        <v>8.0265000000000004</v>
+        <v>8.3427000000000007</v>
       </c>
       <c r="U28" t="s">
         <v>9</v>
       </c>
       <c r="V28" s="2">
         <f t="shared" si="3"/>
-        <v>8.9824999999999999</v>
+        <v>8.9893000000000001</v>
       </c>
       <c r="W28" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y28" s="2">
+        <f t="shared" ref="Y28" si="6">$R28*$P38/100</f>
+        <v>1.9065200000000002</v>
+      </c>
+      <c r="Z28" s="2">
+        <f t="shared" si="5"/>
+        <v>4.2931363999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1620,28 +3362,36 @@
         <v>3</v>
       </c>
       <c r="R29" s="2">
-        <f>R26*$P26+R28*$P27+R27*$P28</f>
-        <v>21.712178510000001</v>
+        <f>(R26*$P26+R28*$P27+R27*$P28)/100</f>
+        <v>21.985817839999999</v>
       </c>
       <c r="S29" t="s">
         <v>9</v>
       </c>
       <c r="T29" s="2">
-        <f>T26*$P26+T28*$P27+T27*$P28</f>
-        <v>11.61314829</v>
+        <f>(T26*$P26+T28*$P27+T27*$P28)/100</f>
+        <v>11.79609997</v>
       </c>
       <c r="U29" t="s">
         <v>9</v>
       </c>
       <c r="V29" s="2">
-        <f>V26*$P26+V28*$P27+V27*$P28</f>
-        <v>10.098992429999999</v>
+        <f>(V26*$P26+V28*$P27+V27*$P28)/100</f>
+        <v>10.189717869999999</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y29" s="2">
+        <f>SUM(Y26:Y28)</f>
+        <v>23.960016189999997</v>
+      </c>
+      <c r="Z29" s="2">
+        <f>SUM(Z26:Z28)</f>
+        <v>22.81691403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1683,8 +3433,13 @@
       <c r="T30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="3"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="5">
+        <f>(Z29-R29)/(R44-R29)</f>
+        <v>0.31770580342139487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1694,41 +3449,46 @@
       <c r="I31" s="2"/>
       <c r="J31" s="3"/>
       <c r="N31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="s">
         <v>3</v>
       </c>
       <c r="P31" s="2">
-        <f>N5</f>
-        <v>0.36849999999999999</v>
+        <f>N5*100</f>
+        <v>41.949999999999996</v>
       </c>
       <c r="Q31" t="s">
         <v>3</v>
       </c>
       <c r="R31" s="2">
         <f>O5</f>
-        <v>26.569299999999998</v>
+        <v>28.481100000000001</v>
       </c>
       <c r="S31" t="s">
         <v>9</v>
       </c>
       <c r="T31" s="2">
         <f>P5</f>
-        <v>21.228999999999999</v>
+        <v>22.714700000000001</v>
       </c>
       <c r="U31" t="s">
         <v>9</v>
       </c>
       <c r="V31" s="2">
         <f>Q5</f>
-        <v>5.3403999999999998</v>
+        <v>5.7664</v>
       </c>
       <c r="W31" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2">
+        <f>$R31*$P46/100</f>
+        <v>13.36902834</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1764,41 +3524,46 @@
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="2">
-        <f t="shared" ref="P32:P33" si="4">N6</f>
-        <v>0.40239999999999998</v>
+        <f t="shared" ref="P32:P33" si="7">N6*100</f>
+        <v>34.979999999999997</v>
       </c>
       <c r="Q32" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" ref="R32:R33" si="5">O6</f>
-        <v>27.7439</v>
+        <f t="shared" ref="R32:R33" si="8">O6</f>
+        <v>26.412800000000001</v>
       </c>
       <c r="S32" t="s">
         <v>9</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" ref="T32:T33" si="6">P6</f>
-        <v>21.504100000000001</v>
+        <f t="shared" ref="T32:T33" si="9">P6</f>
+        <v>20.542400000000001</v>
       </c>
       <c r="U32" t="s">
         <v>9</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" ref="V32:V33" si="7">Q6</f>
-        <v>6.2397</v>
+        <f t="shared" ref="V32:V33" si="10">Q6</f>
+        <v>5.8704000000000001</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2">
+        <f t="shared" ref="Z32:Z33" si="11">$R32*$P47/100</f>
+        <v>8.7954624000000017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1840,35 +3605,40 @@
         <v>3</v>
       </c>
       <c r="P33" s="2">
-        <f t="shared" si="4"/>
-        <v>0.2291</v>
+        <f t="shared" si="7"/>
+        <v>23.07</v>
       </c>
       <c r="Q33" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="5"/>
-        <v>18.942599999999999</v>
+        <f t="shared" si="8"/>
+        <v>19.4742</v>
       </c>
       <c r="S33" t="s">
         <v>9</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" si="6"/>
-        <v>12.9115</v>
+        <f t="shared" si="9"/>
+        <v>13.426500000000001</v>
       </c>
       <c r="U33" t="s">
         <v>9</v>
       </c>
       <c r="V33" s="2">
-        <f t="shared" si="7"/>
-        <v>6.0311000000000003</v>
+        <f t="shared" si="10"/>
+        <v>6.0477999999999996</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2">
+        <f t="shared" si="11"/>
+        <v>3.8461544999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1915,28 +3685,33 @@
         <v>3</v>
       </c>
       <c r="R34" s="2">
-        <f>R31*$P31+R33*$P32+R32*$P33</f>
-        <v>23.769416779999997</v>
+        <f>(R31*$P31+R33*$P32+R32*$P33)/100</f>
+        <v>24.853329569999996</v>
       </c>
       <c r="S34" t="s">
         <v>9</v>
       </c>
       <c r="T34" s="2">
-        <f>T31*$P31+T33*$P32+T32*$P33</f>
-        <v>17.945063409999999</v>
+        <f>(T31*$P31+T33*$P32+T32*$P33)/100</f>
+        <v>18.96453803</v>
       </c>
       <c r="U34" t="s">
         <v>9</v>
       </c>
       <c r="V34" s="2">
-        <f>V31*$P31+V33*$P32+V32*$P33</f>
-        <v>5.8243673099999995</v>
+        <f>(V31*$P31+V33*$P32+V32*$P33)/100</f>
+        <v>5.8888265199999985</v>
       </c>
       <c r="W34" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2">
+        <f>SUM(Z31:Z33)</f>
+        <v>26.010645240000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1953,8 +3728,13 @@
       <c r="T35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="3"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="5">
+        <f>(Z34-R34)/(R49-R34)</f>
+        <v>0.34482492446498325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1990,41 +3770,46 @@
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="s">
         <v>3</v>
       </c>
       <c r="P36" s="2">
-        <f>N8</f>
-        <v>0.32669999999999999</v>
+        <f>N8*100</f>
+        <v>59.4</v>
       </c>
       <c r="Q36" t="s">
         <v>3</v>
       </c>
       <c r="R36" s="2">
         <f>O8</f>
-        <v>29.265899999999998</v>
+        <v>31.970700000000001</v>
       </c>
       <c r="S36" t="s">
         <v>9</v>
       </c>
       <c r="T36" s="2">
         <f>P8</f>
-        <v>26.032699999999998</v>
+        <v>28.560300000000002</v>
       </c>
       <c r="U36" t="s">
         <v>9</v>
       </c>
       <c r="V36" s="2">
         <f>Q8</f>
-        <v>3.2332000000000001</v>
+        <v>3.4104000000000001</v>
       </c>
       <c r="W36" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2">
+        <f>$R36*$P51/100</f>
+        <v>19.48614165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -2060,41 +3845,46 @@
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" t="s">
         <v>3</v>
       </c>
       <c r="P37" s="2">
-        <f t="shared" ref="P37:P38" si="8">N9</f>
-        <v>0.56369999999999998</v>
+        <f t="shared" ref="P37:P38" si="12">N9*100</f>
+        <v>29.59</v>
       </c>
       <c r="Q37" t="s">
         <v>3</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" ref="R37:R38" si="9">O9</f>
-        <v>31.520099999999999</v>
+        <f t="shared" ref="R37:R38" si="13">O9</f>
+        <v>28.639199999999999</v>
       </c>
       <c r="S37" t="s">
         <v>9</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" ref="T37:T38" si="10">P9</f>
-        <v>27.8826</v>
+        <f t="shared" ref="T37:T38" si="14">P9</f>
+        <v>25.039400000000001</v>
       </c>
       <c r="U37" t="s">
         <v>9</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" ref="V37:V38" si="11">Q9</f>
-        <v>3.6375999999999999</v>
+        <f t="shared" ref="V37:V38" si="15">Q9</f>
+        <v>3.5998000000000001</v>
       </c>
       <c r="W37" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2">
+        <f t="shared" ref="Z37:Z38" si="16">$R37*$P52/100</f>
+        <v>8.391285599999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -2135,35 +3925,40 @@
         <v>3</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" si="8"/>
-        <v>0.1096</v>
+        <f t="shared" si="12"/>
+        <v>11</v>
       </c>
       <c r="Q38" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="9"/>
-        <v>21.2653</v>
+        <f t="shared" si="13"/>
+        <v>21.139399999999998</v>
       </c>
       <c r="S38" t="s">
         <v>9</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" si="10"/>
-        <v>16.0977</v>
+        <f t="shared" si="14"/>
+        <v>16.001799999999999</v>
       </c>
       <c r="U38" t="s">
         <v>9</v>
       </c>
       <c r="V38" s="2">
-        <f t="shared" si="11"/>
-        <v>5.1676000000000002</v>
+        <f t="shared" si="15"/>
+        <v>5.1375999999999999</v>
       </c>
       <c r="W38" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2">
+        <f t="shared" si="16"/>
+        <v>2.0610914999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N39" t="s">
         <v>2</v>
       </c>
@@ -2177,28 +3972,33 @@
         <v>3</v>
       </c>
       <c r="R39" s="2">
-        <f>R36*$P36+R38*$P37+R37*$P38</f>
-        <v>25.003022099999999</v>
+        <f>(R36*$P36+R38*$P37+R37*$P38)/100</f>
+        <v>28.396056260000002</v>
       </c>
       <c r="S39" t="s">
         <v>9</v>
       </c>
       <c r="T39" s="2">
-        <f>T36*$P36+T38*$P37+T37*$P38</f>
-        <v>20.635089539999999</v>
+        <f>(T36*$P36+T38*$P37+T37*$P38)/100</f>
+        <v>24.454084819999999</v>
       </c>
       <c r="U39" t="s">
         <v>9</v>
       </c>
       <c r="V39" s="2">
-        <f>V36*$P36+V38*$P37+V37*$P38</f>
-        <v>4.3679435199999999</v>
+        <f>(V36*$P36+V38*$P37+V37*$P38)/100</f>
+        <v>3.9419714399999997</v>
       </c>
       <c r="W39" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2">
+        <f>SUM(Z36:Z38)</f>
+        <v>29.938518749999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N40" t="s">
         <v>7</v>
       </c>
@@ -2207,80 +4007,98 @@
       <c r="T40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y40" s="5">
+        <f>(Y29-R29)/(R39-R29)</f>
+        <v>0.30797580692794224</v>
+      </c>
+      <c r="Z40" s="5">
+        <f>(Z39-R39)/(R54-R39)</f>
+        <v>0.47646908908144842</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" t="s">
         <v>3</v>
       </c>
       <c r="P41" s="2">
-        <f>N11</f>
-        <v>0.40429999999999999</v>
+        <f>N11*100</f>
+        <v>32.61</v>
       </c>
       <c r="Q41" t="s">
         <v>3</v>
       </c>
       <c r="R41" s="2">
         <f>O11</f>
-        <v>27.0886</v>
+        <v>28.5655</v>
       </c>
       <c r="S41" t="s">
         <v>9</v>
       </c>
       <c r="T41" s="2">
         <f>P11</f>
-        <v>14.570399999999999</v>
+        <v>15.805199999999999</v>
       </c>
       <c r="U41" t="s">
         <v>9</v>
       </c>
       <c r="V41" s="2">
         <f>Q11</f>
-        <v>12.5181</v>
+        <v>12.760300000000001</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y41" s="2">
+        <f>R41*P51/100</f>
+        <v>17.410672250000001</v>
+      </c>
+      <c r="Z41" s="2"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N42" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="s">
         <v>3</v>
       </c>
       <c r="P42" s="2">
-        <f t="shared" ref="P42:P43" si="12">N12</f>
-        <v>0.34720000000000001</v>
+        <f t="shared" ref="P42:P43" si="17">N12*100</f>
+        <v>42.620000000000005</v>
       </c>
       <c r="Q42" t="s">
         <v>3</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" ref="R42:R43" si="13">O12</f>
-        <v>27.332000000000001</v>
+        <f t="shared" ref="R42:R43" si="18">O12</f>
+        <v>26.9572</v>
       </c>
       <c r="S42" t="s">
         <v>9</v>
       </c>
       <c r="T42" s="2">
-        <f t="shared" ref="T42:T43" si="14">P12</f>
-        <v>13.9068</v>
+        <f t="shared" ref="T42:T43" si="19">P12</f>
+        <v>13.4663</v>
       </c>
       <c r="U42" t="s">
         <v>9</v>
       </c>
       <c r="V42" s="2">
-        <f t="shared" ref="V42:V43" si="15">Q12</f>
-        <v>13.4252</v>
+        <f t="shared" ref="V42:V43" si="20">Q12</f>
+        <v>13.4909</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y42" s="2">
+        <f t="shared" ref="Y42:Y43" si="21">R42*P52/100</f>
+        <v>7.8984595999999989</v>
+      </c>
+      <c r="Z42" s="2"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N43" s="1" t="s">
         <v>13</v>
       </c>
@@ -2288,35 +4106,40 @@
         <v>3</v>
       </c>
       <c r="P43" s="2">
-        <f t="shared" si="12"/>
-        <v>0.2485</v>
+        <f t="shared" si="17"/>
+        <v>24.77</v>
       </c>
       <c r="Q43" t="s">
         <v>3</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="13"/>
-        <v>19.8902</v>
+        <f t="shared" si="18"/>
+        <v>20.2</v>
       </c>
       <c r="S43" t="s">
         <v>9</v>
       </c>
       <c r="T43" s="2">
-        <f t="shared" si="14"/>
-        <v>8.9662000000000006</v>
+        <f t="shared" si="19"/>
+        <v>9.1082999999999998</v>
       </c>
       <c r="U43" t="s">
         <v>9</v>
       </c>
       <c r="V43" s="2">
-        <f t="shared" si="15"/>
-        <v>10.923999999999999</v>
+        <f t="shared" si="20"/>
+        <v>11.091699999999999</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y43" s="2">
+        <f t="shared" si="21"/>
+        <v>1.9694999999999998</v>
+      </c>
+      <c r="Z43" s="2"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N44" t="s">
         <v>2</v>
       </c>
@@ -2330,28 +4153,36 @@
         <v>3</v>
       </c>
       <c r="R44" s="2">
-        <f>R41*$P41+R43*$P42+R42*$P43</f>
-        <v>24.649800419999998</v>
+        <f>(R41*$P41+R43*$P42+R42*$P43)/100</f>
+        <v>24.60174799</v>
       </c>
       <c r="S44" t="s">
         <v>9</v>
       </c>
       <c r="T44" s="2">
-        <f>T41*$P41+T43*$P42+T42*$P43</f>
-        <v>12.45971716</v>
+        <f>(T41*$P41+T43*$P42+T42*$P43)/100</f>
+        <v>12.371635689999998</v>
       </c>
       <c r="U44" t="s">
         <v>9</v>
       </c>
       <c r="V44" s="2">
-        <f>V41*$P41+V43*$P42+V42*$P43</f>
-        <v>12.190042829999999</v>
+        <f>(V41*$P41+V43*$P42+V42*$P43)/100</f>
+        <v>12.2301123</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y44" s="2">
+        <f>SUM(Y41:Y43)</f>
+        <v>27.27863185</v>
+      </c>
+      <c r="Z44" s="2">
+        <f>Y44-R44</f>
+        <v>2.6768838600000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N45" t="s">
         <v>11</v>
       </c>
@@ -2361,79 +4192,79 @@
       <c r="V45" s="2"/>
       <c r="W45" s="3"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="s">
         <v>3</v>
       </c>
       <c r="P46" s="2">
-        <f>N14</f>
-        <v>0.32850000000000001</v>
+        <f>N14*100</f>
+        <v>46.94</v>
       </c>
       <c r="Q46" t="s">
         <v>3</v>
       </c>
       <c r="R46" s="2">
         <f>O14</f>
-        <v>29.567299999999999</v>
+        <v>32.050800000000002</v>
       </c>
       <c r="S46" t="s">
         <v>9</v>
       </c>
       <c r="T46" s="2">
         <f>P14</f>
-        <v>22.927600000000002</v>
+        <v>25.586099999999998</v>
       </c>
       <c r="U46" t="s">
         <v>9</v>
       </c>
       <c r="V46" s="2">
         <f>Q14</f>
-        <v>6.6397000000000004</v>
+        <v>6.4648000000000003</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N47" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="s">
         <v>3</v>
       </c>
       <c r="P47" s="2">
-        <f t="shared" ref="P47:P48" si="16">N15</f>
-        <v>0.47399999999999998</v>
+        <f t="shared" ref="P47:P48" si="22">N15*100</f>
+        <v>33.300000000000004</v>
       </c>
       <c r="Q47" t="s">
         <v>3</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" ref="R47:R48" si="17">O15</f>
-        <v>31.392900000000001</v>
+        <f t="shared" ref="R47:R48" si="23">O15</f>
+        <v>28.888400000000001</v>
       </c>
       <c r="S47" t="s">
         <v>9</v>
       </c>
       <c r="T47" s="2">
-        <f t="shared" ref="T47:T48" si="18">P15</f>
-        <v>24.283200000000001</v>
+        <f t="shared" ref="T47:T48" si="24">P15</f>
+        <v>21.369499999999999</v>
       </c>
       <c r="U47" t="s">
         <v>9</v>
       </c>
       <c r="V47" s="2">
-        <f t="shared" ref="V47:V48" si="19">Q15</f>
-        <v>7.1097000000000001</v>
+        <f t="shared" ref="V47:V48" si="25">Q15</f>
+        <v>7.5187999999999997</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N48" s="1" t="s">
         <v>13</v>
       </c>
@@ -2441,35 +4272,35 @@
         <v>3</v>
       </c>
       <c r="P48" s="2">
-        <f t="shared" si="16"/>
-        <v>0.1976</v>
+        <f t="shared" si="22"/>
+        <v>19.75</v>
       </c>
       <c r="Q48" t="s">
         <v>3</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" si="17"/>
-        <v>21.9099</v>
+        <f t="shared" si="23"/>
+        <v>22.4008</v>
       </c>
       <c r="S48" t="s">
         <v>9</v>
       </c>
       <c r="T48" s="2">
-        <f t="shared" si="18"/>
-        <v>14.4031</v>
+        <f t="shared" si="24"/>
+        <v>14.7865</v>
       </c>
       <c r="U48" t="s">
         <v>9</v>
       </c>
       <c r="V48" s="2">
-        <f t="shared" si="19"/>
-        <v>7.5068000000000001</v>
+        <f t="shared" si="25"/>
+        <v>7.6143000000000001</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="14:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="14:25" x14ac:dyDescent="0.25">
       <c r="N49" t="s">
         <v>2</v>
       </c>
@@ -2483,28 +4314,28 @@
         <v>3</v>
       </c>
       <c r="R49" s="2">
-        <f>R46*$P46+R48*$P47+R47*$P48</f>
-        <v>26.301387690000002</v>
+        <f>(R46*$P46+R48*$P47+R47*$P48)/100</f>
+        <v>28.209570920000004</v>
       </c>
       <c r="S49" t="s">
         <v>9</v>
       </c>
       <c r="T49" s="2">
-        <f>T46*$P46+T48*$P47+T47*$P48</f>
-        <v>19.157146320000003</v>
+        <f>(T46*$P46+T48*$P47+T47*$P48)/100</f>
+        <v>21.154496089999999</v>
       </c>
       <c r="U49" t="s">
         <v>9</v>
       </c>
       <c r="V49" s="2">
-        <f>V46*$P46+V48*$P47+V47*$P48</f>
-        <v>7.1442413700000005</v>
+        <f>(V46*$P46+V48*$P47+V47*$P48)/100</f>
+        <v>7.0551020200000005</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="14:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="14:25" x14ac:dyDescent="0.25">
       <c r="N50" t="s">
         <v>8</v>
       </c>
@@ -2514,79 +4345,79 @@
       <c r="V50" s="2"/>
       <c r="W50" s="3"/>
     </row>
-    <row r="51" spans="14:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="14:25" x14ac:dyDescent="0.25">
       <c r="N51" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="s">
         <v>3</v>
       </c>
       <c r="P51" s="2">
-        <f>N17</f>
-        <v>0.29559999999999997</v>
+        <f>N17*100</f>
+        <v>60.95</v>
       </c>
       <c r="Q51" t="s">
         <v>3</v>
       </c>
       <c r="R51" s="2">
         <f>O17</f>
-        <v>32.0623</v>
+        <v>35.132399999999997</v>
       </c>
       <c r="S51" t="s">
         <v>9</v>
       </c>
       <c r="T51" s="2">
         <f>P17</f>
-        <v>27.957100000000001</v>
+        <v>31.247</v>
       </c>
       <c r="U51" t="s">
         <v>9</v>
       </c>
       <c r="V51" s="2">
         <f>Q17</f>
-        <v>4.1052</v>
+        <v>3.8854000000000002</v>
       </c>
       <c r="W51" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="14:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="14:25" x14ac:dyDescent="0.25">
       <c r="N52" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="s">
         <v>3</v>
       </c>
       <c r="P52" s="2">
-        <f t="shared" ref="P52:P53" si="20">N18</f>
-        <v>0.60699999999999998</v>
+        <f t="shared" ref="P52:P53" si="26">N18*100</f>
+        <v>29.299999999999997</v>
       </c>
       <c r="Q52" t="s">
         <v>3</v>
       </c>
       <c r="R52" s="2">
-        <f t="shared" ref="R52:R53" si="21">O18</f>
-        <v>34.6877</v>
+        <f t="shared" ref="R52:R53" si="27">O18</f>
+        <v>30.9252</v>
       </c>
       <c r="S52" t="s">
         <v>9</v>
       </c>
       <c r="T52" s="2">
-        <f t="shared" ref="T52:T53" si="22">P18</f>
-        <v>30.4682</v>
+        <f t="shared" ref="T52:T53" si="28">P18</f>
+        <v>26.046600000000002</v>
       </c>
       <c r="U52" t="s">
         <v>9</v>
       </c>
       <c r="V52" s="2">
-        <f t="shared" ref="V52:V53" si="23">Q18</f>
-        <v>4.2195</v>
+        <f t="shared" ref="V52:V53" si="29">Q18</f>
+        <v>4.8785999999999996</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="14:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="14:25" x14ac:dyDescent="0.25">
       <c r="N53" s="1" t="s">
         <v>13</v>
       </c>
@@ -2594,35 +4425,35 @@
         <v>3</v>
       </c>
       <c r="P53" s="2">
-        <f t="shared" si="20"/>
-        <v>9.74E-2</v>
+        <f t="shared" si="26"/>
+        <v>9.75</v>
       </c>
       <c r="Q53" t="s">
         <v>3</v>
       </c>
       <c r="R53" s="2">
-        <f t="shared" si="21"/>
-        <v>24.694800000000001</v>
+        <f t="shared" si="27"/>
+        <v>24.590199999999999</v>
       </c>
       <c r="S53" t="s">
         <v>9</v>
       </c>
       <c r="T53" s="2">
-        <f t="shared" si="22"/>
-        <v>18.777200000000001</v>
+        <f t="shared" si="28"/>
+        <v>18.62</v>
       </c>
       <c r="U53" t="s">
         <v>9</v>
       </c>
       <c r="V53" s="2">
-        <f t="shared" si="23"/>
-        <v>5.9176000000000002</v>
+        <f t="shared" si="29"/>
+        <v>5.9702000000000002</v>
       </c>
       <c r="W53" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="14:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="14:25" x14ac:dyDescent="0.25">
       <c r="N54" t="s">
         <v>2</v>
       </c>
@@ -2636,25 +4467,31 @@
         <v>3</v>
       </c>
       <c r="R54" s="2">
-        <f>R51*$P51+R53*$P52+R52*$P53</f>
-        <v>27.845941459999999</v>
+        <f>(R51*$P51+R53*$P52+R52*$P53)/100</f>
+        <v>31.633333399999998</v>
       </c>
       <c r="S54" t="s">
         <v>9</v>
       </c>
       <c r="T54" s="2">
-        <f>T51*$P51+T53*$P52+T52*$P53</f>
-        <v>22.629481839999997</v>
+        <f>(T51*$P51+T53*$P52+T52*$P53)/100</f>
+        <v>27.04025</v>
       </c>
       <c r="U54" t="s">
         <v>9</v>
       </c>
       <c r="V54" s="2">
-        <f>V51*$P51+V53*$P52+V52*$P53</f>
-        <v>5.2164596200000002</v>
+        <f>(V51*$P51+V53*$P52+V52*$P53)/100</f>
+        <v>4.5930834000000003</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="Y55" s="5">
+        <f>(Y44-R44)/(R54-R44)</f>
+        <v>0.3806942110371096</v>
       </c>
     </row>
   </sheetData>
@@ -2705,4 +4542,1343 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A2197B-3151-4F46-B995-07E5FBB54E6A}">
+  <dimension ref="D3:O47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0.26519999999999999</v>
+      </c>
+      <c r="F3">
+        <v>24.934000000000001</v>
+      </c>
+      <c r="G3">
+        <v>13.7661</v>
+      </c>
+      <c r="H3">
+        <v>11.167899999999999</v>
+      </c>
+      <c r="J3" s="2">
+        <f>E3*F3</f>
+        <v>6.6124967999999997</v>
+      </c>
+      <c r="K3" s="2">
+        <f>F3*E19</f>
+        <v>12.793635400000001</v>
+      </c>
+      <c r="N3" s="2">
+        <f>F3*E27</f>
+        <v>6.4105314</v>
+      </c>
+    </row>
+    <row r="4" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0.1145</v>
+      </c>
+      <c r="F4">
+        <v>21.952400000000001</v>
+      </c>
+      <c r="G4">
+        <v>9.9632000000000005</v>
+      </c>
+      <c r="H4">
+        <v>11.9892</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J6" si="0">E4*F4</f>
+        <v>2.5135498000000003</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K6" si="1">F4*E20</f>
+        <v>2.3884211199999998</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" ref="N4:N6" si="2">F4*E28</f>
+        <v>4.4168228799999998</v>
+      </c>
+    </row>
+    <row r="5" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="F5">
+        <v>25.076499999999999</v>
+      </c>
+      <c r="G5">
+        <v>14.881</v>
+      </c>
+      <c r="H5">
+        <v>10.195499999999999</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>8.2301073000000002</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
+        <v>6.9913281999999999</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="2"/>
+        <v>8.1147554</v>
+      </c>
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0.29210000000000003</v>
+      </c>
+      <c r="F6">
+        <v>17.442</v>
+      </c>
+      <c r="G6">
+        <v>8.4137000000000004</v>
+      </c>
+      <c r="H6">
+        <v>9.0282999999999998</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0948082000000001</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7302464</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="2"/>
+        <v>3.8041001999999997</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J7" s="2">
+        <f>SUM(J3:J6)</f>
+        <v>22.450962100000002</v>
+      </c>
+      <c r="K7" s="2">
+        <f>SUM(K3:K6)</f>
+        <v>23.90363112</v>
+      </c>
+      <c r="L7" s="6">
+        <f>(K7-J7)/(J23-J7)</f>
+        <v>0.1962410673438717</v>
+      </c>
+      <c r="N7" s="2">
+        <f>SUM(N3:N6)</f>
+        <v>22.746209880000002</v>
+      </c>
+      <c r="O7" s="6">
+        <f>(N7-J7)/(J31-J7)</f>
+        <v>8.6000493514011261E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0.34420000000000001</v>
+      </c>
+      <c r="F11">
+        <v>28.527000000000001</v>
+      </c>
+      <c r="G11">
+        <v>22.930800000000001</v>
+      </c>
+      <c r="H11">
+        <v>5.5961999999999996</v>
+      </c>
+      <c r="J11" s="2">
+        <f>E11*F11</f>
+        <v>9.8189934000000001</v>
+      </c>
+      <c r="N11" s="2">
+        <f>F11*E35</f>
+        <v>10.874492399999999</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0.13320000000000001</v>
+      </c>
+      <c r="F12">
+        <v>24.970600000000001</v>
+      </c>
+      <c r="G12">
+        <v>16.799499999999998</v>
+      </c>
+      <c r="H12">
+        <v>8.1710999999999991</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" ref="J12:J14" si="3">E12*F12</f>
+        <v>3.3260839200000003</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" ref="N12:N14" si="4">F12*E36</f>
+        <v>4.6844845599999996</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0.31040000000000001</v>
+      </c>
+      <c r="F13">
+        <v>27.068100000000001</v>
+      </c>
+      <c r="G13">
+        <v>22.1294</v>
+      </c>
+      <c r="H13">
+        <v>4.9386999999999999</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="3"/>
+        <v>8.4019382399999998</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="4"/>
+        <v>6.9077791199999998</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0.2122</v>
+      </c>
+      <c r="F14">
+        <v>19.4451</v>
+      </c>
+      <c r="G14">
+        <v>13.501899999999999</v>
+      </c>
+      <c r="H14">
+        <v>5.9432</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1262502200000002</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="4"/>
+        <v>3.4223375999999996</v>
+      </c>
+      <c r="O14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J15" s="2">
+        <f>SUM(J11:J14)</f>
+        <v>25.673265779999998</v>
+      </c>
+      <c r="N15" s="2">
+        <f>SUM(N11:N14)</f>
+        <v>25.889093679999998</v>
+      </c>
+      <c r="O15" s="6">
+        <f>(N15-J15)/(J39-J15)</f>
+        <v>6.1445906540809302E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>0.5131</v>
+      </c>
+      <c r="F19">
+        <v>32.189100000000003</v>
+      </c>
+      <c r="G19">
+        <v>28.947099999999999</v>
+      </c>
+      <c r="H19">
+        <v>3.242</v>
+      </c>
+      <c r="J19" s="2">
+        <f>E19*F19</f>
+        <v>16.51622721</v>
+      </c>
+      <c r="N19" s="2">
+        <f>F19*E43</f>
+        <v>16.432535550000001</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0.10879999999999999</v>
+      </c>
+      <c r="F20">
+        <v>26.723199999999999</v>
+      </c>
+      <c r="G20">
+        <v>20.771799999999999</v>
+      </c>
+      <c r="H20">
+        <v>5.9513999999999996</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" ref="J20:J22" si="5">E20*F20</f>
+        <v>2.9074841599999997</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" ref="N20:N22" si="6">F20*E44</f>
+        <v>4.4066556799999992</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>0.27879999999999999</v>
+      </c>
+      <c r="F21">
+        <v>29.885400000000001</v>
+      </c>
+      <c r="G21">
+        <v>26.9544</v>
+      </c>
+      <c r="H21">
+        <v>2.931</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="5"/>
+        <v>8.33204952</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" si="6"/>
+        <v>7.0619200200000005</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="F22">
+        <v>21.145900000000001</v>
+      </c>
+      <c r="G22">
+        <v>16.101500000000001</v>
+      </c>
+      <c r="H22">
+        <v>5.0445000000000002</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="5"/>
+        <v>2.09767328</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="6"/>
+        <v>1.8671829700000002</v>
+      </c>
+      <c r="O22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J23" s="2">
+        <f>SUM(J19:J22)</f>
+        <v>29.853434169999996</v>
+      </c>
+      <c r="N23" s="2">
+        <f>SUM(N19:N22)</f>
+        <v>29.768294220000001</v>
+      </c>
+      <c r="O23" s="6">
+        <f>(N23-J23)/(J47-J23)</f>
+        <v>-2.852270811245556E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>0.2571</v>
+      </c>
+      <c r="F27">
+        <v>28.834399999999999</v>
+      </c>
+      <c r="G27">
+        <v>16.236999999999998</v>
+      </c>
+      <c r="H27">
+        <v>12.5974</v>
+      </c>
+      <c r="J27" s="2">
+        <f>E27*F27</f>
+        <v>7.4133242399999997</v>
+      </c>
+      <c r="K27" s="2">
+        <f>F27*E43</f>
+        <v>14.719961199999998</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>0.20119999999999999</v>
+      </c>
+      <c r="F28">
+        <v>24.836300000000001</v>
+      </c>
+      <c r="G28">
+        <v>10.030900000000001</v>
+      </c>
+      <c r="H28">
+        <v>14.8055</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" ref="J28:J30" si="7">E28*F28</f>
+        <v>4.99706356</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" ref="K28:K30" si="8">F28*E44</f>
+        <v>4.0955058700000002</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>0.3236</v>
+      </c>
+      <c r="F29">
+        <v>27.988700000000001</v>
+      </c>
+      <c r="G29">
+        <v>16.170200000000001</v>
+      </c>
+      <c r="H29">
+        <v>11.8185</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="7"/>
+        <v>9.0571433199999998</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="8"/>
+        <v>6.6137298100000006</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>0.21809999999999999</v>
+      </c>
+      <c r="F30">
+        <v>20.25</v>
+      </c>
+      <c r="G30">
+        <v>9.3089999999999993</v>
+      </c>
+      <c r="H30">
+        <v>10.9411</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="7"/>
+        <v>4.416525</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="8"/>
+        <v>1.7880750000000001</v>
+      </c>
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J31" s="2">
+        <f>SUM(J27:J30)</f>
+        <v>25.884056119999997</v>
+      </c>
+      <c r="K31" s="2">
+        <f>SUM(K27:K30)</f>
+        <v>27.217271879999998</v>
+      </c>
+      <c r="L31" s="4">
+        <f>(K31-J31)/(J47-J31)</f>
+        <v>0.19170916412823169</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>0.38119999999999998</v>
+      </c>
+      <c r="F35">
+        <v>32.313499999999998</v>
+      </c>
+      <c r="G35">
+        <v>26.153300000000002</v>
+      </c>
+      <c r="H35">
+        <v>6.1601999999999997</v>
+      </c>
+      <c r="J35" s="2">
+        <f>E35*F35</f>
+        <v>12.317906199999998</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>0.18759999999999999</v>
+      </c>
+      <c r="F36">
+        <v>27.8371</v>
+      </c>
+      <c r="G36">
+        <v>17.9758</v>
+      </c>
+      <c r="H36">
+        <v>9.8613</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" ref="J36:J38" si="9">E36*F36</f>
+        <v>5.2222399599999996</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>0.25519999999999998</v>
+      </c>
+      <c r="F37">
+        <v>30.1967</v>
+      </c>
+      <c r="G37">
+        <v>24.53</v>
+      </c>
+      <c r="H37">
+        <v>5.6666999999999996</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="9"/>
+        <v>7.7061978399999997</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F38">
+        <v>22.382999999999999</v>
+      </c>
+      <c r="G38">
+        <v>15.0101</v>
+      </c>
+      <c r="H38">
+        <v>7.3727999999999998</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="9"/>
+        <v>3.9394079999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="2">
+        <f>SUM(J35:J38)</f>
+        <v>29.185752000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>0.51049999999999995</v>
+      </c>
+      <c r="F43">
+        <v>35.317399999999999</v>
+      </c>
+      <c r="G43">
+        <v>31.659400000000002</v>
+      </c>
+      <c r="H43">
+        <v>3.6579999999999999</v>
+      </c>
+      <c r="J43" s="2">
+        <f>E43*F43</f>
+        <v>18.029532699999997</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>0.16489999999999999</v>
+      </c>
+      <c r="F44">
+        <v>29.812200000000001</v>
+      </c>
+      <c r="G44">
+        <v>22.9757</v>
+      </c>
+      <c r="H44">
+        <v>6.8365</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" ref="J44:J46" si="10">E44*F44</f>
+        <v>4.91603178</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>0.23630000000000001</v>
+      </c>
+      <c r="F45">
+        <v>32.663600000000002</v>
+      </c>
+      <c r="G45">
+        <v>29.0745</v>
+      </c>
+      <c r="H45">
+        <v>3.5891000000000002</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="10"/>
+        <v>7.7184086800000005</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="F46">
+        <v>24.625699999999998</v>
+      </c>
+      <c r="G46">
+        <v>18.864100000000001</v>
+      </c>
+      <c r="H46">
+        <v>5.7615999999999996</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="10"/>
+        <v>2.17444931</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J47" s="2">
+        <f>SUM(J43:J46)</f>
+        <v>32.838422469999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DA3532-249F-4241-A391-CDBF4CF56E1D}">
+  <dimension ref="B3:G39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>0.88438594530047798</v>
+      </c>
+      <c r="D3">
+        <v>0.82333782608086203</v>
+      </c>
+      <c r="F3">
+        <v>0.99236491213732603</v>
+      </c>
+      <c r="G3">
+        <v>0.972673001913549</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>0.87965611374444497</v>
+      </c>
+      <c r="D4">
+        <v>0.81798543446142602</v>
+      </c>
+      <c r="F4">
+        <v>0.99129781289955099</v>
+      </c>
+      <c r="G4">
+        <v>0.97009669723345104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>0.87478997142508796</v>
+      </c>
+      <c r="D5">
+        <v>0.81248881443228504</v>
+      </c>
+      <c r="F5">
+        <v>0.99010152598909795</v>
+      </c>
+      <c r="G5">
+        <v>0.96730629125162304</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>0.86978549538925098</v>
+      </c>
+      <c r="D6">
+        <v>0.80683576036295701</v>
+      </c>
+      <c r="F6">
+        <v>0.98876311292850105</v>
+      </c>
+      <c r="G6">
+        <v>0.96428381840071797</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>0.86464023359589504</v>
+      </c>
+      <c r="D7">
+        <v>0.80101162171125795</v>
+      </c>
+      <c r="F7">
+        <v>0.98726854672489595</v>
+      </c>
+      <c r="G7">
+        <v>0.96100900613564899</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>0.85935105076045004</v>
+      </c>
+      <c r="D8">
+        <v>0.79499898115832102</v>
+      </c>
+      <c r="F8">
+        <v>0.98560256209517305</v>
+      </c>
+      <c r="G8">
+        <v>0.95745884964135897</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>0.85391377500168697</v>
+      </c>
+      <c r="D9">
+        <v>0.78877733674888195</v>
+      </c>
+      <c r="F9">
+        <v>0.983748449433546</v>
+      </c>
+      <c r="G9">
+        <v>0.953607137955229</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>0.84832271887492205</v>
+      </c>
+      <c r="D10">
+        <v>0.78232280120254505</v>
+      </c>
+      <c r="F10">
+        <v>0.98168777314862099</v>
+      </c>
+      <c r="G10">
+        <v>0.94942394312089196</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>42</v>
+      </c>
+      <c r="C11">
+        <v>0.84257004719413398</v>
+      </c>
+      <c r="D11">
+        <v>0.77560783464924499</v>
+      </c>
+      <c r="F11">
+        <v>0.97939999111432796</v>
+      </c>
+      <c r="G11">
+        <v>0.94487509130533798</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>0.83664496580709702</v>
+      </c>
+      <c r="D12">
+        <v>0.76860103042204997</v>
+      </c>
+      <c r="F12">
+        <v>0.97686194812128202</v>
+      </c>
+      <c r="G12">
+        <v>0.93992164247031196</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <v>0.83053271122955596</v>
+      </c>
+      <c r="D13">
+        <v>0.76126697703461199</v>
+      </c>
+      <c r="F13">
+        <v>0.974047213029123</v>
+      </c>
+      <c r="G13">
+        <v>0.93451941225459501</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>48</v>
+      </c>
+      <c r="C14">
+        <v>0.82421333151697795</v>
+      </c>
+      <c r="D14">
+        <v>0.75356622273558005</v>
+      </c>
+      <c r="F14">
+        <v>0.97092522815527704</v>
+      </c>
+      <c r="G14">
+        <v>0.92861857521669899</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>0.81766026428345595</v>
+      </c>
+      <c r="D15">
+        <v>0.74545537154283503</v>
+      </c>
+      <c r="F15">
+        <v>0.96746024256437402</v>
+      </c>
+      <c r="G15">
+        <v>0.92216339175283002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>0.81083873832120001</v>
+      </c>
+      <c r="D16">
+        <v>0.73688734073412199</v>
+      </c>
+      <c r="F16">
+        <v>0.96361001142880198</v>
+      </c>
+      <c r="G16">
+        <v>0.91509210157381904</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>54</v>
+      </c>
+      <c r="C17">
+        <v>0.80370405066399897</v>
+      </c>
+      <c r="D17">
+        <v>0.72781180864651296</v>
+      </c>
+      <c r="F17">
+        <v>0.95932426471427801</v>
+      </c>
+      <c r="G17">
+        <v>0.90733702496764301</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>56</v>
+      </c>
+      <c r="C18">
+        <v>0.79619980121399503</v>
+      </c>
+      <c r="D18">
+        <v>0.71817587760621504</v>
+      </c>
+      <c r="F18">
+        <v>0.95454298209138799</v>
+      </c>
+      <c r="G18">
+        <v>0.89882491014113197</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>58</v>
+      </c>
+      <c r="C19">
+        <v>0.78825620256628204</v>
+      </c>
+      <c r="D19">
+        <v>0.70792496938140004</v>
+      </c>
+      <c r="F19">
+        <v>0.94919455631652905</v>
+      </c>
+      <c r="G19">
+        <v>0.88947756193111205</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>60</v>
+      </c>
+      <c r="C20">
+        <v>0.77978862361196499</v>
+      </c>
+      <c r="D20">
+        <v>0.697003959621043</v>
+      </c>
+      <c r="F20">
+        <v>0.94319397944542305</v>
+      </c>
+      <c r="G20">
+        <v>0.87921278501177702</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>62</v>
+      </c>
+      <c r="C21">
+        <v>0.77069657064373398</v>
+      </c>
+      <c r="D21">
+        <v>0.68535854372803895</v>
+      </c>
+      <c r="F21">
+        <v>0.93644123637669796</v>
+      </c>
+      <c r="G21">
+        <v>0.86794567338977802</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>64</v>
+      </c>
+      <c r="C22">
+        <v>0.76086335453368603</v>
+      </c>
+      <c r="D22">
+        <v>0.67293681049777698</v>
+      </c>
+      <c r="F22">
+        <v>0.92882012800005098</v>
+      </c>
+      <c r="G22">
+        <v>0.85559027607237303</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>66</v>
+      </c>
+      <c r="C23">
+        <v>0.75015672772029596</v>
+      </c>
+      <c r="D23">
+        <v>0.65969098311674101</v>
+      </c>
+      <c r="F23">
+        <v>0.92019776358146499</v>
+      </c>
+      <c r="G23">
+        <v>0.842061663484721</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>68</v>
+      </c>
+      <c r="C24">
+        <v>0.73843078576328802</v>
+      </c>
+      <c r="D24">
+        <v>0.64557927155151895</v>
+      </c>
+      <c r="F24">
+        <v>0.91042495718202499</v>
+      </c>
+      <c r="G24">
+        <v>0.82727840678334497</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>70</v>
+      </c>
+      <c r="C25">
+        <v>0.72552939789802395</v>
+      </c>
+      <c r="D25">
+        <v>0.63056776777817103</v>
+      </c>
+      <c r="F25">
+        <v>0.89933774191474802</v>
+      </c>
+      <c r="G25">
+        <v>0.81116545919954597</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>72</v>
+      </c>
+      <c r="C26">
+        <v>0.71129134459906296</v>
+      </c>
+      <c r="D26">
+        <v>0.614632307199103</v>
+      </c>
+      <c r="F26">
+        <v>0.88676018952659497</v>
+      </c>
+      <c r="G26">
+        <v>0.79365739321750695</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>74</v>
+      </c>
+      <c r="C27">
+        <v>0.69555719225796897</v>
+      </c>
+      <c r="D27">
+        <v>0.59776021684278702</v>
+      </c>
+      <c r="F27">
+        <v>0.87250869918458696</v>
+      </c>
+      <c r="G27">
+        <v>0.77470190111847903</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>76</v>
+      </c>
+      <c r="C28">
+        <v>0.67817773567176698</v>
+      </c>
+      <c r="D28">
+        <v>0.57995187360176903</v>
+      </c>
+      <c r="F28">
+        <v>0.85639789462898597</v>
+      </c>
+      <c r="G28">
+        <v>0.75426341439443001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>78</v>
+      </c>
+      <c r="C29">
+        <v>0.65902361538079401</v>
+      </c>
+      <c r="D29">
+        <v>0.56122200306917303</v>
+      </c>
+      <c r="F29">
+        <v>0.83824822243761599</v>
+      </c>
+      <c r="G29">
+        <v>0.73232664837996198</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>80</v>
+      </c>
+      <c r="C30">
+        <v>0.63799550905491298</v>
+      </c>
+      <c r="D30">
+        <v>0.54160066006816499</v>
+      </c>
+      <c r="F30">
+        <v>0.81789524325857199</v>
+      </c>
+      <c r="G30">
+        <v>0.70889984261764905</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>82</v>
+      </c>
+      <c r="C31">
+        <v>0.61503414635549702</v>
+      </c>
+      <c r="D31">
+        <v>0.52113384401875995</v>
+      </c>
+      <c r="F31">
+        <v>0.79520042322644202</v>
+      </c>
+      <c r="G31">
+        <v>0.68401745464956498</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>84</v>
+      </c>
+      <c r="C32">
+        <v>0.59012933598450601</v>
+      </c>
+      <c r="D32">
+        <v>0.49988371427489298</v>
+      </c>
+      <c r="F32">
+        <v>0.770062960227613</v>
+      </c>
+      <c r="G32">
+        <v>0.65774208120073696</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>86</v>
+      </c>
+      <c r="C33">
+        <v>0.56332723096093196</v>
+      </c>
+      <c r="D33">
+        <v>0.47792838146352601</v>
+      </c>
+      <c r="F33">
+        <v>0.74243185704595405</v>
+      </c>
+      <c r="G33">
+        <v>0.63016542635748096</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>88</v>
+      </c>
+      <c r="C34">
+        <v>0.53473517780162305</v>
+      </c>
+      <c r="D34">
+        <v>0.45536126045528302</v>
+      </c>
+      <c r="F34">
+        <v>0.71231716069010098</v>
+      </c>
+      <c r="G34">
+        <v>0.601408205064207</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>90</v>
+      </c>
+      <c r="C35">
+        <v>0.50452366422462702</v>
+      </c>
+      <c r="D35">
+        <v>0.43228997953793502</v>
+      </c>
+      <c r="F35">
+        <v>0.67979912431283196</v>
+      </c>
+      <c r="G35">
+        <v>0.57161895041579802</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>92</v>
+      </c>
+      <c r="C36">
+        <v>0.47292506295952802</v>
+      </c>
+      <c r="D36">
+        <v>0.40883484993188901</v>
+      </c>
+      <c r="F36">
+        <v>0.64503409597330197</v>
+      </c>
+      <c r="G36">
+        <v>0.54097177070269298</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>94</v>
+      </c>
+      <c r="C37">
+        <v>0.44022904433473198</v>
+      </c>
+      <c r="D37">
+        <v>0.38512691146448702</v>
+      </c>
+      <c r="F37">
+        <v>0.60825621985600398</v>
+      </c>
+      <c r="G37">
+        <v>0.50966316425560998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>96</v>
+      </c>
+      <c r="C38">
+        <v>0.406774697306097</v>
+      </c>
+      <c r="D38">
+        <v>0.36130558514970301</v>
+      </c>
+      <c r="F38">
+        <v>0.56977449649731204</v>
+      </c>
+      <c r="G38">
+        <v>0.47790803907710699</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>98</v>
+      </c>
+      <c r="C39">
+        <v>0.372939575050869</v>
+      </c>
+      <c r="D39">
+        <v>0.33751598190104798</v>
+      </c>
+      <c r="F39">
+        <v>0.52996527322523401</v>
+      </c>
+      <c r="G39">
+        <v>0.44593509932220998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Results/table2latex.xlsx
+++ b/Results/table2latex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbueren\Google Drive\endo_health\metric_model\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F06FBCB-58B8-4933-8E8F-724A0D443AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F35B1F7-27E8-450B-94BB-98CFAE532938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D131852-BDAB-48D2-B0B4-24C9607E5D25}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="22">
   <si>
     <t>Protective</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>Gender gap</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -2370,10 +2379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F330EFCA-C7DF-4136-98BB-2504A28BB96C}">
-  <dimension ref="A2:Z55"/>
+  <dimension ref="A2:AA79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,16 +2408,16 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>0.31690000000000002</v>
+        <v>0.31209999999999999</v>
       </c>
       <c r="O2">
-        <v>25.008099999999999</v>
+        <v>49.377699999999997</v>
       </c>
       <c r="P2">
-        <v>13.766500000000001</v>
+        <v>34.940600000000003</v>
       </c>
       <c r="Q2">
-        <v>11.2416</v>
+        <v>14.437099999999999</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2425,16 +2434,16 @@
         <v>10.9596</v>
       </c>
       <c r="N3">
-        <v>0.36559999999999998</v>
+        <v>0.35170000000000001</v>
       </c>
       <c r="O3">
-        <v>24.328099999999999</v>
+        <v>47.992899999999999</v>
       </c>
       <c r="P3">
-        <v>13.805999999999999</v>
+        <v>33.748399999999997</v>
       </c>
       <c r="Q3">
-        <v>10.5221</v>
+        <v>14.244400000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2451,16 +2460,16 @@
         <v>5.7394999999999996</v>
       </c>
       <c r="N4">
-        <v>0.3175</v>
+        <v>0.33629999999999999</v>
       </c>
       <c r="O4">
-        <v>17.332000000000001</v>
+        <v>38.865099999999998</v>
       </c>
       <c r="P4">
-        <v>8.3427000000000007</v>
+        <v>25.6631</v>
       </c>
       <c r="Q4">
-        <v>8.9893000000000001</v>
+        <v>13.202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2480,16 +2489,16 @@
         <v>2</v>
       </c>
       <c r="N5">
-        <v>0.41949999999999998</v>
+        <v>0.40310000000000001</v>
       </c>
       <c r="O5">
-        <v>28.481100000000001</v>
+        <v>54.788600000000002</v>
       </c>
       <c r="P5">
-        <v>22.714700000000001</v>
+        <v>51.162500000000001</v>
       </c>
       <c r="Q5">
-        <v>5.7664</v>
+        <v>3.6261999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2506,16 +2515,16 @@
         <v>4.0126999999999997</v>
       </c>
       <c r="N6">
-        <v>0.3498</v>
+        <v>0.33779999999999999</v>
       </c>
       <c r="O6">
-        <v>26.412800000000001</v>
+        <v>52.133499999999998</v>
       </c>
       <c r="P6">
-        <v>20.542400000000001</v>
+        <v>48.357199999999999</v>
       </c>
       <c r="Q6">
-        <v>5.8704000000000001</v>
+        <v>3.7763</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2532,16 +2541,16 @@
         <v>3.3725999999999998</v>
       </c>
       <c r="N7">
-        <v>0.23069999999999999</v>
+        <v>0.2591</v>
       </c>
       <c r="O7">
-        <v>19.4742</v>
+        <v>43.467599999999997</v>
       </c>
       <c r="P7">
-        <v>13.426500000000001</v>
+        <v>38.609499999999997</v>
       </c>
       <c r="Q7">
-        <v>6.0477999999999996</v>
+        <v>4.8581000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2561,16 +2570,16 @@
         <v>3</v>
       </c>
       <c r="N8">
-        <v>0.59399999999999997</v>
+        <v>0.58860000000000001</v>
       </c>
       <c r="O8">
-        <v>31.970700000000001</v>
+        <v>58.179600000000001</v>
       </c>
       <c r="P8">
-        <v>28.560300000000002</v>
+        <v>56.46</v>
       </c>
       <c r="Q8">
-        <v>3.4104000000000001</v>
+        <v>1.7196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -2587,16 +2596,16 @@
         <v>13.2494</v>
       </c>
       <c r="N9">
-        <v>0.2959</v>
+        <v>0.30640000000000001</v>
       </c>
       <c r="O9">
-        <v>28.639199999999999</v>
+        <v>54.2149</v>
       </c>
       <c r="P9">
-        <v>25.039400000000001</v>
+        <v>52.385300000000001</v>
       </c>
       <c r="Q9">
-        <v>3.5998000000000001</v>
+        <v>1.8297000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -2613,16 +2622,16 @@
         <v>7.1492000000000004</v>
       </c>
       <c r="N10">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="O10">
-        <v>21.139399999999998</v>
+        <v>45.1599</v>
       </c>
       <c r="P10">
-        <v>16.001799999999999</v>
+        <v>41.6173</v>
       </c>
       <c r="Q10">
-        <v>5.1375999999999999</v>
+        <v>3.5426000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -2642,16 +2651,16 @@
         <v>4</v>
       </c>
       <c r="N11">
-        <v>0.3261</v>
+        <v>0.31890000000000002</v>
       </c>
       <c r="O11">
-        <v>28.5655</v>
+        <v>53.237400000000001</v>
       </c>
       <c r="P11">
-        <v>15.805199999999999</v>
+        <v>38.795499999999997</v>
       </c>
       <c r="Q11">
-        <v>12.760300000000001</v>
+        <v>14.4419</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -2668,16 +2677,16 @@
         <v>4.8164999999999996</v>
       </c>
       <c r="N12">
-        <v>0.42620000000000002</v>
+        <v>0.42080000000000001</v>
       </c>
       <c r="O12">
-        <v>26.9572</v>
+        <v>50.367899999999999</v>
       </c>
       <c r="P12">
-        <v>13.4663</v>
+        <v>28.1707</v>
       </c>
       <c r="Q12">
-        <v>13.4909</v>
+        <v>22.197199999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -2694,16 +2703,16 @@
         <v>4.1228999999999996</v>
       </c>
       <c r="N13">
-        <v>0.2477</v>
+        <v>0.26029999999999998</v>
       </c>
       <c r="O13">
-        <v>20.2</v>
+        <v>41.740400000000001</v>
       </c>
       <c r="P13">
-        <v>9.1082999999999998</v>
+        <v>23.6724</v>
       </c>
       <c r="Q13">
-        <v>11.091699999999999</v>
+        <v>18.068000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2711,16 +2720,16 @@
         <v>5</v>
       </c>
       <c r="N14">
-        <v>0.46939999999999998</v>
+        <v>0.45679999999999998</v>
       </c>
       <c r="O14">
-        <v>32.050800000000002</v>
+        <v>58.323399999999999</v>
       </c>
       <c r="P14">
-        <v>25.586099999999998</v>
+        <v>54.526299999999999</v>
       </c>
       <c r="Q14">
-        <v>6.4648000000000003</v>
+        <v>3.7970999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2728,16 +2737,16 @@
         <v>5</v>
       </c>
       <c r="N15">
-        <v>0.33300000000000002</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="O15">
-        <v>28.888400000000001</v>
+        <v>54.644300000000001</v>
       </c>
       <c r="P15">
-        <v>21.369499999999999</v>
+        <v>48.878100000000003</v>
       </c>
       <c r="Q15">
-        <v>7.5187999999999997</v>
+        <v>5.7662000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -2777,19 +2786,19 @@
       </c>
       <c r="M16" s="1"/>
       <c r="N16">
-        <v>0.19750000000000001</v>
+        <v>0.2122</v>
       </c>
       <c r="O16">
-        <v>22.4008</v>
+        <v>46.973300000000002</v>
       </c>
       <c r="P16">
-        <v>14.7865</v>
+        <v>39.563600000000001</v>
       </c>
       <c r="Q16">
-        <v>7.6143000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+        <v>7.4097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2828,19 +2837,19 @@
         <v>6</v>
       </c>
       <c r="N17">
-        <v>0.60950000000000004</v>
+        <v>0.59130000000000005</v>
       </c>
       <c r="O17">
-        <v>35.132399999999997</v>
+        <v>61.4101</v>
       </c>
       <c r="P17">
-        <v>31.247</v>
+        <v>59.751600000000003</v>
       </c>
       <c r="Q17">
-        <v>3.8854000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1.6585000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2875,19 +2884,19 @@
         <v>4</v>
       </c>
       <c r="N18">
-        <v>0.29299999999999998</v>
+        <v>0.31119999999999998</v>
       </c>
       <c r="O18">
-        <v>30.9252</v>
+        <v>56.964500000000001</v>
       </c>
       <c r="P18">
-        <v>26.046600000000002</v>
+        <v>54.188600000000001</v>
       </c>
       <c r="Q18">
-        <v>4.8785999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+        <v>2.7759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2900,16 +2909,16 @@
         <v>9.7500000000000003E-2</v>
       </c>
       <c r="O19">
-        <v>24.590199999999999</v>
+        <v>49.1693</v>
       </c>
       <c r="P19">
-        <v>18.62</v>
+        <v>43.789299999999997</v>
       </c>
       <c r="Q19">
-        <v>5.9702000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -2945,7 +2954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2981,7 +2990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -3016,7 +3025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -3026,7 +3035,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -3061,8 +3070,9 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3103,11 +3113,11 @@
       <c r="Y25" t="s">
         <v>16</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -3149,42 +3159,46 @@
       </c>
       <c r="P26" s="2">
         <f>N2*100</f>
-        <v>31.69</v>
+        <v>31.209999999999997</v>
       </c>
       <c r="Q26" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="2">
         <f>O2</f>
-        <v>25.008099999999999</v>
+        <v>49.377699999999997</v>
       </c>
       <c r="S26" t="s">
         <v>9</v>
       </c>
       <c r="T26" s="2">
         <f>P2</f>
-        <v>13.766500000000001</v>
+        <v>34.940600000000003</v>
       </c>
       <c r="U26" t="s">
         <v>9</v>
       </c>
       <c r="V26" s="2">
         <f>Q2</f>
-        <v>11.2416</v>
+        <v>14.437099999999999</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y26" s="2">
         <f>$R26*$P36/100</f>
-        <v>14.854811399999999</v>
+        <v>29.063714219999998</v>
       </c>
       <c r="Z26" s="2">
+        <f>$V26*$P36/100</f>
+        <v>8.4976770599999991</v>
+      </c>
+      <c r="AA26" s="2">
         <f>$R26*$P41/100</f>
-        <v>8.1551414100000006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+        <v>15.74654853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -3201,42 +3215,46 @@
       </c>
       <c r="P27" s="2">
         <f t="shared" ref="P27:P28" si="0">N3*100</f>
-        <v>36.559999999999995</v>
+        <v>35.17</v>
       </c>
       <c r="Q27" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" ref="R27:R28" si="1">O3</f>
-        <v>24.328099999999999</v>
+        <v>47.992899999999999</v>
       </c>
       <c r="S27" t="s">
         <v>9</v>
       </c>
       <c r="T27" s="2">
         <f t="shared" ref="T27:T28" si="2">P3</f>
-        <v>13.805999999999999</v>
+        <v>33.748399999999997</v>
       </c>
       <c r="U27" t="s">
         <v>9</v>
       </c>
       <c r="V27" s="2">
         <f t="shared" ref="V27:V28" si="3">Q3</f>
-        <v>10.5221</v>
+        <v>14.244400000000001</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y27" s="2">
-        <f t="shared" ref="Y27" si="4">$R27*$P37/100</f>
-        <v>7.1986847899999997</v>
+        <f t="shared" ref="Y27:Z27" si="4">$R27*$P37/100</f>
+        <v>14.70502456</v>
       </c>
       <c r="Z27" s="2">
-        <f t="shared" ref="Z27:Z28" si="5">$R27*$P42/100</f>
-        <v>10.368636220000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Z27:Z28" si="5">$V27*$P37/100</f>
+        <v>4.3644841599999999</v>
+      </c>
+      <c r="AA27" s="2">
+        <f t="shared" ref="AA27:AA28" si="6">$R27*$P42/100</f>
+        <v>20.195412319999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -3279,42 +3297,46 @@
       </c>
       <c r="P28" s="2">
         <f t="shared" si="0"/>
-        <v>31.75</v>
+        <v>33.629999999999995</v>
       </c>
       <c r="Q28" t="s">
         <v>3</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="1"/>
-        <v>17.332000000000001</v>
+        <v>38.865099999999998</v>
       </c>
       <c r="S28" t="s">
         <v>9</v>
       </c>
       <c r="T28" s="2">
         <f t="shared" si="2"/>
-        <v>8.3427000000000007</v>
+        <v>25.6631</v>
       </c>
       <c r="U28" t="s">
         <v>9</v>
       </c>
       <c r="V28" s="2">
         <f t="shared" si="3"/>
-        <v>8.9893000000000001</v>
+        <v>13.202</v>
       </c>
       <c r="W28" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y28" s="2">
-        <f t="shared" ref="Y28" si="6">$R28*$P38/100</f>
-        <v>1.9065200000000002</v>
+        <f t="shared" ref="Y28:Z28" si="7">$R28*$P38/100</f>
+        <v>4.0808355000000001</v>
       </c>
       <c r="Z28" s="2">
         <f t="shared" si="5"/>
-        <v>4.2931363999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1.3862100000000002</v>
+      </c>
+      <c r="AA28" s="2">
+        <f t="shared" si="6"/>
+        <v>10.116585529999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -3363,35 +3385,39 @@
       </c>
       <c r="R29" s="2">
         <f>(R26*$P26+R28*$P27+R27*$P28)/100</f>
-        <v>21.985817839999999</v>
+        <v>45.219648110000001</v>
       </c>
       <c r="S29" t="s">
         <v>9</v>
       </c>
       <c r="T29" s="2">
         <f>(T26*$P26+T28*$P27+T27*$P28)/100</f>
-        <v>11.79609997</v>
+        <v>31.280260449999997</v>
       </c>
       <c r="U29" t="s">
         <v>9</v>
       </c>
       <c r="V29" s="2">
         <f>(V26*$P26+V28*$P27+V27*$P28)/100</f>
-        <v>10.189717869999999</v>
+        <v>13.939354029999999</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y29" s="2">
         <f>SUM(Y26:Y28)</f>
-        <v>23.960016189999997</v>
+        <v>47.849574279999999</v>
       </c>
       <c r="Z29" s="2">
         <f>SUM(Z26:Z28)</f>
-        <v>22.81691403</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+        <v>14.248371219999999</v>
+      </c>
+      <c r="AA29" s="2">
+        <f>SUM(AA26:AA28)</f>
+        <v>46.058546379999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -3434,12 +3460,13 @@
       <c r="V30" s="2"/>
       <c r="W30" s="3"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="5">
-        <f>(Z29-R29)/(R44-R29)</f>
-        <v>0.31770580342139487</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="5">
+        <f>(AA29-R29)/(R44-R29)</f>
+        <v>0.34481646601203081</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -3456,39 +3483,40 @@
       </c>
       <c r="P31" s="2">
         <f>N5*100</f>
-        <v>41.949999999999996</v>
+        <v>40.31</v>
       </c>
       <c r="Q31" t="s">
         <v>3</v>
       </c>
       <c r="R31" s="2">
         <f>O5</f>
-        <v>28.481100000000001</v>
+        <v>54.788600000000002</v>
       </c>
       <c r="S31" t="s">
         <v>9</v>
       </c>
       <c r="T31" s="2">
         <f>P5</f>
-        <v>22.714700000000001</v>
+        <v>51.162500000000001</v>
       </c>
       <c r="U31" t="s">
         <v>9</v>
       </c>
       <c r="V31" s="2">
         <f>Q5</f>
-        <v>5.7664</v>
+        <v>3.6261999999999999</v>
       </c>
       <c r="W31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y31" s="2"/>
-      <c r="Z31" s="2">
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2">
         <f>$R31*$P46/100</f>
-        <v>13.36902834</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+        <v>25.027432480000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -3530,40 +3558,41 @@
         <v>3</v>
       </c>
       <c r="P32" s="2">
-        <f t="shared" ref="P32:P33" si="7">N6*100</f>
-        <v>34.979999999999997</v>
+        <f t="shared" ref="P32:P33" si="8">N6*100</f>
+        <v>33.78</v>
       </c>
       <c r="Q32" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" ref="R32:R33" si="8">O6</f>
-        <v>26.412800000000001</v>
+        <f t="shared" ref="R32:R33" si="9">O6</f>
+        <v>52.133499999999998</v>
       </c>
       <c r="S32" t="s">
         <v>9</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" ref="T32:T33" si="9">P6</f>
-        <v>20.542400000000001</v>
+        <f t="shared" ref="T32:T33" si="10">P6</f>
+        <v>48.357199999999999</v>
       </c>
       <c r="U32" t="s">
         <v>9</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" ref="V32:V33" si="10">Q6</f>
-        <v>5.8704000000000001</v>
+        <f t="shared" ref="V32:V33" si="11">Q6</f>
+        <v>3.7763</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="2">
-        <f t="shared" ref="Z32:Z33" si="11">$R32*$P47/100</f>
-        <v>8.7954624000000017</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2">
+        <f t="shared" ref="AA32:AA33" si="12">$R32*$P47/100</f>
+        <v>17.2561885</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -3605,40 +3634,41 @@
         <v>3</v>
       </c>
       <c r="P33" s="2">
-        <f t="shared" si="7"/>
-        <v>23.07</v>
+        <f t="shared" si="8"/>
+        <v>25.91</v>
       </c>
       <c r="Q33" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="8"/>
-        <v>19.4742</v>
+        <f t="shared" si="9"/>
+        <v>43.467599999999997</v>
       </c>
       <c r="S33" t="s">
         <v>9</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" si="9"/>
-        <v>13.426500000000001</v>
+        <f t="shared" si="10"/>
+        <v>38.609499999999997</v>
       </c>
       <c r="U33" t="s">
         <v>9</v>
       </c>
       <c r="V33" s="2">
-        <f t="shared" si="10"/>
-        <v>6.0477999999999996</v>
+        <f t="shared" si="11"/>
+        <v>4.8581000000000003</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y33" s="2"/>
-      <c r="Z33" s="2">
-        <f t="shared" si="11"/>
-        <v>3.8461544999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2">
+        <f t="shared" si="12"/>
+        <v>9.2238247199999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -3686,32 +3716,33 @@
       </c>
       <c r="R34" s="2">
         <f>(R31*$P31+R33*$P32+R32*$P33)/100</f>
-        <v>24.853329569999996</v>
+        <v>50.276429790000002</v>
       </c>
       <c r="S34" t="s">
         <v>9</v>
       </c>
       <c r="T34" s="2">
         <f>(T31*$P31+T33*$P32+T32*$P33)/100</f>
-        <v>18.96453803</v>
+        <v>46.19524337</v>
       </c>
       <c r="U34" t="s">
         <v>9</v>
       </c>
       <c r="V34" s="2">
         <f>(V31*$P31+V33*$P32+V32*$P33)/100</f>
-        <v>5.8888265199999985</v>
+        <v>4.08122673</v>
       </c>
       <c r="W34" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y34" s="2"/>
-      <c r="Z34" s="2">
-        <f>SUM(Z31:Z33)</f>
-        <v>26.010645240000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2">
+        <f>SUM(AA31:AA33)</f>
+        <v>51.507445700000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -3729,12 +3760,13 @@
       <c r="V35" s="2"/>
       <c r="W35" s="3"/>
       <c r="Y35" s="2"/>
-      <c r="Z35" s="5">
-        <f>(Z34-R34)/(R49-R34)</f>
-        <v>0.34482492446498325</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="5">
+        <f>(AA34-R34)/(R49-R34)</f>
+        <v>0.35077853548856591</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -3777,39 +3809,40 @@
       </c>
       <c r="P36" s="2">
         <f>N8*100</f>
-        <v>59.4</v>
+        <v>58.86</v>
       </c>
       <c r="Q36" t="s">
         <v>3</v>
       </c>
       <c r="R36" s="2">
         <f>O8</f>
-        <v>31.970700000000001</v>
+        <v>58.179600000000001</v>
       </c>
       <c r="S36" t="s">
         <v>9</v>
       </c>
       <c r="T36" s="2">
         <f>P8</f>
-        <v>28.560300000000002</v>
+        <v>56.46</v>
       </c>
       <c r="U36" t="s">
         <v>9</v>
       </c>
       <c r="V36" s="2">
         <f>Q8</f>
-        <v>3.4104000000000001</v>
+        <v>1.7196</v>
       </c>
       <c r="W36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y36" s="2"/>
-      <c r="Z36" s="2">
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2">
         <f>$R36*$P51/100</f>
-        <v>19.48614165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+        <v>34.40159748</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -3851,40 +3884,41 @@
         <v>3</v>
       </c>
       <c r="P37" s="2">
-        <f t="shared" ref="P37:P38" si="12">N9*100</f>
-        <v>29.59</v>
+        <f t="shared" ref="P37:P38" si="13">N9*100</f>
+        <v>30.64</v>
       </c>
       <c r="Q37" t="s">
         <v>3</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" ref="R37:R38" si="13">O9</f>
-        <v>28.639199999999999</v>
+        <f t="shared" ref="R37:R38" si="14">O9</f>
+        <v>54.2149</v>
       </c>
       <c r="S37" t="s">
         <v>9</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" ref="T37:T38" si="14">P9</f>
-        <v>25.039400000000001</v>
+        <f t="shared" ref="T37:T38" si="15">P9</f>
+        <v>52.385300000000001</v>
       </c>
       <c r="U37" t="s">
         <v>9</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" ref="V37:V38" si="15">Q9</f>
-        <v>3.5998000000000001</v>
+        <f t="shared" ref="V37:V38" si="16">Q9</f>
+        <v>1.8297000000000001</v>
       </c>
       <c r="W37" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y37" s="2"/>
-      <c r="Z37" s="2">
-        <f t="shared" ref="Z37:Z38" si="16">$R37*$P52/100</f>
-        <v>8.391285599999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2">
+        <f t="shared" ref="AA37:AA38" si="17">$R37*$P52/100</f>
+        <v>16.871676879999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -3925,40 +3959,41 @@
         <v>3</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" si="13"/>
+        <v>10.5</v>
       </c>
       <c r="Q38" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="13"/>
-        <v>21.139399999999998</v>
+        <f t="shared" si="14"/>
+        <v>45.1599</v>
       </c>
       <c r="S38" t="s">
         <v>9</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" si="14"/>
-        <v>16.001799999999999</v>
+        <f t="shared" si="15"/>
+        <v>41.6173</v>
       </c>
       <c r="U38" t="s">
         <v>9</v>
       </c>
       <c r="V38" s="2">
-        <f t="shared" si="15"/>
-        <v>5.1375999999999999</v>
+        <f t="shared" si="16"/>
+        <v>3.5426000000000002</v>
       </c>
       <c r="W38" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="2">
-        <f t="shared" si="16"/>
-        <v>2.0610914999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2">
+        <f t="shared" si="17"/>
+        <v>4.40309025</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="N39" t="s">
         <v>2</v>
       </c>
@@ -3973,32 +4008,33 @@
       </c>
       <c r="R39" s="2">
         <f>(R36*$P36+R38*$P37+R37*$P38)/100</f>
-        <v>28.396056260000002</v>
+        <v>53.774070420000001</v>
       </c>
       <c r="S39" t="s">
         <v>9</v>
       </c>
       <c r="T39" s="2">
         <f>(T36*$P36+T38*$P37+T37*$P38)/100</f>
-        <v>24.454084819999999</v>
+        <v>51.484353220000003</v>
       </c>
       <c r="U39" t="s">
         <v>9</v>
       </c>
       <c r="V39" s="2">
         <f>(V36*$P36+V38*$P37+V37*$P38)/100</f>
-        <v>3.9419714399999997</v>
+        <v>2.2897276999999998</v>
       </c>
       <c r="W39" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y39" s="2"/>
-      <c r="Z39" s="2">
-        <f>SUM(Z36:Z38)</f>
-        <v>29.938518749999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2">
+        <f>SUM(AA36:AA38)</f>
+        <v>55.67636461</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="N40" t="s">
         <v>7</v>
       </c>
@@ -4009,14 +4045,15 @@
       <c r="W40" s="3"/>
       <c r="Y40" s="5">
         <f>(Y29-R29)/(R39-R29)</f>
-        <v>0.30797580692794224</v>
-      </c>
-      <c r="Z40" s="5">
-        <f>(Z39-R39)/(R54-R39)</f>
-        <v>0.47646908908144842</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0.30743468988264122</v>
+      </c>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5">
+        <f>(AA39-R39)/(R54-R39)</f>
+        <v>0.56061182785470498</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="N41" t="s">
         <v>0</v>
       </c>
@@ -4025,39 +4062,40 @@
       </c>
       <c r="P41" s="2">
         <f>N11*100</f>
-        <v>32.61</v>
+        <v>31.89</v>
       </c>
       <c r="Q41" t="s">
         <v>3</v>
       </c>
       <c r="R41" s="2">
         <f>O11</f>
-        <v>28.5655</v>
+        <v>53.237400000000001</v>
       </c>
       <c r="S41" t="s">
         <v>9</v>
       </c>
       <c r="T41" s="2">
         <f>P11</f>
-        <v>15.805199999999999</v>
+        <v>38.795499999999997</v>
       </c>
       <c r="U41" t="s">
         <v>9</v>
       </c>
       <c r="V41" s="2">
         <f>Q11</f>
-        <v>12.760300000000001</v>
+        <v>14.4419</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y41" s="2">
         <f>R41*P51/100</f>
-        <v>17.410672250000001</v>
+        <v>31.479274620000002</v>
       </c>
       <c r="Z41" s="2"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA41" s="2"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="N42" t="s">
         <v>1</v>
       </c>
@@ -4065,40 +4103,41 @@
         <v>3</v>
       </c>
       <c r="P42" s="2">
-        <f t="shared" ref="P42:P43" si="17">N12*100</f>
-        <v>42.620000000000005</v>
+        <f t="shared" ref="P42:P43" si="18">N12*100</f>
+        <v>42.08</v>
       </c>
       <c r="Q42" t="s">
         <v>3</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" ref="R42:R43" si="18">O12</f>
-        <v>26.9572</v>
+        <f t="shared" ref="R42:R43" si="19">O12</f>
+        <v>50.367899999999999</v>
       </c>
       <c r="S42" t="s">
         <v>9</v>
       </c>
       <c r="T42" s="2">
-        <f t="shared" ref="T42:T43" si="19">P12</f>
-        <v>13.4663</v>
+        <f t="shared" ref="T42:T43" si="20">P12</f>
+        <v>28.1707</v>
       </c>
       <c r="U42" t="s">
         <v>9</v>
       </c>
       <c r="V42" s="2">
-        <f t="shared" ref="V42:V43" si="20">Q12</f>
-        <v>13.4909</v>
+        <f t="shared" ref="V42:V43" si="21">Q12</f>
+        <v>22.197199999999999</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y42" s="2">
-        <f t="shared" ref="Y42:Y43" si="21">R42*P52/100</f>
-        <v>7.8984595999999989</v>
+        <f t="shared" ref="Y42:Y43" si="22">R42*P52/100</f>
+        <v>15.674490479999998</v>
       </c>
       <c r="Z42" s="2"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA42" s="2"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="N43" s="1" t="s">
         <v>13</v>
       </c>
@@ -4106,40 +4145,41 @@
         <v>3</v>
       </c>
       <c r="P43" s="2">
-        <f t="shared" si="17"/>
-        <v>24.77</v>
+        <f t="shared" si="18"/>
+        <v>26.029999999999998</v>
       </c>
       <c r="Q43" t="s">
         <v>3</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="18"/>
-        <v>20.2</v>
+        <f t="shared" si="19"/>
+        <v>41.740400000000001</v>
       </c>
       <c r="S43" t="s">
         <v>9</v>
       </c>
       <c r="T43" s="2">
-        <f t="shared" si="19"/>
-        <v>9.1082999999999998</v>
+        <f t="shared" si="20"/>
+        <v>23.6724</v>
       </c>
       <c r="U43" t="s">
         <v>9</v>
       </c>
       <c r="V43" s="2">
-        <f t="shared" si="20"/>
-        <v>11.091699999999999</v>
+        <f t="shared" si="21"/>
+        <v>18.068000000000001</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y43" s="2">
-        <f t="shared" si="21"/>
-        <v>1.9694999999999998</v>
+        <f t="shared" si="22"/>
+        <v>4.0696890000000003</v>
       </c>
       <c r="Z43" s="2"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA43" s="2"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="N44" t="s">
         <v>2</v>
       </c>
@@ -4154,35 +4194,36 @@
       </c>
       <c r="R44" s="2">
         <f>(R41*$P41+R43*$P42+R42*$P43)/100</f>
-        <v>24.60174799</v>
+        <v>47.652531550000006</v>
       </c>
       <c r="S44" t="s">
         <v>9</v>
       </c>
       <c r="T44" s="2">
         <f>(T41*$P41+T43*$P42+T42*$P43)/100</f>
-        <v>12.371635689999998</v>
+        <v>29.666064079999998</v>
       </c>
       <c r="U44" t="s">
         <v>9</v>
       </c>
       <c r="V44" s="2">
         <f>(V41*$P41+V43*$P42+V42*$P43)/100</f>
-        <v>12.2301123</v>
+        <v>17.986467469999997</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y44" s="2">
         <f>SUM(Y41:Y43)</f>
-        <v>27.27863185</v>
-      </c>
-      <c r="Z44" s="2">
+        <v>51.223454099999998</v>
+      </c>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2">
         <f>Y44-R44</f>
-        <v>2.6768838600000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+        <v>3.5709225499999917</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="N45" t="s">
         <v>11</v>
       </c>
@@ -4192,7 +4233,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="3"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="N46" t="s">
         <v>0</v>
       </c>
@@ -4201,34 +4242,34 @@
       </c>
       <c r="P46" s="2">
         <f>N14*100</f>
-        <v>46.94</v>
+        <v>45.68</v>
       </c>
       <c r="Q46" t="s">
         <v>3</v>
       </c>
       <c r="R46" s="2">
         <f>O14</f>
-        <v>32.050800000000002</v>
+        <v>58.323399999999999</v>
       </c>
       <c r="S46" t="s">
         <v>9</v>
       </c>
       <c r="T46" s="2">
         <f>P14</f>
-        <v>25.586099999999998</v>
+        <v>54.526299999999999</v>
       </c>
       <c r="U46" t="s">
         <v>9</v>
       </c>
       <c r="V46" s="2">
         <f>Q14</f>
-        <v>6.4648000000000003</v>
+        <v>3.7970999999999999</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="N47" t="s">
         <v>1</v>
       </c>
@@ -4236,35 +4277,35 @@
         <v>3</v>
       </c>
       <c r="P47" s="2">
-        <f t="shared" ref="P47:P48" si="22">N15*100</f>
-        <v>33.300000000000004</v>
+        <f t="shared" ref="P47:P48" si="23">N15*100</f>
+        <v>33.1</v>
       </c>
       <c r="Q47" t="s">
         <v>3</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" ref="R47:R48" si="23">O15</f>
-        <v>28.888400000000001</v>
+        <f t="shared" ref="R47:R48" si="24">O15</f>
+        <v>54.644300000000001</v>
       </c>
       <c r="S47" t="s">
         <v>9</v>
       </c>
       <c r="T47" s="2">
-        <f t="shared" ref="T47:T48" si="24">P15</f>
-        <v>21.369499999999999</v>
+        <f t="shared" ref="T47:T48" si="25">P15</f>
+        <v>48.878100000000003</v>
       </c>
       <c r="U47" t="s">
         <v>9</v>
       </c>
       <c r="V47" s="2">
-        <f t="shared" ref="V47:V48" si="25">Q15</f>
-        <v>7.5187999999999997</v>
+        <f t="shared" ref="V47:V48" si="26">Q15</f>
+        <v>5.7662000000000004</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="N48" s="1" t="s">
         <v>13</v>
       </c>
@@ -4272,35 +4313,35 @@
         <v>3</v>
       </c>
       <c r="P48" s="2">
-        <f t="shared" si="22"/>
-        <v>19.75</v>
+        <f t="shared" si="23"/>
+        <v>21.22</v>
       </c>
       <c r="Q48" t="s">
         <v>3</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" si="23"/>
-        <v>22.4008</v>
+        <f t="shared" si="24"/>
+        <v>46.973300000000002</v>
       </c>
       <c r="S48" t="s">
         <v>9</v>
       </c>
       <c r="T48" s="2">
-        <f t="shared" si="24"/>
-        <v>14.7865</v>
+        <f t="shared" si="25"/>
+        <v>39.563600000000001</v>
       </c>
       <c r="U48" t="s">
         <v>9</v>
       </c>
       <c r="V48" s="2">
-        <f t="shared" si="25"/>
-        <v>7.6143000000000001</v>
+        <f t="shared" si="26"/>
+        <v>7.4097</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="14:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:26" x14ac:dyDescent="0.25">
       <c r="N49" t="s">
         <v>2</v>
       </c>
@@ -4315,27 +4356,27 @@
       </c>
       <c r="R49" s="2">
         <f>(R46*$P46+R48*$P47+R47*$P48)/100</f>
-        <v>28.209570920000004</v>
+        <v>53.785811880000004</v>
       </c>
       <c r="S49" t="s">
         <v>9</v>
       </c>
       <c r="T49" s="2">
         <f>(T46*$P46+T48*$P47+T47*$P48)/100</f>
-        <v>21.154496089999999</v>
+        <v>48.375098260000001</v>
       </c>
       <c r="U49" t="s">
         <v>9</v>
       </c>
       <c r="V49" s="2">
         <f>(V46*$P46+V48*$P47+V47*$P48)/100</f>
-        <v>7.0551020200000005</v>
+        <v>5.4107136200000001</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="14:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:26" x14ac:dyDescent="0.25">
       <c r="N50" t="s">
         <v>8</v>
       </c>
@@ -4345,7 +4386,7 @@
       <c r="V50" s="2"/>
       <c r="W50" s="3"/>
     </row>
-    <row r="51" spans="14:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:26" x14ac:dyDescent="0.25">
       <c r="N51" t="s">
         <v>0</v>
       </c>
@@ -4354,34 +4395,34 @@
       </c>
       <c r="P51" s="2">
         <f>N17*100</f>
-        <v>60.95</v>
+        <v>59.13</v>
       </c>
       <c r="Q51" t="s">
         <v>3</v>
       </c>
       <c r="R51" s="2">
         <f>O17</f>
-        <v>35.132399999999997</v>
+        <v>61.4101</v>
       </c>
       <c r="S51" t="s">
         <v>9</v>
       </c>
       <c r="T51" s="2">
         <f>P17</f>
-        <v>31.247</v>
+        <v>59.751600000000003</v>
       </c>
       <c r="U51" t="s">
         <v>9</v>
       </c>
       <c r="V51" s="2">
         <f>Q17</f>
-        <v>3.8854000000000002</v>
+        <v>1.6585000000000001</v>
       </c>
       <c r="W51" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="14:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:26" x14ac:dyDescent="0.25">
       <c r="N52" t="s">
         <v>1</v>
       </c>
@@ -4389,35 +4430,35 @@
         <v>3</v>
       </c>
       <c r="P52" s="2">
-        <f t="shared" ref="P52:P53" si="26">N18*100</f>
-        <v>29.299999999999997</v>
+        <f t="shared" ref="P52:P53" si="27">N18*100</f>
+        <v>31.119999999999997</v>
       </c>
       <c r="Q52" t="s">
         <v>3</v>
       </c>
       <c r="R52" s="2">
-        <f t="shared" ref="R52:R53" si="27">O18</f>
-        <v>30.9252</v>
+        <f t="shared" ref="R52:R53" si="28">O18</f>
+        <v>56.964500000000001</v>
       </c>
       <c r="S52" t="s">
         <v>9</v>
       </c>
       <c r="T52" s="2">
-        <f t="shared" ref="T52:T53" si="28">P18</f>
-        <v>26.046600000000002</v>
+        <f t="shared" ref="T52:T53" si="29">P18</f>
+        <v>54.188600000000001</v>
       </c>
       <c r="U52" t="s">
         <v>9</v>
       </c>
       <c r="V52" s="2">
-        <f t="shared" ref="V52:V53" si="29">Q18</f>
-        <v>4.8785999999999996</v>
+        <f t="shared" ref="V52:V53" si="30">Q18</f>
+        <v>2.7759</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="14:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:26" x14ac:dyDescent="0.25">
       <c r="N53" s="1" t="s">
         <v>13</v>
       </c>
@@ -4425,35 +4466,35 @@
         <v>3</v>
       </c>
       <c r="P53" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.75</v>
       </c>
       <c r="Q53" t="s">
         <v>3</v>
       </c>
       <c r="R53" s="2">
-        <f t="shared" si="27"/>
-        <v>24.590199999999999</v>
+        <f t="shared" si="28"/>
+        <v>49.1693</v>
       </c>
       <c r="S53" t="s">
         <v>9</v>
       </c>
       <c r="T53" s="2">
-        <f t="shared" si="28"/>
-        <v>18.62</v>
+        <f t="shared" si="29"/>
+        <v>43.789299999999997</v>
       </c>
       <c r="U53" t="s">
         <v>9</v>
       </c>
       <c r="V53" s="2">
-        <f t="shared" si="29"/>
-        <v>5.9702000000000002</v>
+        <f t="shared" si="30"/>
+        <v>5.38</v>
       </c>
       <c r="W53" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="14:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:26" x14ac:dyDescent="0.25">
       <c r="N54" t="s">
         <v>2</v>
       </c>
@@ -4468,30 +4509,307 @@
       </c>
       <c r="R54" s="2">
         <f>(R51*$P51+R53*$P52+R52*$P53)/100</f>
-        <v>31.633333399999998</v>
+        <v>57.16731704</v>
       </c>
       <c r="S54" t="s">
         <v>9</v>
       </c>
       <c r="T54" s="2">
         <f>(T51*$P51+T53*$P52+T52*$P53)/100</f>
-        <v>27.04025</v>
+        <v>54.24173974</v>
       </c>
       <c r="U54" t="s">
         <v>9</v>
       </c>
       <c r="V54" s="2">
         <f>(V51*$P51+V53*$P52+V52*$P53)/100</f>
-        <v>4.5930834000000003</v>
+        <v>2.9255773</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="14:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:26" x14ac:dyDescent="0.25">
       <c r="Y55" s="5">
         <f>(Y44-R44)/(R54-R44)</f>
-        <v>0.3806942110371096</v>
+        <v>0.37530247568408331</v>
+      </c>
+      <c r="Z55" s="5"/>
+    </row>
+    <row r="62" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62">
+        <v>0.31209999999999999</v>
+      </c>
+      <c r="I62">
+        <v>49.377699999999997</v>
+      </c>
+      <c r="J62">
+        <v>34.940600000000003</v>
+      </c>
+      <c r="K62">
+        <v>14.437099999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63">
+        <v>0.35170000000000001</v>
+      </c>
+      <c r="I63">
+        <v>47.992899999999999</v>
+      </c>
+      <c r="J63">
+        <v>33.748399999999997</v>
+      </c>
+      <c r="K63">
+        <v>14.244400000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64">
+        <v>0.33629999999999999</v>
+      </c>
+      <c r="I64">
+        <v>38.865099999999998</v>
+      </c>
+      <c r="J64">
+        <v>25.6631</v>
+      </c>
+      <c r="K64">
+        <v>13.202</v>
+      </c>
+    </row>
+    <row r="65" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65">
+        <v>0.40310000000000001</v>
+      </c>
+      <c r="I65">
+        <v>54.788600000000002</v>
+      </c>
+      <c r="J65">
+        <v>51.162500000000001</v>
+      </c>
+      <c r="K65">
+        <v>3.6261999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>0.33779999999999999</v>
+      </c>
+      <c r="I66">
+        <v>52.133499999999998</v>
+      </c>
+      <c r="J66">
+        <v>48.357199999999999</v>
+      </c>
+      <c r="K66">
+        <v>3.7763</v>
+      </c>
+    </row>
+    <row r="67" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>0.2591</v>
+      </c>
+      <c r="I67">
+        <v>43.467599999999997</v>
+      </c>
+      <c r="J67">
+        <v>38.609499999999997</v>
+      </c>
+      <c r="K67">
+        <v>4.8581000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68">
+        <v>0.58860000000000001</v>
+      </c>
+      <c r="I68">
+        <v>58.179600000000001</v>
+      </c>
+      <c r="J68">
+        <v>56.46</v>
+      </c>
+      <c r="K68">
+        <v>1.7196</v>
+      </c>
+    </row>
+    <row r="69" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <v>0.30640000000000001</v>
+      </c>
+      <c r="I69">
+        <v>54.2149</v>
+      </c>
+      <c r="J69">
+        <v>52.385300000000001</v>
+      </c>
+      <c r="K69">
+        <v>1.8297000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <v>0.105</v>
+      </c>
+      <c r="I70">
+        <v>45.1599</v>
+      </c>
+      <c r="J70">
+        <v>41.6173</v>
+      </c>
+      <c r="K70">
+        <v>3.5426000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71">
+        <v>0.31890000000000002</v>
+      </c>
+      <c r="I71">
+        <v>53.237400000000001</v>
+      </c>
+      <c r="J71">
+        <v>38.795499999999997</v>
+      </c>
+      <c r="K71">
+        <v>14.4419</v>
+      </c>
+    </row>
+    <row r="72" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <v>0.42080000000000001</v>
+      </c>
+      <c r="I72">
+        <v>50.367899999999999</v>
+      </c>
+      <c r="J72">
+        <v>28.1707</v>
+      </c>
+      <c r="K72">
+        <v>22.197199999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>0.26029999999999998</v>
+      </c>
+      <c r="I73">
+        <v>41.740400000000001</v>
+      </c>
+      <c r="J73">
+        <v>23.6724</v>
+      </c>
+      <c r="K73">
+        <v>18.068000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74">
+        <v>0.45679999999999998</v>
+      </c>
+      <c r="I74">
+        <v>58.323399999999999</v>
+      </c>
+      <c r="J74">
+        <v>54.526299999999999</v>
+      </c>
+      <c r="K74">
+        <v>3.7970999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="I75">
+        <v>54.644300000000001</v>
+      </c>
+      <c r="J75">
+        <v>48.878100000000003</v>
+      </c>
+      <c r="K75">
+        <v>5.7662000000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>0.2122</v>
+      </c>
+      <c r="I76">
+        <v>46.973300000000002</v>
+      </c>
+      <c r="J76">
+        <v>39.563600000000001</v>
+      </c>
+      <c r="K76">
+        <v>7.4097</v>
+      </c>
+    </row>
+    <row r="77" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77">
+        <v>0.59130000000000005</v>
+      </c>
+      <c r="I77">
+        <v>61.4101</v>
+      </c>
+      <c r="J77">
+        <v>59.751600000000003</v>
+      </c>
+      <c r="K77">
+        <v>1.6585000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>0.31119999999999998</v>
+      </c>
+      <c r="I78">
+        <v>56.964500000000001</v>
+      </c>
+      <c r="J78">
+        <v>54.188600000000001</v>
+      </c>
+      <c r="K78">
+        <v>2.7759</v>
+      </c>
+    </row>
+    <row r="79" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="I79">
+        <v>49.1693</v>
+      </c>
+      <c r="J79">
+        <v>43.789299999999997</v>
+      </c>
+      <c r="K79">
+        <v>5.38</v>
       </c>
     </row>
   </sheetData>

--- a/Results/table2latex.xlsx
+++ b/Results/table2latex.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbueren\Google Drive\endo_health\metric_model\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F35B1F7-27E8-450B-94BB-98CFAE532938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB67CD57-3EF5-4343-BF84-CE3092CB0335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D131852-BDAB-48D2-B0B4-24C9607E5D25}"/>
   </bookViews>
@@ -2381,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F330EFCA-C7DF-4136-98BB-2504A28BB96C}">
   <dimension ref="A2:AA79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,7 +2391,7 @@
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>58.622799999999998</v>
       </c>
@@ -2408,19 +2408,31 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>0.31209999999999999</v>
+        <v>0.323226862637365</v>
       </c>
       <c r="O2">
-        <v>49.377699999999997</v>
+        <v>26.002990164835101</v>
       </c>
       <c r="P2">
-        <v>34.940600000000003</v>
+        <v>16.778481153846101</v>
       </c>
       <c r="Q2">
-        <v>14.437099999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9.2245078571429104</v>
+      </c>
+      <c r="S2">
+        <v>0.3175</v>
+      </c>
+      <c r="T2">
+        <v>49.2074</v>
+      </c>
+      <c r="U2">
+        <v>34.167999999999999</v>
+      </c>
+      <c r="V2">
+        <v>15.039400000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>41.377200000000002</v>
       </c>
@@ -2434,19 +2446,31 @@
         <v>10.9596</v>
       </c>
       <c r="N3">
-        <v>0.35170000000000001</v>
+        <v>0.27198552747252702</v>
       </c>
       <c r="O3">
-        <v>47.992899999999999</v>
+        <v>27.6364087362637</v>
       </c>
       <c r="P3">
-        <v>33.748399999999997</v>
+        <v>15.753626978022</v>
       </c>
       <c r="Q3">
-        <v>14.244400000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>11.882786538461501</v>
+      </c>
+      <c r="S3">
+        <v>0.35909999999999997</v>
+      </c>
+      <c r="T3">
+        <v>48.141300000000001</v>
+      </c>
+      <c r="U3">
+        <v>34.216700000000003</v>
+      </c>
+      <c r="V3">
+        <v>13.9246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>53.551499999999997</v>
       </c>
@@ -2460,19 +2484,31 @@
         <v>5.7394999999999996</v>
       </c>
       <c r="N4">
-        <v>0.33629999999999999</v>
+        <v>0.40484999450549503</v>
       </c>
       <c r="O4">
-        <v>38.865099999999998</v>
+        <v>19.4361175274726</v>
       </c>
       <c r="P4">
-        <v>25.6631</v>
+        <v>10.355864450549401</v>
       </c>
       <c r="Q4">
-        <v>13.202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9.08025785714287</v>
+      </c>
+      <c r="S4">
+        <v>0.32329999999999998</v>
+      </c>
+      <c r="T4">
+        <v>38.2896</v>
+      </c>
+      <c r="U4">
+        <v>24.471699999999998</v>
+      </c>
+      <c r="V4">
+        <v>13.8179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>46.448500000000003</v>
       </c>
@@ -2489,19 +2525,31 @@
         <v>2</v>
       </c>
       <c r="N5">
-        <v>0.40310000000000001</v>
+        <v>0.44867259340660098</v>
       </c>
       <c r="O5">
-        <v>54.788600000000002</v>
+        <v>29.751482252747401</v>
       </c>
       <c r="P5">
-        <v>51.162500000000001</v>
+        <v>24.736379560439602</v>
       </c>
       <c r="Q5">
-        <v>3.6261999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5.0150987362637398</v>
+      </c>
+      <c r="S5">
+        <v>0.40229999999999999</v>
+      </c>
+      <c r="T5">
+        <v>54.549700000000001</v>
+      </c>
+      <c r="U5">
+        <v>50.585999999999999</v>
+      </c>
+      <c r="V5">
+        <v>3.9636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>38.905200000000001</v>
       </c>
@@ -2515,19 +2563,31 @@
         <v>4.0126999999999997</v>
       </c>
       <c r="N6">
-        <v>0.33779999999999999</v>
+        <v>0.32684497802198398</v>
       </c>
       <c r="O6">
-        <v>52.133499999999998</v>
+        <v>29.236308626373699</v>
       </c>
       <c r="P6">
-        <v>48.357199999999999</v>
+        <v>21.448840384615501</v>
       </c>
       <c r="Q6">
-        <v>3.7763</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7.7874637362636996</v>
+      </c>
+      <c r="S6">
+        <v>0.33679999999999999</v>
+      </c>
+      <c r="T6">
+        <v>52.172600000000003</v>
+      </c>
+      <c r="U6">
+        <v>48.761200000000002</v>
+      </c>
+      <c r="V6">
+        <v>3.4114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>61.094799999999999</v>
       </c>
@@ -2541,19 +2601,31 @@
         <v>3.3725999999999998</v>
       </c>
       <c r="N7">
-        <v>0.2591</v>
+        <v>0.22450110989011199</v>
       </c>
       <c r="O7">
-        <v>43.467599999999997</v>
+        <v>22.399367692307798</v>
       </c>
       <c r="P7">
-        <v>38.609499999999997</v>
+        <v>15.5382328021978</v>
       </c>
       <c r="Q7">
-        <v>4.8581000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6.8611341208791199</v>
+      </c>
+      <c r="S7">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="T7">
+        <v>43.298200000000001</v>
+      </c>
+      <c r="U7">
+        <v>38.500999999999998</v>
+      </c>
+      <c r="V7">
+        <v>4.7972999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>47.805999999999997</v>
       </c>
@@ -2570,19 +2642,31 @@
         <v>3</v>
       </c>
       <c r="N8">
-        <v>0.58860000000000001</v>
+        <v>0.62699996703296901</v>
       </c>
       <c r="O8">
-        <v>58.179600000000001</v>
+        <v>33.965528626373398</v>
       </c>
       <c r="P8">
-        <v>56.46</v>
+        <v>30.7062124175824</v>
       </c>
       <c r="Q8">
-        <v>1.7196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3.25932598901099</v>
+      </c>
+      <c r="S8">
+        <v>0.51880000000000004</v>
+      </c>
+      <c r="T8">
+        <v>58.150500000000001</v>
+      </c>
+      <c r="U8">
+        <v>56.375599999999999</v>
+      </c>
+      <c r="V8">
+        <v>1.7748999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>52.194000000000003</v>
       </c>
@@ -2596,19 +2680,31 @@
         <v>13.2494</v>
       </c>
       <c r="N9">
-        <v>0.30640000000000001</v>
+        <v>0.301572384615379</v>
       </c>
       <c r="O9">
-        <v>54.2149</v>
+        <v>32.944446043955999</v>
       </c>
       <c r="P9">
-        <v>52.385300000000001</v>
+        <v>27.252266208790999</v>
       </c>
       <c r="Q9">
-        <v>1.8297000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5.69218653846153</v>
+      </c>
+      <c r="S9">
+        <v>0.31509999999999999</v>
+      </c>
+      <c r="T9">
+        <v>54.444299999999998</v>
+      </c>
+      <c r="U9">
+        <v>52.740400000000001</v>
+      </c>
+      <c r="V9">
+        <v>1.7039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>42.770400000000002</v>
       </c>
@@ -2622,19 +2718,31 @@
         <v>7.1492000000000004</v>
       </c>
       <c r="N10">
-        <v>0.105</v>
+        <v>7.1451214285713993E-2</v>
       </c>
       <c r="O10">
-        <v>45.1599</v>
+        <v>24.337922747252801</v>
       </c>
       <c r="P10">
-        <v>41.6173</v>
+        <v>19.432082967033001</v>
       </c>
       <c r="Q10">
-        <v>3.5426000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4.9058423626373999</v>
+      </c>
+      <c r="S10">
+        <v>0.1661</v>
+      </c>
+      <c r="T10">
+        <v>44.556100000000001</v>
+      </c>
+      <c r="U10">
+        <v>41.113599999999998</v>
+      </c>
+      <c r="V10">
+        <v>3.4424999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>57.229599999999998</v>
       </c>
@@ -2651,19 +2759,19 @@
         <v>4</v>
       </c>
       <c r="N11">
-        <v>0.31890000000000002</v>
+        <v>0.27031317582417402</v>
       </c>
       <c r="O11">
-        <v>53.237400000000001</v>
+        <v>28.955930494505498</v>
       </c>
       <c r="P11">
-        <v>38.795499999999997</v>
+        <v>16.773797637362598</v>
       </c>
       <c r="Q11">
-        <v>14.4419</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>12.1821318131868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>34.584299999999999</v>
       </c>
@@ -2677,19 +2785,19 @@
         <v>4.8164999999999996</v>
       </c>
       <c r="N12">
-        <v>0.42080000000000001</v>
+        <v>0.39464753296703298</v>
       </c>
       <c r="O12">
-        <v>50.367899999999999</v>
+        <v>28.043124450549399</v>
       </c>
       <c r="P12">
-        <v>28.1707</v>
+        <v>12.714831263736199</v>
       </c>
       <c r="Q12">
-        <v>22.197199999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>15.328297362637301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>65.415700000000001</v>
       </c>
@@ -2703,53 +2811,53 @@
         <v>4.1228999999999996</v>
       </c>
       <c r="N13">
-        <v>0.26029999999999998</v>
+        <v>0.33510326923077199</v>
       </c>
       <c r="O13">
-        <v>41.740400000000001</v>
+        <v>21.915619890109799</v>
       </c>
       <c r="P13">
-        <v>23.6724</v>
+        <v>10.4639478571429</v>
       </c>
       <c r="Q13">
-        <v>18.068000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>11.451673351648299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M14">
         <v>5</v>
       </c>
       <c r="N14">
-        <v>0.45679999999999998</v>
+        <v>0.46675918681319101</v>
       </c>
       <c r="O14">
-        <v>58.323399999999999</v>
+        <v>33.428822307692201</v>
       </c>
       <c r="P14">
-        <v>54.526299999999999</v>
+        <v>27.794090769230898</v>
       </c>
       <c r="Q14">
-        <v>3.7970999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5.6347332417582203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="N15">
-        <v>0.33100000000000002</v>
+        <v>0.36368862087911302</v>
       </c>
       <c r="O15">
-        <v>54.644300000000001</v>
+        <v>31.9083990109892</v>
       </c>
       <c r="P15">
-        <v>48.878100000000003</v>
+        <v>22.670901153846199</v>
       </c>
       <c r="Q15">
-        <v>5.7662000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9.2374968681318901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2786,16 +2894,16 @@
       </c>
       <c r="M16" s="1"/>
       <c r="N16">
-        <v>0.2122</v>
+        <v>0.169529675824177</v>
       </c>
       <c r="O16">
-        <v>46.973300000000002</v>
+        <v>24.977691648351598</v>
       </c>
       <c r="P16">
-        <v>39.563600000000001</v>
+        <v>17.0396151098902</v>
       </c>
       <c r="Q16">
-        <v>7.4097</v>
+        <v>7.9380695054945498</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
@@ -2837,16 +2945,16 @@
         <v>6</v>
       </c>
       <c r="N17">
-        <v>0.59130000000000005</v>
+        <v>0.64865398901099303</v>
       </c>
       <c r="O17">
-        <v>61.4101</v>
+        <v>35.759991428571503</v>
       </c>
       <c r="P17">
-        <v>59.751600000000003</v>
+        <v>31.8261112087913</v>
       </c>
       <c r="Q17">
-        <v>1.6585000000000001</v>
+        <v>3.93388038461539</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
@@ -2884,16 +2992,16 @@
         <v>4</v>
       </c>
       <c r="N18">
-        <v>0.31119999999999998</v>
+        <v>0.29723368681318402</v>
       </c>
       <c r="O18">
-        <v>56.964500000000001</v>
+        <v>34.6640401648351</v>
       </c>
       <c r="P18">
-        <v>54.188600000000001</v>
+        <v>28.071757967033001</v>
       </c>
       <c r="Q18">
-        <v>2.7759</v>
+        <v>6.5922832967032896</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
@@ -2906,16 +3014,16 @@
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
       <c r="N19">
-        <v>9.7500000000000003E-2</v>
+        <v>5.4141565934066202E-2</v>
       </c>
       <c r="O19">
-        <v>49.1693</v>
+        <v>28.411639999999998</v>
       </c>
       <c r="P19">
-        <v>43.789299999999997</v>
+        <v>20.877174230769199</v>
       </c>
       <c r="Q19">
-        <v>5.38</v>
+        <v>7.5344614835164601</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -3159,43 +3267,44 @@
       </c>
       <c r="P26" s="2">
         <f>N2*100</f>
-        <v>31.209999999999997</v>
+        <v>32.3226862637365</v>
       </c>
       <c r="Q26" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="2">
         <f>O2</f>
-        <v>49.377699999999997</v>
+        <v>26.002990164835101</v>
       </c>
       <c r="S26" t="s">
         <v>9</v>
       </c>
       <c r="T26" s="2">
         <f>P2</f>
-        <v>34.940600000000003</v>
+        <v>16.778481153846101</v>
       </c>
       <c r="U26" t="s">
         <v>9</v>
       </c>
       <c r="V26" s="2">
         <f>Q2</f>
-        <v>14.437099999999999</v>
+        <v>9.2245078571429104</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="X26" s="2"/>
       <c r="Y26" s="2">
         <f>$R26*$P36/100</f>
-        <v>29.063714219999998</v>
+        <v>16.303873976110225</v>
       </c>
       <c r="Z26" s="2">
         <f>$V26*$P36/100</f>
-        <v>8.4976770599999991</v>
+        <v>5.7837661223239687</v>
       </c>
       <c r="AA26" s="2">
         <f>$R26*$P41/100</f>
-        <v>15.74654853</v>
+        <v>7.028950852381338</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
@@ -3214,44 +3323,45 @@
         <v>3</v>
       </c>
       <c r="P27" s="2">
-        <f t="shared" ref="P27:P28" si="0">N3*100</f>
-        <v>35.17</v>
+        <f>N3*100</f>
+        <v>27.198552747252702</v>
       </c>
       <c r="Q27" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" ref="R27:R28" si="1">O3</f>
-        <v>47.992899999999999</v>
+        <f>O3</f>
+        <v>27.6364087362637</v>
       </c>
       <c r="S27" t="s">
         <v>9</v>
       </c>
       <c r="T27" s="2">
-        <f t="shared" ref="T27:T28" si="2">P3</f>
-        <v>33.748399999999997</v>
+        <f>P3</f>
+        <v>15.753626978022</v>
       </c>
       <c r="U27" t="s">
         <v>9</v>
       </c>
       <c r="V27" s="2">
-        <f t="shared" ref="V27:V28" si="3">Q3</f>
-        <v>14.244400000000001</v>
+        <f>Q3</f>
+        <v>11.882786538461501</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="X27" s="2"/>
       <c r="Y27" s="2">
-        <f t="shared" ref="Y27:Z27" si="4">$R27*$P37/100</f>
-        <v>14.70502456</v>
+        <f t="shared" ref="Y27" si="0">$R27*$P37/100</f>
+        <v>8.3343776848003372</v>
       </c>
       <c r="Z27" s="2">
-        <f t="shared" ref="Z27:Z28" si="5">$V27*$P37/100</f>
-        <v>4.3644841599999999</v>
+        <f t="shared" ref="Z27:Z28" si="1">$V27*$P37/100</f>
+        <v>3.58352027227936</v>
       </c>
       <c r="AA27" s="2">
-        <f t="shared" ref="AA27:AA28" si="6">$R27*$P42/100</f>
-        <v>20.195412319999999</v>
+        <f t="shared" ref="AA27:AA28" si="2">$R27*$P42/100</f>
+        <v>10.906640527835027</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
@@ -3296,44 +3406,45 @@
         <v>3</v>
       </c>
       <c r="P28" s="2">
-        <f t="shared" si="0"/>
-        <v>33.629999999999995</v>
+        <f>N4*100</f>
+        <v>40.484999450549502</v>
       </c>
       <c r="Q28" t="s">
         <v>3</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="1"/>
-        <v>38.865099999999998</v>
+        <f>O4</f>
+        <v>19.4361175274726</v>
       </c>
       <c r="S28" t="s">
         <v>9</v>
       </c>
       <c r="T28" s="2">
-        <f t="shared" si="2"/>
-        <v>25.6631</v>
+        <f>P4</f>
+        <v>10.355864450549401</v>
       </c>
       <c r="U28" t="s">
         <v>9</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" si="3"/>
-        <v>13.202</v>
+        <f>Q4</f>
+        <v>9.08025785714287</v>
       </c>
       <c r="W28" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="X28" s="2"/>
       <c r="Y28" s="2">
-        <f t="shared" ref="Y28:Z28" si="7">$R28*$P38/100</f>
-        <v>4.0808355000000001</v>
+        <f t="shared" ref="Y28" si="3">$R28*$P38/100</f>
+        <v>1.3887341983377663</v>
       </c>
       <c r="Z28" s="2">
-        <f t="shared" si="5"/>
-        <v>1.3862100000000002</v>
+        <f t="shared" si="1"/>
+        <v>0.64879544992025329</v>
       </c>
       <c r="AA28" s="2">
-        <f t="shared" si="6"/>
-        <v>10.116585529999998</v>
+        <f t="shared" si="2"/>
+        <v>6.5131065246095776</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
@@ -3384,37 +3495,38 @@
         <v>3</v>
       </c>
       <c r="R29" s="2">
-        <f>(R26*$P26+R28*$P27+R27*$P28)/100</f>
-        <v>45.219648110000001</v>
+        <f>(R26*$P26+R27*$P27+R28*$P28)/100</f>
+        <v>23.790280211954382</v>
       </c>
       <c r="S29" t="s">
         <v>9</v>
       </c>
       <c r="T29" s="2">
         <f>(T26*$P26+T28*$P27+T27*$P28)/100</f>
-        <v>31.280260449999997</v>
+        <v>14.617756873688327</v>
       </c>
       <c r="U29" t="s">
         <v>9</v>
       </c>
       <c r="V29" s="2">
         <f>(V26*$P26+V28*$P27+V27*$P28)/100</f>
-        <v>13.939354029999999</v>
+        <v>10.262053521705697</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="X29" s="2"/>
       <c r="Y29" s="2">
         <f>SUM(Y26:Y28)</f>
-        <v>47.849574279999999</v>
+        <v>26.026985859248327</v>
       </c>
       <c r="Z29" s="2">
         <f>SUM(Z26:Z28)</f>
-        <v>14.248371219999999</v>
+        <v>10.016081844523583</v>
       </c>
       <c r="AA29" s="2">
         <f>SUM(AA26:AA28)</f>
-        <v>46.058546379999996</v>
+        <v>24.448697904825941</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
@@ -3459,11 +3571,14 @@
       <c r="T30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="3"/>
-      <c r="Y30" s="2"/>
+      <c r="Y30" s="2">
+        <f>Y29-R29</f>
+        <v>2.2367056472939453</v>
+      </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="5">
         <f>(AA29-R29)/(R44-R29)</f>
-        <v>0.34481646601203081</v>
+        <v>0.26895762249531502</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
@@ -3483,28 +3598,28 @@
       </c>
       <c r="P31" s="2">
         <f>N5*100</f>
-        <v>40.31</v>
+        <v>44.867259340660098</v>
       </c>
       <c r="Q31" t="s">
         <v>3</v>
       </c>
       <c r="R31" s="2">
         <f>O5</f>
-        <v>54.788600000000002</v>
+        <v>29.751482252747401</v>
       </c>
       <c r="S31" t="s">
         <v>9</v>
       </c>
       <c r="T31" s="2">
         <f>P5</f>
-        <v>51.162500000000001</v>
+        <v>24.736379560439602</v>
       </c>
       <c r="U31" t="s">
         <v>9</v>
       </c>
       <c r="V31" s="2">
         <f>Q5</f>
-        <v>3.6261999999999999</v>
+        <v>5.0150987362637398</v>
       </c>
       <c r="W31" s="3" t="s">
         <v>4</v>
@@ -3513,7 +3628,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2">
         <f>$R31*$P46/100</f>
-        <v>25.027432480000002</v>
+        <v>13.886777662779462</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
@@ -3558,29 +3673,29 @@
         <v>3</v>
       </c>
       <c r="P32" s="2">
-        <f t="shared" ref="P32:P33" si="8">N6*100</f>
-        <v>33.78</v>
+        <f>N6*100</f>
+        <v>32.684497802198401</v>
       </c>
       <c r="Q32" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" ref="R32:R33" si="9">O6</f>
-        <v>52.133499999999998</v>
+        <f>O6</f>
+        <v>29.236308626373699</v>
       </c>
       <c r="S32" t="s">
         <v>9</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" ref="T32:T33" si="10">P6</f>
-        <v>48.357199999999999</v>
+        <f>P6</f>
+        <v>21.448840384615501</v>
       </c>
       <c r="U32" t="s">
         <v>9</v>
       </c>
       <c r="V32" s="2">
-        <f t="shared" ref="V32:V33" si="11">Q6</f>
-        <v>3.7763</v>
+        <f>Q6</f>
+        <v>7.7874637362636996</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>4</v>
@@ -3588,8 +3703,8 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2">
-        <f t="shared" ref="AA32:AA33" si="12">$R32*$P47/100</f>
-        <v>17.2561885</v>
+        <f t="shared" ref="AA32:AA33" si="4">$R32*$P47/100</f>
+        <v>10.632912763921965</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
@@ -3634,29 +3749,29 @@
         <v>3</v>
       </c>
       <c r="P33" s="2">
-        <f t="shared" si="8"/>
-        <v>25.91</v>
+        <f>N7*100</f>
+        <v>22.450110989011201</v>
       </c>
       <c r="Q33" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="9"/>
-        <v>43.467599999999997</v>
+        <f>O7</f>
+        <v>22.399367692307798</v>
       </c>
       <c r="S33" t="s">
         <v>9</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" si="10"/>
-        <v>38.609499999999997</v>
+        <f>P7</f>
+        <v>15.5382328021978</v>
       </c>
       <c r="U33" t="s">
         <v>9</v>
       </c>
       <c r="V33" s="2">
-        <f t="shared" si="11"/>
-        <v>4.8581000000000003</v>
+        <f>Q7</f>
+        <v>6.8611341208791199</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>4</v>
@@ -3664,8 +3779,8 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2">
-        <f t="shared" si="12"/>
-        <v>9.2238247199999996</v>
+        <f t="shared" si="4"/>
+        <v>3.7973575435434843</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
@@ -3715,22 +3830,22 @@
         <v>3</v>
       </c>
       <c r="R34" s="2">
-        <f>(R31*$P31+R33*$P32+R32*$P33)/100</f>
-        <v>50.276429790000002</v>
+        <f>(R31*$P31+R32*$P32+R33*$P33)/100</f>
+        <v>27.933098258221513</v>
       </c>
       <c r="S34" t="s">
         <v>9</v>
       </c>
       <c r="T34" s="2">
         <f>(T31*$P31+T33*$P32+T32*$P33)/100</f>
-        <v>46.19524337</v>
+        <v>20.99241739980932</v>
       </c>
       <c r="U34" t="s">
         <v>9</v>
       </c>
       <c r="V34" s="2">
         <f>(V31*$P31+V33*$P32+V32*$P33)/100</f>
-        <v>4.08122673</v>
+        <v>6.2409588391544393</v>
       </c>
       <c r="W34" s="3" t="s">
         <v>4</v>
@@ -3739,7 +3854,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2">
         <f>SUM(AA31:AA33)</f>
-        <v>51.507445700000005</v>
+        <v>28.317047970244911</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
@@ -3763,7 +3878,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="5">
         <f>(AA34-R34)/(R49-R34)</f>
-        <v>0.35077853548856591</v>
+        <v>0.10940941206861154</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -3809,28 +3924,28 @@
       </c>
       <c r="P36" s="2">
         <f>N8*100</f>
-        <v>58.86</v>
+        <v>62.699996703296904</v>
       </c>
       <c r="Q36" t="s">
         <v>3</v>
       </c>
       <c r="R36" s="2">
         <f>O8</f>
-        <v>58.179600000000001</v>
+        <v>33.965528626373398</v>
       </c>
       <c r="S36" t="s">
         <v>9</v>
       </c>
       <c r="T36" s="2">
         <f>P8</f>
-        <v>56.46</v>
+        <v>30.7062124175824</v>
       </c>
       <c r="U36" t="s">
         <v>9</v>
       </c>
       <c r="V36" s="2">
         <f>Q8</f>
-        <v>1.7196</v>
+        <v>3.25932598901099</v>
       </c>
       <c r="W36" s="3" t="s">
         <v>4</v>
@@ -3839,7 +3954,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2">
         <f>$R36*$P51/100</f>
-        <v>34.40159748</v>
+        <v>22.031875632364176</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -3884,29 +3999,29 @@
         <v>3</v>
       </c>
       <c r="P37" s="2">
-        <f t="shared" ref="P37:P38" si="13">N9*100</f>
-        <v>30.64</v>
+        <f>N9*100</f>
+        <v>30.157238461537901</v>
       </c>
       <c r="Q37" t="s">
         <v>3</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" ref="R37:R38" si="14">O9</f>
-        <v>54.2149</v>
+        <f>O9</f>
+        <v>32.944446043955999</v>
       </c>
       <c r="S37" t="s">
         <v>9</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" ref="T37:T38" si="15">P9</f>
-        <v>52.385300000000001</v>
+        <f>P9</f>
+        <v>27.252266208790999</v>
       </c>
       <c r="U37" t="s">
         <v>9</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" ref="V37:V38" si="16">Q9</f>
-        <v>1.8297000000000001</v>
+        <f>Q9</f>
+        <v>5.69218653846153</v>
       </c>
       <c r="W37" s="3" t="s">
         <v>4</v>
@@ -3914,8 +4029,8 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2">
-        <f t="shared" ref="AA37:AA38" si="17">$R37*$P52/100</f>
-        <v>16.871676879999999</v>
+        <f t="shared" ref="AA37:AA38" si="5">$R37*$P52/100</f>
+        <v>9.792199157663056</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
@@ -3959,29 +4074,29 @@
         <v>3</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" si="13"/>
-        <v>10.5</v>
+        <f>N10*100</f>
+        <v>7.1451214285713993</v>
       </c>
       <c r="Q38" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="14"/>
-        <v>45.1599</v>
+        <f>O10</f>
+        <v>24.337922747252801</v>
       </c>
       <c r="S38" t="s">
         <v>9</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" si="15"/>
-        <v>41.6173</v>
+        <f>P10</f>
+        <v>19.432082967033001</v>
       </c>
       <c r="U38" t="s">
         <v>9</v>
       </c>
       <c r="V38" s="2">
-        <f t="shared" si="16"/>
-        <v>3.5426000000000002</v>
+        <f>Q10</f>
+        <v>4.9058423626373999</v>
       </c>
       <c r="W38" s="3" t="s">
         <v>4</v>
@@ -3989,11 +4104,12 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2">
-        <f t="shared" si="17"/>
-        <v>4.40309025</v>
+        <f t="shared" si="5"/>
+        <v>1.3176932491185971</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="L39" s="2"/>
       <c r="N39" t="s">
         <v>2</v>
       </c>
@@ -4007,22 +4123,22 @@
         <v>3</v>
       </c>
       <c r="R39" s="2">
-        <f>(R36*$P36+R38*$P37+R37*$P38)/100</f>
-        <v>53.774070420000001</v>
+        <f>(R36*$P36+R37*$P37+R38*$P38)/100</f>
+        <v>32.9704946157851</v>
       </c>
       <c r="S39" t="s">
         <v>9</v>
       </c>
       <c r="T39" s="2">
         <f>(T36*$P36+T38*$P37+T37*$P38)/100</f>
-        <v>51.484353220000003</v>
+        <v>27.060181284599189</v>
       </c>
       <c r="U39" t="s">
         <v>9</v>
       </c>
       <c r="V39" s="2">
         <f>(V36*$P36+V38*$P37+V37*$P38)/100</f>
-        <v>2.2897276999999998</v>
+        <v>3.9297775076211665</v>
       </c>
       <c r="W39" s="3" t="s">
         <v>4</v>
@@ -4031,7 +4147,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2">
         <f>SUM(AA36:AA38)</f>
-        <v>55.67636461</v>
+        <v>33.14176803914583</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -4045,12 +4161,12 @@
       <c r="W40" s="3"/>
       <c r="Y40" s="5">
         <f>(Y29-R29)/(R39-R29)</f>
-        <v>0.30743468988264122</v>
+        <v>0.24364416220612595</v>
       </c>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5">
         <f>(AA39-R39)/(R54-R39)</f>
-        <v>0.56061182785470498</v>
+        <v>8.2863373598289852E-2</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -4062,35 +4178,35 @@
       </c>
       <c r="P41" s="2">
         <f>N11*100</f>
-        <v>31.89</v>
+        <v>27.031317582417401</v>
       </c>
       <c r="Q41" t="s">
         <v>3</v>
       </c>
       <c r="R41" s="2">
         <f>O11</f>
-        <v>53.237400000000001</v>
+        <v>28.955930494505498</v>
       </c>
       <c r="S41" t="s">
         <v>9</v>
       </c>
       <c r="T41" s="2">
         <f>P11</f>
-        <v>38.795499999999997</v>
+        <v>16.773797637362598</v>
       </c>
       <c r="U41" t="s">
         <v>9</v>
       </c>
       <c r="V41" s="2">
         <f>Q11</f>
-        <v>14.4419</v>
+        <v>12.1821318131868</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y41" s="2">
         <f>R41*P51/100</f>
-        <v>31.479274620000002</v>
+        <v>18.782379820786044</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
@@ -4103,36 +4219,36 @@
         <v>3</v>
       </c>
       <c r="P42" s="2">
-        <f t="shared" ref="P42:P43" si="18">N12*100</f>
-        <v>42.08</v>
+        <f t="shared" ref="P42:P43" si="6">N12*100</f>
+        <v>39.4647532967033</v>
       </c>
       <c r="Q42" t="s">
         <v>3</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" ref="R42:R43" si="19">O12</f>
-        <v>50.367899999999999</v>
+        <f t="shared" ref="R42:R43" si="7">O12</f>
+        <v>28.043124450549399</v>
       </c>
       <c r="S42" t="s">
         <v>9</v>
       </c>
       <c r="T42" s="2">
-        <f t="shared" ref="T42:T43" si="20">P12</f>
-        <v>28.1707</v>
+        <f t="shared" ref="T42:T43" si="8">P12</f>
+        <v>12.714831263736199</v>
       </c>
       <c r="U42" t="s">
         <v>9</v>
       </c>
       <c r="V42" s="2">
-        <f t="shared" ref="V42:V43" si="21">Q12</f>
-        <v>22.197199999999999</v>
+        <f t="shared" ref="V42:V43" si="9">Q12</f>
+        <v>15.328297362637301</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y42" s="2">
-        <f t="shared" ref="Y42:Y43" si="22">R42*P52/100</f>
-        <v>15.674490479999998</v>
+        <f t="shared" ref="Y42:Y43" si="10">R42*P52/100</f>
+        <v>8.335361270197744</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
@@ -4145,36 +4261,36 @@
         <v>3</v>
       </c>
       <c r="P43" s="2">
-        <f t="shared" si="18"/>
-        <v>26.029999999999998</v>
+        <f t="shared" si="6"/>
+        <v>33.510326923077201</v>
       </c>
       <c r="Q43" t="s">
         <v>3</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="19"/>
-        <v>41.740400000000001</v>
+        <f t="shared" si="7"/>
+        <v>21.915619890109799</v>
       </c>
       <c r="S43" t="s">
         <v>9</v>
       </c>
       <c r="T43" s="2">
-        <f t="shared" si="20"/>
-        <v>23.6724</v>
+        <f t="shared" si="8"/>
+        <v>10.4639478571429</v>
       </c>
       <c r="U43" t="s">
         <v>9</v>
       </c>
       <c r="V43" s="2">
-        <f t="shared" si="21"/>
-        <v>18.068000000000001</v>
+        <f t="shared" si="9"/>
+        <v>11.451673351648299</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y43" s="2">
-        <f t="shared" si="22"/>
-        <v>4.0696890000000003</v>
+        <f t="shared" si="10"/>
+        <v>1.1865459792663122</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
@@ -4193,34 +4309,34 @@
         <v>3</v>
       </c>
       <c r="R44" s="2">
-        <f>(R41*$P41+R43*$P42+R42*$P43)/100</f>
-        <v>47.652531550000006</v>
+        <f>(R41*$P41+R42*$P42+R43*$P43)/100</f>
+        <v>26.238315284405353</v>
       </c>
       <c r="S44" t="s">
         <v>9</v>
       </c>
       <c r="T44" s="2">
         <f>(T41*$P41+T43*$P42+T42*$P43)/100</f>
-        <v>29.666064079999998</v>
+        <v>12.924531241100256</v>
       </c>
       <c r="U44" t="s">
         <v>9</v>
       </c>
       <c r="V44" s="2">
         <f>(V41*$P41+V43*$P42+V42*$P43)/100</f>
-        <v>17.986467469999997</v>
+        <v>12.948927933264722</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y44" s="2">
         <f>SUM(Y41:Y43)</f>
-        <v>51.223454099999998</v>
+        <v>28.304287070250101</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2">
         <f>Y44-R44</f>
-        <v>3.5709225499999917</v>
+        <v>2.0659717858447486</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -4232,6 +4348,10 @@
       <c r="T45" s="2"/>
       <c r="V45" s="2"/>
       <c r="W45" s="3"/>
+      <c r="Y45" s="2">
+        <f>Y44-R44</f>
+        <v>2.0659717858447486</v>
+      </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="N46" t="s">
@@ -4242,28 +4362,28 @@
       </c>
       <c r="P46" s="2">
         <f>N14*100</f>
-        <v>45.68</v>
+        <v>46.675918681319104</v>
       </c>
       <c r="Q46" t="s">
         <v>3</v>
       </c>
       <c r="R46" s="2">
         <f>O14</f>
-        <v>58.323399999999999</v>
+        <v>33.428822307692201</v>
       </c>
       <c r="S46" t="s">
         <v>9</v>
       </c>
       <c r="T46" s="2">
         <f>P14</f>
-        <v>54.526299999999999</v>
+        <v>27.794090769230898</v>
       </c>
       <c r="U46" t="s">
         <v>9</v>
       </c>
       <c r="V46" s="2">
         <f>Q14</f>
-        <v>3.7970999999999999</v>
+        <v>5.6347332417582203</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>4</v>
@@ -4277,29 +4397,29 @@
         <v>3</v>
       </c>
       <c r="P47" s="2">
-        <f t="shared" ref="P47:P48" si="23">N15*100</f>
-        <v>33.1</v>
+        <f t="shared" ref="P47:P48" si="11">N15*100</f>
+        <v>36.368862087911303</v>
       </c>
       <c r="Q47" t="s">
         <v>3</v>
       </c>
       <c r="R47" s="2">
-        <f t="shared" ref="R47:R48" si="24">O15</f>
-        <v>54.644300000000001</v>
+        <f t="shared" ref="R47:R48" si="12">O15</f>
+        <v>31.9083990109892</v>
       </c>
       <c r="S47" t="s">
         <v>9</v>
       </c>
       <c r="T47" s="2">
-        <f t="shared" ref="T47:T48" si="25">P15</f>
-        <v>48.878100000000003</v>
+        <f t="shared" ref="T47:T48" si="13">P15</f>
+        <v>22.670901153846199</v>
       </c>
       <c r="U47" t="s">
         <v>9</v>
       </c>
       <c r="V47" s="2">
-        <f t="shared" ref="V47:V48" si="26">Q15</f>
-        <v>5.7662000000000004</v>
+        <f t="shared" ref="V47:V48" si="14">Q15</f>
+        <v>9.2374968681318901</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
@@ -4313,29 +4433,29 @@
         <v>3</v>
       </c>
       <c r="P48" s="2">
-        <f t="shared" si="23"/>
-        <v>21.22</v>
+        <f t="shared" si="11"/>
+        <v>16.952967582417699</v>
       </c>
       <c r="Q48" t="s">
         <v>3</v>
       </c>
       <c r="R48" s="2">
-        <f t="shared" si="24"/>
-        <v>46.973300000000002</v>
+        <f t="shared" si="12"/>
+        <v>24.977691648351598</v>
       </c>
       <c r="S48" t="s">
         <v>9</v>
       </c>
       <c r="T48" s="2">
-        <f t="shared" si="25"/>
-        <v>39.563600000000001</v>
+        <f t="shared" si="13"/>
+        <v>17.0396151098902</v>
       </c>
       <c r="U48" t="s">
         <v>9</v>
       </c>
       <c r="V48" s="2">
-        <f t="shared" si="26"/>
-        <v>7.4097</v>
+        <f t="shared" si="14"/>
+        <v>7.9380695054945498</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
@@ -4355,22 +4475,22 @@
         <v>3</v>
       </c>
       <c r="R49" s="2">
-        <f>(R46*$P46+R48*$P47+R47*$P48)/100</f>
-        <v>53.785811880000004</v>
+        <f>(R46*$P46+R47*$P47+R48*$P48)/100</f>
+        <v>31.442391515209493</v>
       </c>
       <c r="S49" t="s">
         <v>9</v>
       </c>
       <c r="T49" s="2">
         <f>(T46*$P46+T48*$P47+T47*$P48)/100</f>
-        <v>48.375098260000001</v>
+        <v>23.013651848538601</v>
       </c>
       <c r="U49" t="s">
         <v>9</v>
       </c>
       <c r="V49" s="2">
         <f>(V46*$P46+V48*$P47+V47*$P48)/100</f>
-        <v>5.4107136200000001</v>
+        <v>7.0830789062094279</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>4</v>
@@ -4395,28 +4515,28 @@
       </c>
       <c r="P51" s="2">
         <f>N17*100</f>
-        <v>59.13</v>
+        <v>64.865398901099297</v>
       </c>
       <c r="Q51" t="s">
         <v>3</v>
       </c>
       <c r="R51" s="2">
         <f>O17</f>
-        <v>61.4101</v>
+        <v>35.759991428571503</v>
       </c>
       <c r="S51" t="s">
         <v>9</v>
       </c>
       <c r="T51" s="2">
         <f>P17</f>
-        <v>59.751600000000003</v>
+        <v>31.8261112087913</v>
       </c>
       <c r="U51" t="s">
         <v>9</v>
       </c>
       <c r="V51" s="2">
         <f>Q17</f>
-        <v>1.6585000000000001</v>
+        <v>3.93388038461539</v>
       </c>
       <c r="W51" s="3" t="s">
         <v>4</v>
@@ -4430,29 +4550,29 @@
         <v>3</v>
       </c>
       <c r="P52" s="2">
-        <f t="shared" ref="P52:P53" si="27">N18*100</f>
-        <v>31.119999999999997</v>
+        <f t="shared" ref="P52:P53" si="15">N18*100</f>
+        <v>29.723368681318401</v>
       </c>
       <c r="Q52" t="s">
         <v>3</v>
       </c>
       <c r="R52" s="2">
-        <f t="shared" ref="R52:R53" si="28">O18</f>
-        <v>56.964500000000001</v>
+        <f t="shared" ref="R52:R53" si="16">O18</f>
+        <v>34.6640401648351</v>
       </c>
       <c r="S52" t="s">
         <v>9</v>
       </c>
       <c r="T52" s="2">
-        <f t="shared" ref="T52:T53" si="29">P18</f>
-        <v>54.188600000000001</v>
+        <f t="shared" ref="T52:T53" si="17">P18</f>
+        <v>28.071757967033001</v>
       </c>
       <c r="U52" t="s">
         <v>9</v>
       </c>
       <c r="V52" s="2">
-        <f t="shared" ref="V52:V53" si="30">Q18</f>
-        <v>2.7759</v>
+        <f t="shared" ref="V52:V53" si="18">Q18</f>
+        <v>6.5922832967032896</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
@@ -4466,35 +4586,36 @@
         <v>3</v>
       </c>
       <c r="P53" s="2">
-        <f t="shared" si="27"/>
-        <v>9.75</v>
+        <f t="shared" si="15"/>
+        <v>5.41415659340662</v>
       </c>
       <c r="Q53" t="s">
         <v>3</v>
       </c>
       <c r="R53" s="2">
-        <f t="shared" si="28"/>
-        <v>49.1693</v>
+        <f t="shared" si="16"/>
+        <v>28.411639999999998</v>
       </c>
       <c r="S53" t="s">
         <v>9</v>
       </c>
       <c r="T53" s="2">
-        <f t="shared" si="29"/>
-        <v>43.789299999999997</v>
+        <f t="shared" si="17"/>
+        <v>20.877174230769199</v>
       </c>
       <c r="U53" t="s">
         <v>9</v>
       </c>
       <c r="V53" s="2">
-        <f t="shared" si="30"/>
-        <v>5.38</v>
+        <f t="shared" si="18"/>
+        <v>7.5344614835164601</v>
       </c>
       <c r="W53" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="7:26" x14ac:dyDescent="0.25">
+      <c r="L54" s="2"/>
       <c r="N54" t="s">
         <v>2</v>
       </c>
@@ -4508,22 +4629,22 @@
         <v>3</v>
       </c>
       <c r="R54" s="2">
-        <f>(R51*$P51+R53*$P52+R52*$P53)/100</f>
-        <v>57.16731704</v>
+        <f>(R51*$P51+R52*$P52+R53*$P53)/100</f>
+        <v>35.037432225530999</v>
       </c>
       <c r="S54" t="s">
         <v>9</v>
       </c>
       <c r="T54" s="2">
         <f>(T51*$P51+T53*$P52+T52*$P53)/100</f>
-        <v>54.24173974</v>
+        <v>28.369382391999942</v>
       </c>
       <c r="U54" t="s">
         <v>9</v>
       </c>
       <c r="V54" s="2">
         <f>(V51*$P51+V53*$P52+V52*$P53)/100</f>
-        <v>2.9255773</v>
+        <v>5.1481395094349054</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>4</v>
@@ -4532,7 +4653,7 @@
     <row r="55" spans="7:26" x14ac:dyDescent="0.25">
       <c r="Y55" s="5">
         <f>(Y44-R44)/(R54-R44)</f>
-        <v>0.37530247568408331</v>
+        <v>0.23479308204085017</v>
       </c>
       <c r="Z55" s="5"/>
     </row>

--- a/Results/table2latex.xlsx
+++ b/Results/table2latex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbueren\Google Drive\endo_health\metric_model\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB67CD57-3EF5-4343-BF84-CE3092CB0335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B45C5BA-4E70-4F86-9ADA-6DD2FC514ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D131852-BDAB-48D2-B0B4-24C9607E5D25}"/>
   </bookViews>
@@ -2381,17 +2381,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F330EFCA-C7DF-4136-98BB-2504A28BB96C}">
   <dimension ref="A2:AA79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="22.7109375" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" customWidth="1"/>
+    <col min="15" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>58.622799999999998</v>
       </c>
@@ -2407,32 +2408,20 @@
       <c r="M2">
         <v>1</v>
       </c>
-      <c r="N2">
-        <v>0.323226862637365</v>
-      </c>
-      <c r="O2">
-        <v>26.002990164835101</v>
-      </c>
-      <c r="P2">
-        <v>16.778481153846101</v>
-      </c>
-      <c r="Q2">
-        <v>9.2245078571429104</v>
-      </c>
-      <c r="S2">
-        <v>0.3175</v>
-      </c>
-      <c r="T2">
-        <v>49.2074</v>
-      </c>
-      <c r="U2">
-        <v>34.167999999999999</v>
-      </c>
-      <c r="V2">
-        <v>15.039400000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N2" s="4">
+        <v>0.24335584415584399</v>
+      </c>
+      <c r="O2" s="4">
+        <v>26.708220779220799</v>
+      </c>
+      <c r="P2" s="4">
+        <v>17.3195714285714</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>9.3886233766233804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>41.377200000000002</v>
       </c>
@@ -2445,32 +2434,20 @@
       <c r="D3">
         <v>10.9596</v>
       </c>
-      <c r="N3">
-        <v>0.27198552747252702</v>
-      </c>
-      <c r="O3">
-        <v>27.6364087362637</v>
-      </c>
-      <c r="P3">
-        <v>15.753626978022</v>
-      </c>
-      <c r="Q3">
-        <v>11.882786538461501</v>
-      </c>
-      <c r="S3">
-        <v>0.35909999999999997</v>
-      </c>
-      <c r="T3">
-        <v>48.141300000000001</v>
-      </c>
-      <c r="U3">
-        <v>34.216700000000003</v>
-      </c>
-      <c r="V3">
-        <v>13.9246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N3" s="4">
+        <v>0.172920779220779</v>
+      </c>
+      <c r="O3" s="4">
+        <v>27.707142857142902</v>
+      </c>
+      <c r="P3" s="4">
+        <v>15.703038961039001</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>12.004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>53.551499999999997</v>
       </c>
@@ -2483,32 +2460,20 @@
       <c r="D4">
         <v>5.7394999999999996</v>
       </c>
-      <c r="N4">
-        <v>0.40484999450549503</v>
-      </c>
-      <c r="O4">
-        <v>19.4361175274726</v>
-      </c>
-      <c r="P4">
-        <v>10.355864450549401</v>
-      </c>
-      <c r="Q4">
-        <v>9.08025785714287</v>
-      </c>
-      <c r="S4">
-        <v>0.32329999999999998</v>
-      </c>
-      <c r="T4">
-        <v>38.2896</v>
-      </c>
-      <c r="U4">
-        <v>24.471699999999998</v>
-      </c>
-      <c r="V4">
-        <v>13.8179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N4" s="4">
+        <v>0.58370779220779201</v>
+      </c>
+      <c r="O4" s="4">
+        <v>19.5720909090909</v>
+      </c>
+      <c r="P4" s="4">
+        <v>10.3391428571429</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>9.2329220779220798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>46.448500000000003</v>
       </c>
@@ -2524,32 +2489,20 @@
       <c r="M5">
         <v>2</v>
       </c>
-      <c r="N5">
-        <v>0.44867259340660098</v>
-      </c>
-      <c r="O5">
-        <v>29.751482252747401</v>
-      </c>
-      <c r="P5">
-        <v>24.736379560439602</v>
-      </c>
-      <c r="Q5">
-        <v>5.0150987362637398</v>
-      </c>
-      <c r="S5">
-        <v>0.40229999999999999</v>
-      </c>
-      <c r="T5">
-        <v>54.549700000000001</v>
-      </c>
-      <c r="U5">
-        <v>50.585999999999999</v>
-      </c>
-      <c r="V5">
-        <v>3.9636</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N5" s="4">
+        <v>0.43737142857142902</v>
+      </c>
+      <c r="O5" s="4">
+        <v>29.9031038961039</v>
+      </c>
+      <c r="P5" s="4">
+        <v>24.788363636363599</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>5.1147142857142898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>38.905200000000001</v>
       </c>
@@ -2562,32 +2515,20 @@
       <c r="D6">
         <v>4.0126999999999997</v>
       </c>
-      <c r="N6">
-        <v>0.32684497802198398</v>
-      </c>
-      <c r="O6">
-        <v>29.236308626373699</v>
-      </c>
-      <c r="P6">
-        <v>21.448840384615501</v>
-      </c>
-      <c r="Q6">
-        <v>7.7874637362636996</v>
-      </c>
-      <c r="S6">
-        <v>0.33679999999999999</v>
-      </c>
-      <c r="T6">
-        <v>52.172600000000003</v>
-      </c>
-      <c r="U6">
-        <v>48.761200000000002</v>
-      </c>
-      <c r="V6">
-        <v>3.4114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N6" s="4">
+        <v>0.24716623376623401</v>
+      </c>
+      <c r="O6" s="4">
+        <v>29.0154675324675</v>
+      </c>
+      <c r="P6" s="4">
+        <v>21.328766233766199</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>7.6866103896103901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>61.094799999999999</v>
       </c>
@@ -2600,32 +2541,20 @@
       <c r="D7">
         <v>3.3725999999999998</v>
       </c>
-      <c r="N7">
-        <v>0.22450110989011199</v>
-      </c>
-      <c r="O7">
-        <v>22.399367692307798</v>
-      </c>
-      <c r="P7">
-        <v>15.5382328021978</v>
-      </c>
-      <c r="Q7">
-        <v>6.8611341208791199</v>
-      </c>
-      <c r="S7">
-        <v>0.26090000000000002</v>
-      </c>
-      <c r="T7">
-        <v>43.298200000000001</v>
-      </c>
-      <c r="U7">
-        <v>38.500999999999998</v>
-      </c>
-      <c r="V7">
-        <v>4.7972999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N7" s="4">
+        <v>0.31548181818181797</v>
+      </c>
+      <c r="O7" s="4">
+        <v>22.827857142857098</v>
+      </c>
+      <c r="P7" s="4">
+        <v>15.9667402597403</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>6.8610779220779197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>47.805999999999997</v>
       </c>
@@ -2641,32 +2570,20 @@
       <c r="M8">
         <v>3</v>
       </c>
-      <c r="N8">
-        <v>0.62699996703296901</v>
-      </c>
-      <c r="O8">
-        <v>33.965528626373398</v>
-      </c>
-      <c r="P8">
-        <v>30.7062124175824</v>
-      </c>
-      <c r="Q8">
-        <v>3.25932598901099</v>
-      </c>
-      <c r="S8">
-        <v>0.51880000000000004</v>
-      </c>
-      <c r="T8">
-        <v>58.150500000000001</v>
-      </c>
-      <c r="U8">
-        <v>56.375599999999999</v>
-      </c>
-      <c r="V8">
-        <v>1.7748999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N8" s="4">
+        <v>0.67351298701298701</v>
+      </c>
+      <c r="O8" s="4">
+        <v>33.7481168831169</v>
+      </c>
+      <c r="P8" s="4">
+        <v>30.465454545454602</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>3.2827792207792199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>52.194000000000003</v>
       </c>
@@ -2679,32 +2596,20 @@
       <c r="D9">
         <v>13.2494</v>
       </c>
-      <c r="N9">
-        <v>0.301572384615379</v>
-      </c>
-      <c r="O9">
-        <v>32.944446043955999</v>
-      </c>
-      <c r="P9">
-        <v>27.252266208790999</v>
-      </c>
-      <c r="Q9">
-        <v>5.69218653846153</v>
-      </c>
-      <c r="S9">
-        <v>0.31509999999999999</v>
-      </c>
-      <c r="T9">
-        <v>54.444299999999998</v>
-      </c>
-      <c r="U9">
-        <v>52.740400000000001</v>
-      </c>
-      <c r="V9">
-        <v>1.7039</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N9" s="4">
+        <v>0.239866233766234</v>
+      </c>
+      <c r="O9" s="4">
+        <v>32.753584415584399</v>
+      </c>
+      <c r="P9" s="4">
+        <v>27.240506493506501</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>5.51314285714286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>42.770400000000002</v>
       </c>
@@ -2717,32 +2622,20 @@
       <c r="D10">
         <v>7.1492000000000004</v>
       </c>
-      <c r="N10">
-        <v>7.1451214285713993E-2</v>
-      </c>
-      <c r="O10">
-        <v>24.337922747252801</v>
-      </c>
-      <c r="P10">
-        <v>19.432082967033001</v>
-      </c>
-      <c r="Q10">
-        <v>4.9058423626373999</v>
-      </c>
-      <c r="S10">
-        <v>0.1661</v>
-      </c>
-      <c r="T10">
-        <v>44.556100000000001</v>
-      </c>
-      <c r="U10">
-        <v>41.113599999999998</v>
-      </c>
-      <c r="V10">
-        <v>3.4424999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N10" s="4">
+        <v>8.6654545454545498E-2</v>
+      </c>
+      <c r="O10" s="4">
+        <v>24.462623376623402</v>
+      </c>
+      <c r="P10" s="4">
+        <v>19.529792207792202</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>4.9328571428571397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>57.229599999999998</v>
       </c>
@@ -2758,20 +2651,20 @@
       <c r="M11">
         <v>4</v>
       </c>
-      <c r="N11">
-        <v>0.27031317582417402</v>
-      </c>
-      <c r="O11">
-        <v>28.955930494505498</v>
-      </c>
-      <c r="P11">
-        <v>16.773797637362598</v>
-      </c>
-      <c r="Q11">
-        <v>12.1821318131868</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N11" s="4">
+        <v>0.20755584415584399</v>
+      </c>
+      <c r="O11" s="4">
+        <v>29.543376623376599</v>
+      </c>
+      <c r="P11" s="4">
+        <v>16.795610389610399</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>12.747740259740301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>34.584299999999999</v>
       </c>
@@ -2784,20 +2677,20 @@
       <c r="D12">
         <v>4.8164999999999996</v>
       </c>
-      <c r="N12">
-        <v>0.39464753296703298</v>
-      </c>
-      <c r="O12">
-        <v>28.043124450549399</v>
-      </c>
-      <c r="P12">
-        <v>12.714831263736199</v>
-      </c>
-      <c r="Q12">
-        <v>15.328297362637301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N12" s="4">
+        <v>0.161355844155844</v>
+      </c>
+      <c r="O12" s="4">
+        <v>28.690558441558501</v>
+      </c>
+      <c r="P12" s="4">
+        <v>12.863961038961</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>15.826649350649401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>65.415700000000001</v>
       </c>
@@ -2810,54 +2703,54 @@
       <c r="D13">
         <v>4.1228999999999996</v>
       </c>
-      <c r="N13">
-        <v>0.33510326923077199</v>
-      </c>
-      <c r="O13">
-        <v>21.915619890109799</v>
-      </c>
-      <c r="P13">
-        <v>10.4639478571429</v>
-      </c>
-      <c r="Q13">
-        <v>11.451673351648299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N13" s="4">
+        <v>0.63108441558441597</v>
+      </c>
+      <c r="O13" s="4">
+        <v>21.3612857142857</v>
+      </c>
+      <c r="P13" s="4">
+        <v>10.372948051948001</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>10.988298701298699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="M14">
         <v>5</v>
       </c>
-      <c r="N14">
-        <v>0.46675918681319101</v>
-      </c>
-      <c r="O14">
-        <v>33.428822307692201</v>
-      </c>
-      <c r="P14">
-        <v>27.794090769230898</v>
-      </c>
-      <c r="Q14">
-        <v>5.6347332417582203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N14" s="4">
+        <v>0.49797922077922102</v>
+      </c>
+      <c r="O14" s="4">
+        <v>33.384662337662299</v>
+      </c>
+      <c r="P14" s="4">
+        <v>27.648714285714298</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>5.73584415584416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="N15">
-        <v>0.36368862087911302</v>
-      </c>
-      <c r="O15">
-        <v>31.9083990109892</v>
-      </c>
-      <c r="P15">
-        <v>22.670901153846199</v>
-      </c>
-      <c r="Q15">
-        <v>9.2374968681318901</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N15" s="4">
+        <v>0.26546103896103901</v>
+      </c>
+      <c r="O15" s="4">
+        <v>31.808506493506499</v>
+      </c>
+      <c r="P15" s="4">
+        <v>22.6995844155844</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>9.1088571428571399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2893,17 +2786,17 @@
         <v>4</v>
       </c>
       <c r="M16" s="1"/>
-      <c r="N16">
-        <v>0.169529675824177</v>
-      </c>
-      <c r="O16">
-        <v>24.977691648351598</v>
-      </c>
-      <c r="P16">
-        <v>17.0396151098902</v>
-      </c>
-      <c r="Q16">
-        <v>7.9380695054945498</v>
+      <c r="N16" s="4">
+        <v>0.236541558441558</v>
+      </c>
+      <c r="O16" s="4">
+        <v>25.0958311688312</v>
+      </c>
+      <c r="P16" s="4">
+        <v>17.275779220779199</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>7.8200129870129897</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
@@ -2944,17 +2837,17 @@
       <c r="M17">
         <v>6</v>
       </c>
-      <c r="N17">
-        <v>0.64865398901099303</v>
-      </c>
-      <c r="O17">
-        <v>35.759991428571503</v>
-      </c>
-      <c r="P17">
-        <v>31.8261112087913</v>
-      </c>
-      <c r="Q17">
-        <v>3.93388038461539</v>
+      <c r="N17" s="4">
+        <v>0.72472337662337605</v>
+      </c>
+      <c r="O17" s="4">
+        <v>35.5142207792208</v>
+      </c>
+      <c r="P17" s="4">
+        <v>31.514428571428599</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>3.9998441558441602</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
@@ -2991,17 +2884,17 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18">
-        <v>0.29723368681318402</v>
-      </c>
-      <c r="O18">
-        <v>34.6640401648351</v>
-      </c>
-      <c r="P18">
-        <v>28.071757967033001</v>
-      </c>
-      <c r="Q18">
-        <v>6.5922832967032896</v>
+      <c r="N18" s="4">
+        <v>0.18774285714285699</v>
+      </c>
+      <c r="O18" s="4">
+        <v>34.445376623376603</v>
+      </c>
+      <c r="P18" s="4">
+        <v>27.960974025974</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>6.4844285714285697</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
@@ -3013,17 +2906,17 @@
       <c r="G19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
-      <c r="N19">
-        <v>5.4141565934066202E-2</v>
-      </c>
-      <c r="O19">
-        <v>28.411639999999998</v>
-      </c>
-      <c r="P19">
-        <v>20.877174230769199</v>
-      </c>
-      <c r="Q19">
-        <v>7.5344614835164601</v>
+      <c r="N19" s="4">
+        <v>8.7545454545454496E-2</v>
+      </c>
+      <c r="O19" s="4">
+        <v>28.261207792207799</v>
+      </c>
+      <c r="P19" s="4">
+        <v>20.969428571428601</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>7.2917532467532498</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -3267,28 +3160,28 @@
       </c>
       <c r="P26" s="2">
         <f>N2*100</f>
-        <v>32.3226862637365</v>
+        <v>24.3355844155844</v>
       </c>
       <c r="Q26" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="2">
         <f>O2</f>
-        <v>26.002990164835101</v>
+        <v>26.708220779220799</v>
       </c>
       <c r="S26" t="s">
         <v>9</v>
       </c>
       <c r="T26" s="2">
         <f>P2</f>
-        <v>16.778481153846101</v>
+        <v>17.3195714285714</v>
       </c>
       <c r="U26" t="s">
         <v>9</v>
       </c>
       <c r="V26" s="2">
         <f>Q2</f>
-        <v>9.2245078571429104</v>
+        <v>9.3886233766233804</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>4</v>
@@ -3296,15 +3189,15 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2">
         <f>$R26*$P36/100</f>
-        <v>16.303873976110225</v>
+        <v>17.988333554815327</v>
       </c>
       <c r="Z26" s="2">
         <f>$V26*$P36/100</f>
-        <v>5.7837661223239687</v>
+        <v>6.3233597743295693</v>
       </c>
       <c r="AA26" s="2">
         <f>$R26*$P41/100</f>
-        <v>7.028950852381338</v>
+        <v>5.5434473097318255</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
@@ -3324,28 +3217,28 @@
       </c>
       <c r="P27" s="2">
         <f>N3*100</f>
-        <v>27.198552747252702</v>
+        <v>17.292077922077901</v>
       </c>
       <c r="Q27" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="2">
         <f>O3</f>
-        <v>27.6364087362637</v>
+        <v>27.707142857142902</v>
       </c>
       <c r="S27" t="s">
         <v>9</v>
       </c>
       <c r="T27" s="2">
         <f>P3</f>
-        <v>15.753626978022</v>
+        <v>15.703038961039001</v>
       </c>
       <c r="U27" t="s">
         <v>9</v>
       </c>
       <c r="V27" s="2">
         <f>Q3</f>
-        <v>11.882786538461501</v>
+        <v>12.004</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>4</v>
@@ -3353,15 +3246,15 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2">
         <f t="shared" ref="Y27" si="0">$R27*$P37/100</f>
-        <v>8.3343776848003372</v>
+        <v>6.6460080055658795</v>
       </c>
       <c r="Z27" s="2">
         <f t="shared" ref="Z27:Z28" si="1">$V27*$P37/100</f>
-        <v>3.58352027227936</v>
+        <v>2.8793542701298724</v>
       </c>
       <c r="AA27" s="2">
         <f t="shared" ref="AA27:AA28" si="2">$R27*$P42/100</f>
-        <v>10.906640527835027</v>
+        <v>4.4707094248608561</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
@@ -3407,28 +3300,28 @@
       </c>
       <c r="P28" s="2">
         <f>N4*100</f>
-        <v>40.484999450549502</v>
+        <v>58.370779220779198</v>
       </c>
       <c r="Q28" t="s">
         <v>3</v>
       </c>
       <c r="R28" s="2">
         <f>O4</f>
-        <v>19.4361175274726</v>
+        <v>19.5720909090909</v>
       </c>
       <c r="S28" t="s">
         <v>9</v>
       </c>
       <c r="T28" s="2">
         <f>P4</f>
-        <v>10.355864450549401</v>
+        <v>10.3391428571429</v>
       </c>
       <c r="U28" t="s">
         <v>9</v>
       </c>
       <c r="V28" s="2">
         <f>Q4</f>
-        <v>9.08025785714287</v>
+        <v>9.2329220779220798</v>
       </c>
       <c r="W28" s="3" t="s">
         <v>4</v>
@@ -3436,15 +3329,15 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2">
         <f t="shared" ref="Y28" si="3">$R28*$P38/100</f>
-        <v>1.3887341983377663</v>
+        <v>1.6960106413223142</v>
       </c>
       <c r="Z28" s="2">
         <f t="shared" si="1"/>
-        <v>0.64879544992025329</v>
+        <v>0.80007466587957554</v>
       </c>
       <c r="AA28" s="2">
         <f t="shared" si="2"/>
-        <v>6.5131065246095776</v>
+        <v>12.35164155312869</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
@@ -3496,21 +3389,21 @@
       </c>
       <c r="R29" s="2">
         <f>(R26*$P26+R27*$P27+R28*$P28)/100</f>
-        <v>23.790280211954382</v>
+        <v>22.71512431990217</v>
       </c>
       <c r="S29" t="s">
         <v>9</v>
       </c>
       <c r="T29" s="2">
         <f>(T26*$P26+T28*$P27+T27*$P28)/100</f>
-        <v>14.617756873688327</v>
+        <v>15.168657767650547</v>
       </c>
       <c r="U29" t="s">
         <v>9</v>
       </c>
       <c r="V29" s="2">
         <f>(V26*$P26+V28*$P27+V27*$P28)/100</f>
-        <v>10.262053521705697</v>
+        <v>10.888168785140829</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>4</v>
@@ -3518,15 +3411,15 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2">
         <f>SUM(Y26:Y28)</f>
-        <v>26.026985859248327</v>
+        <v>26.330352201703519</v>
       </c>
       <c r="Z29" s="2">
         <f>SUM(Z26:Z28)</f>
-        <v>10.016081844523583</v>
+        <v>10.002788710339017</v>
       </c>
       <c r="AA29" s="2">
         <f>SUM(AA26:AA28)</f>
-        <v>24.448697904825941</v>
+        <v>22.365798287721372</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
@@ -3573,12 +3466,12 @@
       <c r="W30" s="3"/>
       <c r="Y30" s="2">
         <f>Y29-R29</f>
-        <v>2.2367056472939453</v>
+        <v>3.6152278818013492</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="5">
         <f>(AA29-R29)/(R44-R29)</f>
-        <v>0.26895762249531502</v>
+        <v>-0.22877522719670004</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
@@ -3598,28 +3491,28 @@
       </c>
       <c r="P31" s="2">
         <f>N5*100</f>
-        <v>44.867259340660098</v>
+        <v>43.737142857142899</v>
       </c>
       <c r="Q31" t="s">
         <v>3</v>
       </c>
       <c r="R31" s="2">
         <f>O5</f>
-        <v>29.751482252747401</v>
+        <v>29.9031038961039</v>
       </c>
       <c r="S31" t="s">
         <v>9</v>
       </c>
       <c r="T31" s="2">
         <f>P5</f>
-        <v>24.736379560439602</v>
+        <v>24.788363636363599</v>
       </c>
       <c r="U31" t="s">
         <v>9</v>
       </c>
       <c r="V31" s="2">
         <f>Q5</f>
-        <v>5.0150987362637398</v>
+        <v>5.1147142857142898</v>
       </c>
       <c r="W31" s="3" t="s">
         <v>4</v>
@@ -3628,7 +3521,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2">
         <f>$R31*$P46/100</f>
-        <v>13.886777662779462</v>
+        <v>14.891124377061908</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
@@ -3674,28 +3567,28 @@
       </c>
       <c r="P32" s="2">
         <f>N6*100</f>
-        <v>32.684497802198401</v>
+        <v>24.716623376623399</v>
       </c>
       <c r="Q32" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="2">
         <f>O6</f>
-        <v>29.236308626373699</v>
+        <v>29.0154675324675</v>
       </c>
       <c r="S32" t="s">
         <v>9</v>
       </c>
       <c r="T32" s="2">
         <f>P6</f>
-        <v>21.448840384615501</v>
+        <v>21.328766233766199</v>
       </c>
       <c r="U32" t="s">
         <v>9</v>
       </c>
       <c r="V32" s="2">
         <f>Q6</f>
-        <v>7.7874637362636996</v>
+        <v>7.6866103896103901</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>4</v>
@@ -3704,7 +3597,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2">
         <f t="shared" ref="AA32:AA33" si="4">$R32*$P47/100</f>
-        <v>10.632912763921965</v>
+        <v>7.7024761571091176</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
@@ -3750,28 +3643,28 @@
       </c>
       <c r="P33" s="2">
         <f>N7*100</f>
-        <v>22.450110989011201</v>
+        <v>31.548181818181796</v>
       </c>
       <c r="Q33" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="2">
         <f>O7</f>
-        <v>22.399367692307798</v>
+        <v>22.827857142857098</v>
       </c>
       <c r="S33" t="s">
         <v>9</v>
       </c>
       <c r="T33" s="2">
         <f>P7</f>
-        <v>15.5382328021978</v>
+        <v>15.9667402597403</v>
       </c>
       <c r="U33" t="s">
         <v>9</v>
       </c>
       <c r="V33" s="2">
         <f>Q7</f>
-        <v>6.8611341208791199</v>
+        <v>6.8610779220779197</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>4</v>
@@ -3780,7 +3673,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2">
         <f t="shared" si="4"/>
-        <v>3.7973575435434843</v>
+        <v>5.3997369044526691</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
@@ -3831,21 +3724,21 @@
       </c>
       <c r="R34" s="2">
         <f>(R31*$P31+R32*$P32+R33*$P33)/100</f>
-        <v>27.933098258221513</v>
+        <v>27.452180977348618</v>
       </c>
       <c r="S34" t="s">
         <v>9</v>
       </c>
       <c r="T34" s="2">
         <f>(T31*$P31+T33*$P32+T32*$P33)/100</f>
-        <v>20.99241739980932</v>
+        <v>21.516999022111644</v>
       </c>
       <c r="U34" t="s">
         <v>9</v>
       </c>
       <c r="V34" s="2">
         <f>(V31*$P31+V33*$P32+V32*$P33)/100</f>
-        <v>6.2409588391544393</v>
+        <v>6.3578425048237515</v>
       </c>
       <c r="W34" s="3" t="s">
         <v>4</v>
@@ -3854,7 +3747,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2">
         <f>SUM(AA31:AA33)</f>
-        <v>28.317047970244911</v>
+        <v>27.993337438623694</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
@@ -3878,7 +3771,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="5">
         <f>(AA34-R34)/(R49-R34)</f>
-        <v>0.10940941206861154</v>
+        <v>0.15231772880387781</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -3924,28 +3817,28 @@
       </c>
       <c r="P36" s="2">
         <f>N8*100</f>
-        <v>62.699996703296904</v>
+        <v>67.351298701298703</v>
       </c>
       <c r="Q36" t="s">
         <v>3</v>
       </c>
       <c r="R36" s="2">
         <f>O8</f>
-        <v>33.965528626373398</v>
+        <v>33.7481168831169</v>
       </c>
       <c r="S36" t="s">
         <v>9</v>
       </c>
       <c r="T36" s="2">
         <f>P8</f>
-        <v>30.7062124175824</v>
+        <v>30.465454545454602</v>
       </c>
       <c r="U36" t="s">
         <v>9</v>
       </c>
       <c r="V36" s="2">
         <f>Q8</f>
-        <v>3.25932598901099</v>
+        <v>3.2827792207792199</v>
       </c>
       <c r="W36" s="3" t="s">
         <v>4</v>
@@ -3954,7 +3847,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2">
         <f>$R36*$P51/100</f>
-        <v>22.031875632364176</v>
+        <v>24.458049222212843</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -4000,28 +3893,28 @@
       </c>
       <c r="P37" s="2">
         <f>N9*100</f>
-        <v>30.157238461537901</v>
+        <v>23.986623376623399</v>
       </c>
       <c r="Q37" t="s">
         <v>3</v>
       </c>
       <c r="R37" s="2">
         <f>O9</f>
-        <v>32.944446043955999</v>
+        <v>32.753584415584399</v>
       </c>
       <c r="S37" t="s">
         <v>9</v>
       </c>
       <c r="T37" s="2">
         <f>P9</f>
-        <v>27.252266208790999</v>
+        <v>27.240506493506501</v>
       </c>
       <c r="U37" t="s">
         <v>9</v>
       </c>
       <c r="V37" s="2">
         <f>Q9</f>
-        <v>5.69218653846153</v>
+        <v>5.51314285714286</v>
       </c>
       <c r="W37" s="3" t="s">
         <v>4</v>
@@ -4030,7 +3923,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2">
         <f t="shared" ref="AA37:AA38" si="5">$R37*$P52/100</f>
-        <v>9.792199157663056</v>
+        <v>6.1492515198515694</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
@@ -4075,28 +3968,28 @@
       </c>
       <c r="P38" s="2">
         <f>N10*100</f>
-        <v>7.1451214285713993</v>
+        <v>8.6654545454545495</v>
       </c>
       <c r="Q38" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2">
         <f>O10</f>
-        <v>24.337922747252801</v>
+        <v>24.462623376623402</v>
       </c>
       <c r="S38" t="s">
         <v>9</v>
       </c>
       <c r="T38" s="2">
         <f>P10</f>
-        <v>19.432082967033001</v>
+        <v>19.529792207792202</v>
       </c>
       <c r="U38" t="s">
         <v>9</v>
       </c>
       <c r="V38" s="2">
         <f>Q10</f>
-        <v>4.9058423626373999</v>
+        <v>4.9328571428571397</v>
       </c>
       <c r="W38" s="3" t="s">
         <v>4</v>
@@ -4105,11 +3998,14 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2">
         <f t="shared" si="5"/>
-        <v>1.3176932491185971</v>
+        <v>2.1415914828807567</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="L39" s="2"/>
+      <c r="L39" s="2">
+        <f>R39-R34</f>
+        <v>5.253890476100544</v>
+      </c>
       <c r="N39" t="s">
         <v>2</v>
       </c>
@@ -4124,21 +4020,21 @@
       </c>
       <c r="R39" s="2">
         <f>(R36*$P36+R37*$P37+R38*$P38)/100</f>
-        <v>32.9704946157851</v>
+        <v>32.706071453449162</v>
       </c>
       <c r="S39" t="s">
         <v>9</v>
       </c>
       <c r="T39" s="2">
         <f>(T36*$P36+T38*$P37+T37*$P38)/100</f>
-        <v>27.060181284599189</v>
+        <v>27.563930702884171</v>
       </c>
       <c r="U39" t="s">
         <v>9</v>
       </c>
       <c r="V39" s="2">
         <f>(V36*$P36+V38*$P37+V37*$P38)/100</f>
-        <v>3.9297775076211665</v>
+        <v>3.8719591915668752</v>
       </c>
       <c r="W39" s="3" t="s">
         <v>4</v>
@@ -4147,7 +4043,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2">
         <f>SUM(AA36:AA38)</f>
-        <v>33.14176803914583</v>
+        <v>32.748892224945166</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -4161,12 +4057,12 @@
       <c r="W40" s="3"/>
       <c r="Y40" s="5">
         <f>(Y29-R29)/(R39-R29)</f>
-        <v>0.24364416220612595</v>
+        <v>0.36185036648451052</v>
       </c>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5">
         <f>(AA39-R39)/(R54-R39)</f>
-        <v>8.2863373598289852E-2</v>
+        <v>2.1704170660580738E-2</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -4178,35 +4074,35 @@
       </c>
       <c r="P41" s="2">
         <f>N11*100</f>
-        <v>27.031317582417401</v>
+        <v>20.755584415584398</v>
       </c>
       <c r="Q41" t="s">
         <v>3</v>
       </c>
       <c r="R41" s="2">
         <f>O11</f>
-        <v>28.955930494505498</v>
+        <v>29.543376623376599</v>
       </c>
       <c r="S41" t="s">
         <v>9</v>
       </c>
       <c r="T41" s="2">
         <f>P11</f>
-        <v>16.773797637362598</v>
+        <v>16.795610389610399</v>
       </c>
       <c r="U41" t="s">
         <v>9</v>
       </c>
       <c r="V41" s="2">
         <f>Q11</f>
-        <v>12.1821318131868</v>
+        <v>12.747740259740301</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y41" s="2">
         <f>R41*P51/100</f>
-        <v>18.782379820786044</v>
+        <v>21.410775663349604</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
@@ -4220,35 +4116,35 @@
       </c>
       <c r="P42" s="2">
         <f t="shared" ref="P42:P43" si="6">N12*100</f>
-        <v>39.4647532967033</v>
+        <v>16.1355844155844</v>
       </c>
       <c r="Q42" t="s">
         <v>3</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" ref="R42:R43" si="7">O12</f>
-        <v>28.043124450549399</v>
+        <v>28.690558441558501</v>
       </c>
       <c r="S42" t="s">
         <v>9</v>
       </c>
       <c r="T42" s="2">
         <f t="shared" ref="T42:T43" si="8">P12</f>
-        <v>12.714831263736199</v>
+        <v>12.863961038961</v>
       </c>
       <c r="U42" t="s">
         <v>9</v>
       </c>
       <c r="V42" s="2">
         <f t="shared" ref="V42:V43" si="9">Q12</f>
-        <v>15.328297362637301</v>
+        <v>15.826649350649401</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y42" s="2">
         <f t="shared" ref="Y42:Y43" si="10">R42*P52/100</f>
-        <v>8.335361270197744</v>
+        <v>5.3864474148423076</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
@@ -4262,35 +4158,35 @@
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>33.510326923077201</v>
+        <v>63.108441558441598</v>
       </c>
       <c r="Q43" t="s">
         <v>3</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="7"/>
-        <v>21.915619890109799</v>
+        <v>21.3612857142857</v>
       </c>
       <c r="S43" t="s">
         <v>9</v>
       </c>
       <c r="T43" s="2">
         <f t="shared" si="8"/>
-        <v>10.4639478571429</v>
+        <v>10.372948051948001</v>
       </c>
       <c r="U43" t="s">
         <v>9</v>
       </c>
       <c r="V43" s="2">
         <f t="shared" si="9"/>
-        <v>11.451673351648299</v>
+        <v>10.988298701298699</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y43" s="2">
         <f t="shared" si="10"/>
-        <v>1.1865459792663122</v>
+        <v>1.8700834675324653</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
@@ -4310,33 +4206,33 @@
       </c>
       <c r="R44" s="2">
         <f>(R41*$P41+R42*$P42+R43*$P43)/100</f>
-        <v>26.238315284405353</v>
+        <v>24.242064262050928</v>
       </c>
       <c r="S44" t="s">
         <v>9</v>
       </c>
       <c r="T44" s="2">
         <f>(T41*$P41+T43*$P42+T42*$P43)/100</f>
-        <v>12.924531241100256</v>
+        <v>13.278008216208436</v>
       </c>
       <c r="U44" t="s">
         <v>9</v>
       </c>
       <c r="V44" s="2">
         <f>(V41*$P41+V43*$P42+V42*$P43)/100</f>
-        <v>12.948927933264722</v>
+        <v>14.406845959588503</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y44" s="2">
         <f>SUM(Y41:Y43)</f>
-        <v>28.304287070250101</v>
+        <v>28.667306545724379</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2">
         <f>Y44-R44</f>
-        <v>2.0659717858447486</v>
+        <v>4.4252422836734517</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -4350,7 +4246,7 @@
       <c r="W45" s="3"/>
       <c r="Y45" s="2">
         <f>Y44-R44</f>
-        <v>2.0659717858447486</v>
+        <v>4.4252422836734517</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -4362,28 +4258,28 @@
       </c>
       <c r="P46" s="2">
         <f>N14*100</f>
-        <v>46.675918681319104</v>
+        <v>49.797922077922102</v>
       </c>
       <c r="Q46" t="s">
         <v>3</v>
       </c>
       <c r="R46" s="2">
         <f>O14</f>
-        <v>33.428822307692201</v>
+        <v>33.384662337662299</v>
       </c>
       <c r="S46" t="s">
         <v>9</v>
       </c>
       <c r="T46" s="2">
         <f>P14</f>
-        <v>27.794090769230898</v>
+        <v>27.648714285714298</v>
       </c>
       <c r="U46" t="s">
         <v>9</v>
       </c>
       <c r="V46" s="2">
         <f>Q14</f>
-        <v>5.6347332417582203</v>
+        <v>5.73584415584416</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>4</v>
@@ -4398,28 +4294,28 @@
       </c>
       <c r="P47" s="2">
         <f t="shared" ref="P47:P48" si="11">N15*100</f>
-        <v>36.368862087911303</v>
+        <v>26.546103896103901</v>
       </c>
       <c r="Q47" t="s">
         <v>3</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" ref="R47:R48" si="12">O15</f>
-        <v>31.9083990109892</v>
+        <v>31.808506493506499</v>
       </c>
       <c r="S47" t="s">
         <v>9</v>
       </c>
       <c r="T47" s="2">
         <f t="shared" ref="T47:T48" si="13">P15</f>
-        <v>22.670901153846199</v>
+        <v>22.6995844155844</v>
       </c>
       <c r="U47" t="s">
         <v>9</v>
       </c>
       <c r="V47" s="2">
         <f t="shared" ref="V47:V48" si="14">Q15</f>
-        <v>9.2374968681318901</v>
+        <v>9.1088571428571399</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
@@ -4434,28 +4330,28 @@
       </c>
       <c r="P48" s="2">
         <f t="shared" si="11"/>
-        <v>16.952967582417699</v>
+        <v>23.654155844155799</v>
       </c>
       <c r="Q48" t="s">
         <v>3</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="12"/>
-        <v>24.977691648351598</v>
+        <v>25.0958311688312</v>
       </c>
       <c r="S48" t="s">
         <v>9</v>
       </c>
       <c r="T48" s="2">
         <f t="shared" si="13"/>
-        <v>17.0396151098902</v>
+        <v>17.275779220779199</v>
       </c>
       <c r="U48" t="s">
         <v>9</v>
       </c>
       <c r="V48" s="2">
         <f t="shared" si="14"/>
-        <v>7.9380695054945498</v>
+        <v>7.8200129870129897</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
@@ -4476,21 +4372,21 @@
       </c>
       <c r="R49" s="2">
         <f>(R46*$P46+R47*$P47+R48*$P48)/100</f>
-        <v>31.442391515209493</v>
+        <v>31.004994333513228</v>
       </c>
       <c r="S49" t="s">
         <v>9</v>
       </c>
       <c r="T49" s="2">
         <f>(T46*$P46+T48*$P47+T47*$P48)/100</f>
-        <v>23.013651848538601</v>
+        <v>23.723926569994937</v>
       </c>
       <c r="U49" t="s">
         <v>9</v>
       </c>
       <c r="V49" s="2">
         <f>(V46*$P46+V48*$P47+V47*$P48)/100</f>
-        <v>7.0830789062094279</v>
+        <v>7.0868632396525548</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>4</v>
@@ -4515,28 +4411,28 @@
       </c>
       <c r="P51" s="2">
         <f>N17*100</f>
-        <v>64.865398901099297</v>
+        <v>72.472337662337608</v>
       </c>
       <c r="Q51" t="s">
         <v>3</v>
       </c>
       <c r="R51" s="2">
         <f>O17</f>
-        <v>35.759991428571503</v>
+        <v>35.5142207792208</v>
       </c>
       <c r="S51" t="s">
         <v>9</v>
       </c>
       <c r="T51" s="2">
         <f>P17</f>
-        <v>31.8261112087913</v>
+        <v>31.514428571428599</v>
       </c>
       <c r="U51" t="s">
         <v>9</v>
       </c>
       <c r="V51" s="2">
         <f>Q17</f>
-        <v>3.93388038461539</v>
+        <v>3.9998441558441602</v>
       </c>
       <c r="W51" s="3" t="s">
         <v>4</v>
@@ -4551,28 +4447,28 @@
       </c>
       <c r="P52" s="2">
         <f t="shared" ref="P52:P53" si="15">N18*100</f>
-        <v>29.723368681318401</v>
+        <v>18.7742857142857</v>
       </c>
       <c r="Q52" t="s">
         <v>3</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" ref="R52:R53" si="16">O18</f>
-        <v>34.6640401648351</v>
+        <v>34.445376623376603</v>
       </c>
       <c r="S52" t="s">
         <v>9</v>
       </c>
       <c r="T52" s="2">
         <f t="shared" ref="T52:T53" si="17">P18</f>
-        <v>28.071757967033001</v>
+        <v>27.960974025974</v>
       </c>
       <c r="U52" t="s">
         <v>9</v>
       </c>
       <c r="V52" s="2">
         <f t="shared" ref="V52:V53" si="18">Q18</f>
-        <v>6.5922832967032896</v>
+        <v>6.4844285714285697</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
@@ -4587,35 +4483,38 @@
       </c>
       <c r="P53" s="2">
         <f t="shared" si="15"/>
-        <v>5.41415659340662</v>
+        <v>8.7545454545454504</v>
       </c>
       <c r="Q53" t="s">
         <v>3</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="16"/>
-        <v>28.411639999999998</v>
+        <v>28.261207792207799</v>
       </c>
       <c r="S53" t="s">
         <v>9</v>
       </c>
       <c r="T53" s="2">
         <f t="shared" si="17"/>
-        <v>20.877174230769199</v>
+        <v>20.969428571428601</v>
       </c>
       <c r="U53" t="s">
         <v>9</v>
       </c>
       <c r="V53" s="2">
         <f t="shared" si="18"/>
-        <v>7.5344614835164601</v>
+        <v>7.2917532467532498</v>
       </c>
       <c r="W53" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="7:26" x14ac:dyDescent="0.25">
-      <c r="L54" s="2"/>
+      <c r="L54" s="2">
+        <f>R54-R49</f>
+        <v>3.6740053725586073</v>
+      </c>
       <c r="N54" t="s">
         <v>2</v>
       </c>
@@ -4630,21 +4529,21 @@
       </c>
       <c r="R54" s="2">
         <f>(R51*$P51+R52*$P52+R53*$P53)/100</f>
-        <v>35.037432225530999</v>
+        <v>34.678999706071835</v>
       </c>
       <c r="S54" t="s">
         <v>9</v>
       </c>
       <c r="T54" s="2">
         <f>(T51*$P51+T53*$P52+T52*$P53)/100</f>
-        <v>28.369382391999942</v>
+        <v>29.223959699932536</v>
       </c>
       <c r="U54" t="s">
         <v>9</v>
       </c>
       <c r="V54" s="2">
         <f>(V51*$P51+V53*$P52+V52*$P53)/100</f>
-        <v>5.1481395094349054</v>
+        <v>4.8354373974700628</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>4</v>
@@ -4653,7 +4552,7 @@
     <row r="55" spans="7:26" x14ac:dyDescent="0.25">
       <c r="Y55" s="5">
         <f>(Y44-R44)/(R54-R44)</f>
-        <v>0.23479308204085017</v>
+        <v>0.42399824233928518</v>
       </c>
       <c r="Z55" s="5"/>
     </row>

--- a/Results/table2latex.xlsx
+++ b/Results/table2latex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbueren\Google Drive\endo_health\metric_model\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B45C5BA-4E70-4F86-9ADA-6DD2FC514ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779CE7B2-D357-416B-8E1D-EE0B1EFE2134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D131852-BDAB-48D2-B0B4-24C9607E5D25}"/>
   </bookViews>
@@ -2382,7 +2382,7 @@
   <dimension ref="A2:AA79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,16 +2409,16 @@
         <v>1</v>
       </c>
       <c r="N2" s="4">
-        <v>0.24335584415584399</v>
+        <v>0.43833408863711998</v>
       </c>
       <c r="O2" s="4">
-        <v>26.708220779220799</v>
+        <v>28.0599473508831</v>
       </c>
       <c r="P2" s="4">
-        <v>17.3195714285714</v>
+        <v>17.991698100633101</v>
       </c>
       <c r="Q2" s="4">
-        <v>9.3886233766233804</v>
+        <v>10.068246917694101</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2435,16 +2435,16 @@
         <v>10.9596</v>
       </c>
       <c r="N3" s="4">
-        <v>0.172920779220779</v>
+        <v>0.112174308563812</v>
       </c>
       <c r="O3" s="4">
-        <v>27.707142857142902</v>
+        <v>25.223519826724399</v>
       </c>
       <c r="P3" s="4">
-        <v>15.703038961039001</v>
+        <v>12.9699573475508</v>
       </c>
       <c r="Q3" s="4">
-        <v>12.004</v>
+        <v>12.2535708097301</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2461,16 +2461,16 @@
         <v>5.7394999999999996</v>
       </c>
       <c r="N4" s="4">
-        <v>0.58370779220779201</v>
+        <v>0.44949203598800502</v>
       </c>
       <c r="O4" s="4">
-        <v>19.5720909090909</v>
+        <v>19.0850056647785</v>
       </c>
       <c r="P4" s="4">
-        <v>10.3391428571429</v>
+        <v>10.574183938687099</v>
       </c>
       <c r="Q4" s="4">
-        <v>9.2329220779220798</v>
+        <v>8.5108297234255001</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2490,16 +2490,16 @@
         <v>2</v>
       </c>
       <c r="N5" s="4">
-        <v>0.43737142857142902</v>
+        <v>0.58964851716094502</v>
       </c>
       <c r="O5" s="4">
-        <v>29.9031038961039</v>
+        <v>29.5105248250584</v>
       </c>
       <c r="P5" s="4">
-        <v>24.788363636363599</v>
+        <v>24.133517494168601</v>
       </c>
       <c r="Q5" s="4">
-        <v>5.1147142857142898</v>
+        <v>5.3769936687770796</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2516,16 +2516,16 @@
         <v>4.0126999999999997</v>
       </c>
       <c r="N6" s="4">
-        <v>0.24716623376623401</v>
+        <v>0.124743185604799</v>
       </c>
       <c r="O6" s="4">
-        <v>29.0154675324675</v>
+        <v>27.408755081639502</v>
       </c>
       <c r="P6" s="4">
-        <v>21.328766233766199</v>
+        <v>18.635881372875701</v>
       </c>
       <c r="Q6" s="4">
-        <v>7.6866103896103901</v>
+        <v>8.7728903698767304</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2542,16 +2542,16 @@
         <v>3.3725999999999998</v>
       </c>
       <c r="N7" s="4">
-        <v>0.31548181818181797</v>
+        <v>0.28560886371209598</v>
       </c>
       <c r="O7" s="4">
-        <v>22.827857142857098</v>
+        <v>21.166418527157699</v>
       </c>
       <c r="P7" s="4">
-        <v>15.9667402597403</v>
+        <v>15.2005881372876</v>
       </c>
       <c r="Q7" s="4">
-        <v>6.8610779220779197</v>
+        <v>5.9658190603132297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2571,16 +2571,16 @@
         <v>3</v>
       </c>
       <c r="N8" s="4">
-        <v>0.67351298701298701</v>
+        <v>0.78256757747417605</v>
       </c>
       <c r="O8" s="4">
-        <v>33.7481168831169</v>
+        <v>32.899030323225603</v>
       </c>
       <c r="P8" s="4">
-        <v>30.465454545454602</v>
+        <v>29.709329556814399</v>
       </c>
       <c r="Q8" s="4">
-        <v>3.2827792207792199</v>
+        <v>3.1897120959679999</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -2597,16 +2597,16 @@
         <v>13.2494</v>
       </c>
       <c r="N9" s="4">
-        <v>0.239866233766234</v>
+        <v>0.11356757747417499</v>
       </c>
       <c r="O9" s="4">
-        <v>32.753584415584399</v>
+        <v>29.763997334221902</v>
       </c>
       <c r="P9" s="4">
-        <v>27.240506493506501</v>
+        <v>22.389077640786301</v>
       </c>
       <c r="Q9" s="4">
-        <v>5.51314285714286</v>
+        <v>7.37491602799067</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -2623,16 +2623,16 @@
         <v>7.1492000000000004</v>
       </c>
       <c r="N10" s="4">
-        <v>8.6654545454545498E-2</v>
+        <v>0.103865078307231</v>
       </c>
       <c r="O10" s="4">
-        <v>24.462623376623402</v>
+        <v>22.664264911696101</v>
       </c>
       <c r="P10" s="4">
-        <v>19.529792207792202</v>
+        <v>18.031368877041</v>
       </c>
       <c r="Q10" s="4">
-        <v>4.9328571428571397</v>
+        <v>4.6328867044318596</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -2652,16 +2652,16 @@
         <v>4</v>
       </c>
       <c r="N11" s="4">
-        <v>0.20755584415584399</v>
+        <v>0.42896584471842802</v>
       </c>
       <c r="O11" s="4">
-        <v>29.543376623376599</v>
+        <v>29.962196934355202</v>
       </c>
       <c r="P11" s="4">
-        <v>16.795610389610399</v>
+        <v>17.2914965011663</v>
       </c>
       <c r="Q11" s="4">
-        <v>12.747740259740301</v>
+        <v>12.6706997667444</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -2678,16 +2678,16 @@
         <v>4.8164999999999996</v>
       </c>
       <c r="N12" s="4">
-        <v>0.161355844155844</v>
+        <v>0.26394221926024702</v>
       </c>
       <c r="O12" s="4">
-        <v>28.690558441558501</v>
+        <v>27.174859046984299</v>
       </c>
       <c r="P12" s="4">
-        <v>12.863961038961</v>
+        <v>10.627797067644099</v>
       </c>
       <c r="Q12" s="4">
-        <v>15.826649350649401</v>
+        <v>16.547057980673099</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -2704,16 +2704,16 @@
         <v>4.1228999999999996</v>
       </c>
       <c r="N13" s="4">
-        <v>0.63108441558441597</v>
+        <v>0.30709183605464901</v>
       </c>
       <c r="O13" s="4">
-        <v>21.3612857142857</v>
+        <v>21.166394201932601</v>
       </c>
       <c r="P13" s="4">
-        <v>10.372948051948001</v>
+        <v>9.5599866711096304</v>
       </c>
       <c r="Q13" s="4">
-        <v>10.988298701298699</v>
+        <v>11.6064145284905</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2721,16 +2721,16 @@
         <v>5</v>
       </c>
       <c r="N14" s="4">
-        <v>0.49797922077922102</v>
+        <v>0.57747957347550705</v>
       </c>
       <c r="O14" s="4">
-        <v>33.384662337662299</v>
+        <v>32.927158947017702</v>
       </c>
       <c r="P14" s="4">
-        <v>27.648714285714298</v>
+        <v>27.0870226591137</v>
       </c>
       <c r="Q14" s="4">
-        <v>5.73584415584416</v>
+        <v>5.8401312895701496</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2738,16 +2738,16 @@
         <v>5</v>
       </c>
       <c r="N15" s="4">
-        <v>0.26546103896103901</v>
+        <v>0.21353002332555801</v>
       </c>
       <c r="O15" s="4">
-        <v>31.808506493506499</v>
+        <v>29.434091302898999</v>
       </c>
       <c r="P15" s="4">
-        <v>22.6995844155844</v>
+        <v>19.159456181272901</v>
       </c>
       <c r="Q15" s="4">
-        <v>9.1088571428571399</v>
+        <v>10.274632455848099</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -2787,16 +2787,16 @@
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="4">
-        <v>0.236541558441558</v>
+        <v>0.208989670109964</v>
       </c>
       <c r="O16" s="4">
-        <v>25.0958311688312</v>
+        <v>24.193005664778401</v>
       </c>
       <c r="P16" s="4">
-        <v>17.275779220779199</v>
+        <v>16.846899033655401</v>
       </c>
       <c r="Q16" s="4">
-        <v>7.8200129870129897</v>
+        <v>7.3461052982339101</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
@@ -2838,16 +2838,16 @@
         <v>6</v>
       </c>
       <c r="N17" s="4">
-        <v>0.72472337662337605</v>
+        <v>0.73917280906364502</v>
       </c>
       <c r="O17" s="4">
-        <v>35.5142207792208</v>
+        <v>34.806646451182999</v>
       </c>
       <c r="P17" s="4">
-        <v>31.514428571428599</v>
+        <v>30.9809646784405</v>
       </c>
       <c r="Q17" s="4">
-        <v>3.9998441558441602</v>
+        <v>3.8256884371875999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
@@ -2885,16 +2885,16 @@
         <v>4</v>
       </c>
       <c r="N18" s="4">
-        <v>0.18774285714285699</v>
+        <v>0.16864225258247301</v>
       </c>
       <c r="O18" s="4">
-        <v>34.445376623376603</v>
+        <v>30.073378540486502</v>
       </c>
       <c r="P18" s="4">
-        <v>27.960974025974</v>
+        <v>23.6648040653116</v>
       </c>
       <c r="Q18" s="4">
-        <v>6.4844285714285697</v>
+        <v>6.4085701432855799</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
@@ -2907,16 +2907,16 @@
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
       <c r="N19" s="4">
-        <v>8.7545454545454496E-2</v>
+        <v>9.2185271576141495E-2</v>
       </c>
       <c r="O19" s="4">
-        <v>28.261207792207799</v>
+        <v>26.816803398866998</v>
       </c>
       <c r="P19" s="4">
-        <v>20.969428571428601</v>
+        <v>20.092539153615501</v>
       </c>
       <c r="Q19" s="4">
-        <v>7.2917532467532498</v>
+        <v>6.7242615794735103</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -3160,28 +3160,28 @@
       </c>
       <c r="P26" s="2">
         <f>N2*100</f>
-        <v>24.3355844155844</v>
+        <v>43.833408863711995</v>
       </c>
       <c r="Q26" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="2">
         <f>O2</f>
-        <v>26.708220779220799</v>
+        <v>28.0599473508831</v>
       </c>
       <c r="S26" t="s">
         <v>9</v>
       </c>
       <c r="T26" s="2">
         <f>P2</f>
-        <v>17.3195714285714</v>
+        <v>17.991698100633101</v>
       </c>
       <c r="U26" t="s">
         <v>9</v>
       </c>
       <c r="V26" s="2">
         <f>Q2</f>
-        <v>9.3886233766233804</v>
+        <v>10.068246917694101</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>4</v>
@@ -3189,15 +3189,15 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2">
         <f>$R26*$P36/100</f>
-        <v>17.988333554815327</v>
+        <v>21.958805022433513</v>
       </c>
       <c r="Z26" s="2">
         <f>$V26*$P36/100</f>
-        <v>6.3233597743295693</v>
+        <v>7.8790835997917119</v>
       </c>
       <c r="AA26" s="2">
         <f>$R26*$P41/100</f>
-        <v>5.5434473097318255</v>
+        <v>12.036759018126185</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
@@ -3217,28 +3217,28 @@
       </c>
       <c r="P27" s="2">
         <f>N3*100</f>
-        <v>17.292077922077901</v>
+        <v>11.217430856381199</v>
       </c>
       <c r="Q27" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="2">
         <f>O3</f>
-        <v>27.707142857142902</v>
+        <v>25.223519826724399</v>
       </c>
       <c r="S27" t="s">
         <v>9</v>
       </c>
       <c r="T27" s="2">
         <f>P3</f>
-        <v>15.703038961039001</v>
+        <v>12.9699573475508</v>
       </c>
       <c r="U27" t="s">
         <v>9</v>
       </c>
       <c r="V27" s="2">
         <f>Q3</f>
-        <v>12.004</v>
+        <v>12.2535708097301</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>4</v>
@@ -3246,15 +3246,15 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2">
         <f t="shared" ref="Y27" si="0">$R27*$P37/100</f>
-        <v>6.6460080055658795</v>
+        <v>2.864574042092912</v>
       </c>
       <c r="Z27" s="2">
         <f t="shared" ref="Z27:Z28" si="1">$V27*$P37/100</f>
-        <v>2.8793542701298724</v>
+        <v>1.3916083522693123</v>
       </c>
       <c r="AA27" s="2">
         <f t="shared" ref="AA27:AA28" si="2">$R27*$P42/100</f>
-        <v>4.4707094248608561</v>
+        <v>6.657551800620479</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
@@ -3300,28 +3300,28 @@
       </c>
       <c r="P28" s="2">
         <f>N4*100</f>
-        <v>58.370779220779198</v>
+        <v>44.949203598800501</v>
       </c>
       <c r="Q28" t="s">
         <v>3</v>
       </c>
       <c r="R28" s="2">
         <f>O4</f>
-        <v>19.5720909090909</v>
+        <v>19.0850056647785</v>
       </c>
       <c r="S28" t="s">
         <v>9</v>
       </c>
       <c r="T28" s="2">
         <f>P4</f>
-        <v>10.3391428571429</v>
+        <v>10.574183938687099</v>
       </c>
       <c r="U28" t="s">
         <v>9</v>
       </c>
       <c r="V28" s="2">
         <f>Q4</f>
-        <v>9.2329220779220798</v>
+        <v>8.5108297234255001</v>
       </c>
       <c r="W28" s="3" t="s">
         <v>4</v>
@@ -3329,15 +3329,15 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2">
         <f t="shared" ref="Y28" si="3">$R28*$P38/100</f>
-        <v>1.6960106413223142</v>
+        <v>1.9822656078661662</v>
       </c>
       <c r="Z28" s="2">
         <f t="shared" si="1"/>
-        <v>0.80007466587957554</v>
+        <v>0.88397799568309876</v>
       </c>
       <c r="AA28" s="2">
         <f t="shared" si="2"/>
-        <v>12.35164155312869</v>
+        <v>5.860849430710207</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
@@ -3389,21 +3389,21 @@
       </c>
       <c r="R29" s="2">
         <f>(R26*$P26+R27*$P27+R28*$P28)/100</f>
-        <v>22.71512431990217</v>
+        <v>23.70762039846722</v>
       </c>
       <c r="S29" t="s">
         <v>9</v>
       </c>
       <c r="T29" s="2">
         <f>(T26*$P26+T28*$P27+T27*$P28)/100</f>
-        <v>15.168657767650547</v>
+        <v>14.902418896752197</v>
       </c>
       <c r="U29" t="s">
         <v>9</v>
       </c>
       <c r="V29" s="2">
         <f>(V26*$P26+V28*$P27+V27*$P28)/100</f>
-        <v>10.888168785140829</v>
+        <v>10.875834767759299</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>4</v>
@@ -3411,15 +3411,15 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2">
         <f>SUM(Y26:Y28)</f>
-        <v>26.330352201703519</v>
+        <v>26.805644672392589</v>
       </c>
       <c r="Z29" s="2">
         <f>SUM(Z26:Z28)</f>
-        <v>10.002788710339017</v>
+        <v>10.154669947744123</v>
       </c>
       <c r="AA29" s="2">
         <f>SUM(AA26:AA28)</f>
-        <v>22.365798287721372</v>
+        <v>24.555160249456872</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
@@ -3466,12 +3466,12 @@
       <c r="W30" s="3"/>
       <c r="Y30" s="2">
         <f>Y29-R29</f>
-        <v>3.6152278818013492</v>
+        <v>3.0980242739253683</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="5">
         <f>(AA29-R29)/(R44-R29)</f>
-        <v>-0.22877522719670004</v>
+        <v>0.30078516188937904</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
@@ -3491,28 +3491,28 @@
       </c>
       <c r="P31" s="2">
         <f>N5*100</f>
-        <v>43.737142857142899</v>
+        <v>58.9648517160945</v>
       </c>
       <c r="Q31" t="s">
         <v>3</v>
       </c>
       <c r="R31" s="2">
         <f>O5</f>
-        <v>29.9031038961039</v>
+        <v>29.5105248250584</v>
       </c>
       <c r="S31" t="s">
         <v>9</v>
       </c>
       <c r="T31" s="2">
         <f>P5</f>
-        <v>24.788363636363599</v>
+        <v>24.133517494168601</v>
       </c>
       <c r="U31" t="s">
         <v>9</v>
       </c>
       <c r="V31" s="2">
         <f>Q5</f>
-        <v>5.1147142857142898</v>
+        <v>5.3769936687770796</v>
       </c>
       <c r="W31" s="3" t="s">
         <v>4</v>
@@ -3521,7 +3521,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2">
         <f>$R31*$P46/100</f>
-        <v>14.891124377061908</v>
+        <v>17.041725289013087</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
@@ -3567,28 +3567,28 @@
       </c>
       <c r="P32" s="2">
         <f>N6*100</f>
-        <v>24.716623376623399</v>
+        <v>12.474318560479899</v>
       </c>
       <c r="Q32" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="2">
         <f>O6</f>
-        <v>29.0154675324675</v>
+        <v>27.408755081639502</v>
       </c>
       <c r="S32" t="s">
         <v>9</v>
       </c>
       <c r="T32" s="2">
         <f>P6</f>
-        <v>21.328766233766199</v>
+        <v>18.635881372875701</v>
       </c>
       <c r="U32" t="s">
         <v>9</v>
       </c>
       <c r="V32" s="2">
         <f>Q6</f>
-        <v>7.6866103896103901</v>
+        <v>8.7728903698767304</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>4</v>
@@ -3597,7 +3597,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2">
         <f t="shared" ref="AA32:AA33" si="4">$R32*$P47/100</f>
-        <v>7.7024761571091176</v>
+        <v>5.852592111906989</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
@@ -3643,28 +3643,28 @@
       </c>
       <c r="P33" s="2">
         <f>N7*100</f>
-        <v>31.548181818181796</v>
+        <v>28.560886371209598</v>
       </c>
       <c r="Q33" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="2">
         <f>O7</f>
-        <v>22.827857142857098</v>
+        <v>21.166418527157699</v>
       </c>
       <c r="S33" t="s">
         <v>9</v>
       </c>
       <c r="T33" s="2">
         <f>P7</f>
-        <v>15.9667402597403</v>
+        <v>15.2005881372876</v>
       </c>
       <c r="U33" t="s">
         <v>9</v>
       </c>
       <c r="V33" s="2">
         <f>Q7</f>
-        <v>6.8610779220779197</v>
+        <v>5.9658190603132297</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>4</v>
@@ -3673,7 +3673,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2">
         <f t="shared" si="4"/>
-        <v>5.3997369044526691</v>
+        <v>4.4235628254001176</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
@@ -3724,21 +3724,21 @@
       </c>
       <c r="R34" s="2">
         <f>(R31*$P31+R32*$P32+R33*$P33)/100</f>
-        <v>27.452180977348618</v>
+        <v>26.865209370478542</v>
       </c>
       <c r="S34" t="s">
         <v>9</v>
       </c>
       <c r="T34" s="2">
         <f>(T31*$P31+T33*$P32+T32*$P33)/100</f>
-        <v>21.516999022111644</v>
+        <v>21.449035494806459</v>
       </c>
       <c r="U34" t="s">
         <v>9</v>
       </c>
       <c r="V34" s="2">
         <f>(V31*$P31+V33*$P32+V32*$P33)/100</f>
-        <v>6.3578425048237515</v>
+        <v>6.4203468679147768</v>
       </c>
       <c r="W34" s="3" t="s">
         <v>4</v>
@@ -3747,7 +3747,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2">
         <f>SUM(AA31:AA33)</f>
-        <v>27.993337438623694</v>
+        <v>27.317880226320195</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
@@ -3771,7 +3771,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="5">
         <f>(AA34-R34)/(R49-R34)</f>
-        <v>0.15231772880387781</v>
+        <v>0.12967900178487465</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -3817,28 +3817,28 @@
       </c>
       <c r="P36" s="2">
         <f>N8*100</f>
-        <v>67.351298701298703</v>
+        <v>78.256757747417609</v>
       </c>
       <c r="Q36" t="s">
         <v>3</v>
       </c>
       <c r="R36" s="2">
         <f>O8</f>
-        <v>33.7481168831169</v>
+        <v>32.899030323225603</v>
       </c>
       <c r="S36" t="s">
         <v>9</v>
       </c>
       <c r="T36" s="2">
         <f>P8</f>
-        <v>30.465454545454602</v>
+        <v>29.709329556814399</v>
       </c>
       <c r="U36" t="s">
         <v>9</v>
       </c>
       <c r="V36" s="2">
         <f>Q8</f>
-        <v>3.2827792207792199</v>
+        <v>3.1897120959679999</v>
       </c>
       <c r="W36" s="3" t="s">
         <v>4</v>
@@ -3847,7 +3847,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2">
         <f>$R36*$P51/100</f>
-        <v>24.458049222212843</v>
+        <v>24.318068659488702</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
@@ -3893,28 +3893,28 @@
       </c>
       <c r="P37" s="2">
         <f>N9*100</f>
-        <v>23.986623376623399</v>
+        <v>11.356757747417499</v>
       </c>
       <c r="Q37" t="s">
         <v>3</v>
       </c>
       <c r="R37" s="2">
         <f>O9</f>
-        <v>32.753584415584399</v>
+        <v>29.763997334221902</v>
       </c>
       <c r="S37" t="s">
         <v>9</v>
       </c>
       <c r="T37" s="2">
         <f>P9</f>
-        <v>27.240506493506501</v>
+        <v>22.389077640786301</v>
       </c>
       <c r="U37" t="s">
         <v>9</v>
       </c>
       <c r="V37" s="2">
         <f>Q9</f>
-        <v>5.51314285714286</v>
+        <v>7.37491602799067</v>
       </c>
       <c r="W37" s="3" t="s">
         <v>4</v>
@@ -3923,7 +3923,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2">
         <f t="shared" ref="AA37:AA38" si="5">$R37*$P52/100</f>
-        <v>6.1492515198515694</v>
+        <v>5.0194675563019038</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
@@ -3968,28 +3968,28 @@
       </c>
       <c r="P38" s="2">
         <f>N10*100</f>
-        <v>8.6654545454545495</v>
+        <v>10.386507830723101</v>
       </c>
       <c r="Q38" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2">
         <f>O10</f>
-        <v>24.462623376623402</v>
+        <v>22.664264911696101</v>
       </c>
       <c r="S38" t="s">
         <v>9</v>
       </c>
       <c r="T38" s="2">
         <f>P10</f>
-        <v>19.529792207792202</v>
+        <v>18.031368877041</v>
       </c>
       <c r="U38" t="s">
         <v>9</v>
       </c>
       <c r="V38" s="2">
         <f>Q10</f>
-        <v>4.9328571428571397</v>
+        <v>4.6328867044318596</v>
       </c>
       <c r="W38" s="3" t="s">
         <v>4</v>
@@ -3998,13 +3998,13 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2">
         <f t="shared" si="5"/>
-        <v>2.1415914828807567</v>
+        <v>2.0893114159583193</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="L39" s="2">
-        <f>R39-R34</f>
-        <v>5.253890476100544</v>
+        <f>R39-R29</f>
+        <v>7.7723447858534271</v>
       </c>
       <c r="N39" t="s">
         <v>2</v>
@@ -4020,21 +4020,21 @@
       </c>
       <c r="R39" s="2">
         <f>(R36*$P36+R37*$P37+R38*$P38)/100</f>
-        <v>32.706071453449162</v>
+        <v>31.479965184320648</v>
       </c>
       <c r="S39" t="s">
         <v>9</v>
       </c>
       <c r="T39" s="2">
         <f>(T36*$P36+T38*$P37+T37*$P38)/100</f>
-        <v>27.563930702884171</v>
+        <v>27.622780243953908</v>
       </c>
       <c r="U39" t="s">
         <v>9</v>
       </c>
       <c r="V39" s="2">
         <f>(V36*$P36+V38*$P37+V37*$P38)/100</f>
-        <v>3.8719591915668752</v>
+        <v>3.788307218272899</v>
       </c>
       <c r="W39" s="3" t="s">
         <v>4</v>
@@ -4043,7 +4043,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2">
         <f>SUM(AA36:AA38)</f>
-        <v>32.748892224945166</v>
+        <v>31.426847631748927</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
@@ -4057,12 +4057,12 @@
       <c r="W40" s="3"/>
       <c r="Y40" s="5">
         <f>(Y29-R29)/(R39-R29)</f>
-        <v>0.36185036648451052</v>
+        <v>0.39859583681415334</v>
       </c>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5">
         <f>(AA39-R39)/(R54-R39)</f>
-        <v>2.1704170660580738E-2</v>
+        <v>-2.9642846970977924E-2</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
@@ -4074,35 +4074,35 @@
       </c>
       <c r="P41" s="2">
         <f>N11*100</f>
-        <v>20.755584415584398</v>
+        <v>42.8965844718428</v>
       </c>
       <c r="Q41" t="s">
         <v>3</v>
       </c>
       <c r="R41" s="2">
         <f>O11</f>
-        <v>29.543376623376599</v>
+        <v>29.962196934355202</v>
       </c>
       <c r="S41" t="s">
         <v>9</v>
       </c>
       <c r="T41" s="2">
         <f>P11</f>
-        <v>16.795610389610399</v>
+        <v>17.2914965011663</v>
       </c>
       <c r="U41" t="s">
         <v>9</v>
       </c>
       <c r="V41" s="2">
         <f>Q11</f>
-        <v>12.747740259740301</v>
+        <v>12.6706997667444</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y41" s="2">
         <f>R41*P51/100</f>
-        <v>21.410775663349604</v>
+        <v>22.147241273685466</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
@@ -4116,35 +4116,35 @@
       </c>
       <c r="P42" s="2">
         <f t="shared" ref="P42:P43" si="6">N12*100</f>
-        <v>16.1355844155844</v>
+        <v>26.394221926024702</v>
       </c>
       <c r="Q42" t="s">
         <v>3</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" ref="R42:R43" si="7">O12</f>
-        <v>28.690558441558501</v>
+        <v>27.174859046984299</v>
       </c>
       <c r="S42" t="s">
         <v>9</v>
       </c>
       <c r="T42" s="2">
         <f t="shared" ref="T42:T43" si="8">P12</f>
-        <v>12.863961038961</v>
+        <v>10.627797067644099</v>
       </c>
       <c r="U42" t="s">
         <v>9</v>
       </c>
       <c r="V42" s="2">
         <f t="shared" ref="V42:V43" si="9">Q12</f>
-        <v>15.826649350649401</v>
+        <v>16.547057980673099</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y42" s="2">
         <f t="shared" ref="Y42:Y43" si="10">R42*P52/100</f>
-        <v>5.3864474148423076</v>
+        <v>4.5828294432946279</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
@@ -4158,35 +4158,35 @@
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>63.108441558441598</v>
+        <v>30.709183605464901</v>
       </c>
       <c r="Q43" t="s">
         <v>3</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="7"/>
-        <v>21.3612857142857</v>
+        <v>21.166394201932601</v>
       </c>
       <c r="S43" t="s">
         <v>9</v>
       </c>
       <c r="T43" s="2">
         <f t="shared" si="8"/>
-        <v>10.372948051948001</v>
+        <v>9.5599866711096304</v>
       </c>
       <c r="U43" t="s">
         <v>9</v>
       </c>
       <c r="V43" s="2">
         <f t="shared" si="9"/>
-        <v>10.988298701298699</v>
+        <v>11.6064145284905</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y43" s="2">
         <f t="shared" si="10"/>
-        <v>1.8700834675324653</v>
+        <v>1.9512297977928237</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
@@ -4206,33 +4206,33 @@
       </c>
       <c r="R44" s="2">
         <f>(R41*$P41+R42*$P42+R43*$P43)/100</f>
-        <v>24.242064262050928</v>
+        <v>26.525378580638968</v>
       </c>
       <c r="S44" t="s">
         <v>9</v>
       </c>
       <c r="T44" s="2">
         <f>(T41*$P41+T43*$P42+T42*$P43)/100</f>
-        <v>13.278008216208436</v>
+        <v>13.204455215858642</v>
       </c>
       <c r="U44" t="s">
         <v>9</v>
       </c>
       <c r="V44" s="2">
         <f>(V41*$P41+V43*$P42+V42*$P43)/100</f>
-        <v>14.406845959588503</v>
+        <v>13.580186653506892</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y44" s="2">
         <f>SUM(Y41:Y43)</f>
-        <v>28.667306545724379</v>
+        <v>28.681300514772918</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2">
         <f>Y44-R44</f>
-        <v>4.4252422836734517</v>
+        <v>2.1559219341339499</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
@@ -4246,7 +4246,7 @@
       <c r="W45" s="3"/>
       <c r="Y45" s="2">
         <f>Y44-R44</f>
-        <v>4.4252422836734517</v>
+        <v>2.1559219341339499</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
@@ -4258,28 +4258,28 @@
       </c>
       <c r="P46" s="2">
         <f>N14*100</f>
-        <v>49.797922077922102</v>
+        <v>57.747957347550702</v>
       </c>
       <c r="Q46" t="s">
         <v>3</v>
       </c>
       <c r="R46" s="2">
         <f>O14</f>
-        <v>33.384662337662299</v>
+        <v>32.927158947017702</v>
       </c>
       <c r="S46" t="s">
         <v>9</v>
       </c>
       <c r="T46" s="2">
         <f>P14</f>
-        <v>27.648714285714298</v>
+        <v>27.0870226591137</v>
       </c>
       <c r="U46" t="s">
         <v>9</v>
       </c>
       <c r="V46" s="2">
         <f>Q14</f>
-        <v>5.73584415584416</v>
+        <v>5.8401312895701496</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>4</v>
@@ -4294,28 +4294,28 @@
       </c>
       <c r="P47" s="2">
         <f t="shared" ref="P47:P48" si="11">N15*100</f>
-        <v>26.546103896103901</v>
+        <v>21.3530023325558</v>
       </c>
       <c r="Q47" t="s">
         <v>3</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" ref="R47:R48" si="12">O15</f>
-        <v>31.808506493506499</v>
+        <v>29.434091302898999</v>
       </c>
       <c r="S47" t="s">
         <v>9</v>
       </c>
       <c r="T47" s="2">
         <f t="shared" ref="T47:T48" si="13">P15</f>
-        <v>22.6995844155844</v>
+        <v>19.159456181272901</v>
       </c>
       <c r="U47" t="s">
         <v>9</v>
       </c>
       <c r="V47" s="2">
         <f t="shared" ref="V47:V48" si="14">Q15</f>
-        <v>9.1088571428571399</v>
+        <v>10.274632455848099</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
@@ -4330,28 +4330,28 @@
       </c>
       <c r="P48" s="2">
         <f t="shared" si="11"/>
-        <v>23.654155844155799</v>
+        <v>20.898967010996401</v>
       </c>
       <c r="Q48" t="s">
         <v>3</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="12"/>
-        <v>25.0958311688312</v>
+        <v>24.193005664778401</v>
       </c>
       <c r="S48" t="s">
         <v>9</v>
       </c>
       <c r="T48" s="2">
         <f t="shared" si="13"/>
-        <v>17.275779220779199</v>
+        <v>16.846899033655401</v>
       </c>
       <c r="U48" t="s">
         <v>9</v>
       </c>
       <c r="V48" s="2">
         <f t="shared" si="14"/>
-        <v>7.8200129870129897</v>
+        <v>7.3461052982339101</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
@@ -4372,21 +4372,21 @@
       </c>
       <c r="R49" s="2">
         <f>(R46*$P46+R47*$P47+R48*$P48)/100</f>
-        <v>31.004994333513228</v>
+        <v>30.355912179809167</v>
       </c>
       <c r="S49" t="s">
         <v>9</v>
       </c>
       <c r="T49" s="2">
         <f>(T46*$P46+T48*$P47+T47*$P48)/100</f>
-        <v>23.723926569994937</v>
+        <v>23.243649462336666</v>
       </c>
       <c r="U49" t="s">
         <v>9</v>
       </c>
       <c r="V49" s="2">
         <f>(V46*$P46+V48*$P47+V47*$P48)/100</f>
-        <v>7.0868632396525548</v>
+        <v>7.0884626092746483</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>4</v>
@@ -4411,28 +4411,28 @@
       </c>
       <c r="P51" s="2">
         <f>N17*100</f>
-        <v>72.472337662337608</v>
+        <v>73.917280906364496</v>
       </c>
       <c r="Q51" t="s">
         <v>3</v>
       </c>
       <c r="R51" s="2">
         <f>O17</f>
-        <v>35.5142207792208</v>
+        <v>34.806646451182999</v>
       </c>
       <c r="S51" t="s">
         <v>9</v>
       </c>
       <c r="T51" s="2">
         <f>P17</f>
-        <v>31.514428571428599</v>
+        <v>30.9809646784405</v>
       </c>
       <c r="U51" t="s">
         <v>9</v>
       </c>
       <c r="V51" s="2">
         <f>Q17</f>
-        <v>3.9998441558441602</v>
+        <v>3.8256884371875999</v>
       </c>
       <c r="W51" s="3" t="s">
         <v>4</v>
@@ -4447,28 +4447,28 @@
       </c>
       <c r="P52" s="2">
         <f t="shared" ref="P52:P53" si="15">N18*100</f>
-        <v>18.7742857142857</v>
+        <v>16.864225258247302</v>
       </c>
       <c r="Q52" t="s">
         <v>3</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" ref="R52:R53" si="16">O18</f>
-        <v>34.445376623376603</v>
+        <v>30.073378540486502</v>
       </c>
       <c r="S52" t="s">
         <v>9</v>
       </c>
       <c r="T52" s="2">
         <f t="shared" ref="T52:T53" si="17">P18</f>
-        <v>27.960974025974</v>
+        <v>23.6648040653116</v>
       </c>
       <c r="U52" t="s">
         <v>9</v>
       </c>
       <c r="V52" s="2">
         <f t="shared" ref="V52:V53" si="18">Q18</f>
-        <v>6.4844285714285697</v>
+        <v>6.4085701432855799</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
@@ -4483,28 +4483,28 @@
       </c>
       <c r="P53" s="2">
         <f t="shared" si="15"/>
-        <v>8.7545454545454504</v>
+        <v>9.2185271576141492</v>
       </c>
       <c r="Q53" t="s">
         <v>3</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="16"/>
-        <v>28.261207792207799</v>
+        <v>26.816803398866998</v>
       </c>
       <c r="S53" t="s">
         <v>9</v>
       </c>
       <c r="T53" s="2">
         <f t="shared" si="17"/>
-        <v>20.969428571428601</v>
+        <v>20.092539153615501</v>
       </c>
       <c r="U53" t="s">
         <v>9</v>
       </c>
       <c r="V53" s="2">
         <f t="shared" si="18"/>
-        <v>7.2917532467532498</v>
+        <v>6.7242615794735103</v>
       </c>
       <c r="W53" s="3" t="s">
         <v>4</v>
@@ -4512,8 +4512,8 @@
     </row>
     <row r="54" spans="7:26" x14ac:dyDescent="0.25">
       <c r="L54" s="2">
-        <f>R54-R49</f>
-        <v>3.6740053725586073</v>
+        <f>R54-R44</f>
+        <v>6.7465046547287137</v>
       </c>
       <c r="N54" t="s">
         <v>2</v>
@@ -4529,21 +4529,21 @@
       </c>
       <c r="R54" s="2">
         <f>(R51*$P51+R52*$P52+R53*$P53)/100</f>
-        <v>34.678999706071835</v>
+        <v>33.271883235367682</v>
       </c>
       <c r="S54" t="s">
         <v>9</v>
       </c>
       <c r="T54" s="2">
         <f>(T51*$P51+T53*$P52+T52*$P53)/100</f>
-        <v>29.223959699932536</v>
+        <v>28.470284141388614</v>
       </c>
       <c r="U54" t="s">
         <v>9</v>
       </c>
       <c r="V54" s="2">
         <f>(V51*$P51+V53*$P52+V52*$P53)/100</f>
-        <v>4.8354373974700628</v>
+        <v>4.5526152675079876</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>4</v>
@@ -4552,7 +4552,7 @@
     <row r="55" spans="7:26" x14ac:dyDescent="0.25">
       <c r="Y55" s="5">
         <f>(Y44-R44)/(R54-R44)</f>
-        <v>0.42399824233928518</v>
+        <v>0.31956132019012778</v>
       </c>
       <c r="Z55" s="5"/>
     </row>
